--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD48FE14-5735-4B62-950E-C27416F36F46}"/>
+  <xr:revisionPtr revIDLastSave="430" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B2970F5-1498-469D-B3C3-8EE75A29BE13}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Gesamt Stundenanzahl vom Projekt</t>
+  </si>
+  <si>
+    <t>Teil                   (Prog,Prot)</t>
+  </si>
+  <si>
+    <t>Prot</t>
+  </si>
+  <si>
+    <t>Stundenaufzeichnung erstellen</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1176,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1220,6 +1229,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="80" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="79" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="71" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1238,6 +1270,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="72" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="73" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1247,17 +1285,134 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1277,161 +1432,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="71" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="72" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="73" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="79" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="80" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1718,7 +1742,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,31 +1751,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94">
+      <c r="A2" s="32">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
@@ -1765,17 +1789,17 @@
       <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -1789,11 +1813,11 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
@@ -1804,34 +1828,35 @@
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="84">
-        <v>0</v>
-      </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="84">
-        <v>0</v>
-      </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="33">
+        <f>Projektstundennachweis!I10</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
@@ -1845,11 +1870,11 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
@@ -1860,34 +1885,34 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="84">
-        <v>0</v>
-      </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="86">
-        <v>0</v>
-      </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41">
+        <v>0</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1918,269 +1943,278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:F42"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="77"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="61"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="32" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="26" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="59"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="82"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="77"/>
+      <c r="L5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="M5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="66" t="s">
+      <c r="N5" s="89"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="85"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="69" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="69" t="s">
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="69" t="s">
+      <c r="Q6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="65" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="71"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="65"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="71"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="65"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="72"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="66"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.75347222222222221</v>
+      </c>
       <c r="I10" s="7">
         <f>H10-G10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="53"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="95"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="7">
@@ -2189,24 +2223,24 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="7">
         <f>H11-G11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="7">
@@ -2215,24 +2249,24 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="7">
         <f t="shared" ref="I12:I49" si="0">H12-G12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="7">
@@ -2241,24 +2275,24 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="35"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="36"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7">
@@ -2267,24 +2301,24 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="7">
@@ -2293,24 +2327,24 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="35"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="64"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="7">
@@ -2319,24 +2353,24 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="64"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="7">
@@ -2345,24 +2379,24 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="35"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="64"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="7">
@@ -2371,24 +2405,24 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="35"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="36"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="64"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="7">
@@ -2397,24 +2431,24 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="35"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="36"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="64"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="7">
@@ -2423,24 +2457,24 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="35"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="64"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="7">
@@ -2449,24 +2483,24 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="35"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="64"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="7">
@@ -2475,24 +2509,24 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="35"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="7">
@@ -2501,24 +2535,24 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="35"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="36"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="7">
@@ -2527,24 +2561,24 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="35"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="36"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="7">
@@ -2553,24 +2587,24 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="35"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="36"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="64"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2579,24 +2613,24 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="35"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="64"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2605,24 +2639,24 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="35"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="36"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2631,24 +2665,24 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="55"/>
-      <c r="K28" s="35"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="36"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2657,24 +2691,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="55"/>
-      <c r="K29" s="35"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="36"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="64"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2683,24 +2717,24 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="55"/>
-      <c r="K30" s="35"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="36"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="64"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2709,24 +2743,24 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="35"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="63"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="36"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="64"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2735,24 +2769,24 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="55"/>
-      <c r="K32" s="35"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="36"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="64"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2761,24 +2795,24 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="35"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="36"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="64"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2787,24 +2821,24 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="55"/>
-      <c r="K34" s="35"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="63"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="36"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="64"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2813,24 +2847,24 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="55"/>
-      <c r="K35" s="35"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="36"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2839,24 +2873,24 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="55"/>
-      <c r="K36" s="35"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="63"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="36"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="64"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2865,24 +2899,24 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="55"/>
-      <c r="K37" s="35"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="63"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="36"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="64"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2891,50 +2925,50 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="97"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="56"/>
-      <c r="K38" s="57"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="74"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="97"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="28"/>
       <c r="R38" s="7">
         <f>Q38-P38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="55"/>
-      <c r="K39" s="35"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="63"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="36"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="64"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="7">
@@ -2943,24 +2977,24 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="55"/>
-      <c r="K40" s="35"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="63"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="36"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
@@ -2969,24 +3003,24 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="55"/>
-      <c r="K41" s="35"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="63"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="36"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="64"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -2995,24 +3029,24 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="55"/>
-      <c r="K42" s="35"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="36"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="64"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3021,24 +3055,24 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="55"/>
-      <c r="K43" s="35"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="36"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="64"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3047,24 +3081,24 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="35"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="63"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="36"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="64"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3073,24 +3107,24 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="64"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J45" s="55"/>
-      <c r="K45" s="35"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="36"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="64"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3099,24 +3133,24 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J46" s="55"/>
-      <c r="K46" s="35"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="63"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="36"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="64"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3125,24 +3159,24 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="B47" s="35"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J47" s="55"/>
-      <c r="K47" s="35"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="63"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="36"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="64"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3151,24 +3185,24 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J48" s="55"/>
-      <c r="K48" s="35"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="63"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="36"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="64"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3177,24 +3211,24 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="64"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="49"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
       <c r="L49" s="11"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="36"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="64"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="8">
@@ -3203,31 +3237,31 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="52" t="s">
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="51"/>
-      <c r="I50" s="95">
+      <c r="H50" s="70"/>
+      <c r="I50" s="26">
         <f>SUM(I10:I49)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="50"/>
-      <c r="K50" s="51"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="J50" s="69"/>
+      <c r="K50" s="70"/>
       <c r="L50" s="12"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="52" t="s">
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="97"/>
+      <c r="P50" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="95">
+      <c r="Q50" s="70"/>
+      <c r="R50" s="26">
         <f>SUM(R10:R49)</f>
         <v>0</v>
       </c>
@@ -3235,36 +3269,146 @@
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D5:F9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="M5:O9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
@@ -3289,146 +3433,36 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="M5:O9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D5:F9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="430" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B2970F5-1498-469D-B3C3-8EE75A29BE13}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26ADB95-CF4A-4DC4-A630-136A57846ACC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Stundenaufzeichnung erstellen</t>
+  </si>
+  <si>
+    <t>Clickdummy erstellen</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1234,6 +1237,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1435,6 +1439,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1450,12 +1463,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1741,43 +1749,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF6767E-54AE-4B4E-8EBD-E2378F13C4F0}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>4.513888888888884E-2</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1788,20 +1796,20 @@
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-    </row>
-    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+    </row>
+    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="19"/>
@@ -1812,12 +1820,12 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
@@ -1827,38 +1835,38 @@
       <c r="H6" s="20"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="33">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="33">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="34">
         <f>Projektstundennachweis!I10</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
@@ -1869,12 +1877,12 @@
       <c r="H9" s="23"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
@@ -1884,37 +1892,37 @@
       <c r="H10" s="20"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="33">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41">
-        <v>0</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:I1"/>
@@ -1943,262 +1951,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:F49"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+    <row r="1" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="61"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="43" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="57" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="35" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="82"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="83"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="98" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="83" t="s">
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="76" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="86" t="s">
+      <c r="K5" s="78"/>
+      <c r="L5" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="89" t="s">
+      <c r="M5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="89"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="83" t="s">
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="85"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="71" t="s">
+      <c r="Q5" s="85"/>
+      <c r="R5" s="86"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="71" t="s">
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="71" t="s">
+      <c r="Q6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="R6" s="66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="65"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="65"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="66"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="66"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="67"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -2209,12 +2217,12 @@
         <f>H10-G10</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="95"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="96"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="7">
@@ -2222,25 +2230,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
+      <c r="D11" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="29">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="H11" s="105">
+        <v>0.79305555555555562</v>
+      </c>
       <c r="I11" s="7">
         <f>H11-G11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+        <v>0.14166666666666672</v>
+      </c>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="65"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="7">
@@ -2248,25 +2262,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="7">
         <f t="shared" ref="I12:I49" si="0">H12-G12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="7">
@@ -2274,25 +2288,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7">
@@ -2300,25 +2314,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="7">
@@ -2326,25 +2340,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="7">
@@ -2352,25 +2366,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="7">
@@ -2378,25 +2392,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="7">
@@ -2404,25 +2418,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="65"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="7">
@@ -2430,25 +2444,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="65"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="7">
@@ -2456,25 +2470,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="65"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="7">
@@ -2482,25 +2496,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="65"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="7">
@@ -2508,25 +2522,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="7">
@@ -2534,25 +2548,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="7">
@@ -2560,25 +2574,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="7">
@@ -2586,25 +2600,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="65"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2612,25 +2626,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="62"/>
-      <c r="K26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="65"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2638,25 +2652,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="65"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2664,25 +2678,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="65"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2690,25 +2704,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="65"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2716,25 +2730,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="65"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2742,25 +2756,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="62"/>
-      <c r="K31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="65"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2768,25 +2782,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="62"/>
-      <c r="K32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="65"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2794,25 +2808,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="62"/>
-      <c r="K33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="65"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2820,25 +2834,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="62"/>
-      <c r="K34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="64"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="65"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2846,25 +2860,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="63"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="62"/>
-      <c r="K35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="64"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="65"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2872,25 +2886,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="62"/>
-      <c r="K36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="64"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="65"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2898,25 +2912,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="62"/>
-      <c r="K37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="64"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="65"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2924,25 +2938,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="74"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="74"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="73"/>
-      <c r="K38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="75"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="7">
@@ -2950,25 +2964,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="64"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="65"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="7">
@@ -2976,25 +2990,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="63"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="62"/>
-      <c r="K40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="65"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
@@ -3002,25 +3016,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="63"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="62"/>
-      <c r="K41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="64"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="65"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -3028,25 +3042,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="63"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="62"/>
-      <c r="K42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="65"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3054,25 +3068,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="63"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="62"/>
-      <c r="K43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="65"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3080,25 +3094,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="63"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J44" s="62"/>
-      <c r="K44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="64"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="65"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3106,25 +3120,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J45" s="62"/>
-      <c r="K45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="64"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="65"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3132,25 +3146,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="63"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="63"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J46" s="62"/>
-      <c r="K46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="64"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="65"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3158,25 +3172,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="63"/>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="63"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="65"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J47" s="62"/>
-      <c r="K47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="64"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="65"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3184,25 +3198,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="63"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J48" s="62"/>
-      <c r="K48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="64"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3210,25 +3224,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="68"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="67"/>
-      <c r="K49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
       <c r="L49" s="11"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="65"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="8">
@@ -3236,37 +3250,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="70"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="75" t="s">
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="70"/>
+      <c r="H50" s="71"/>
       <c r="I50" s="26">
         <f>SUM(I10:I49)</f>
-        <v>4.513888888888884E-2</v>
-      </c>
-      <c r="J50" s="69"/>
-      <c r="K50" s="70"/>
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="J50" s="70"/>
+      <c r="K50" s="71"/>
       <c r="L50" s="12"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="97"/>
-      <c r="P50" s="75" t="s">
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="101"/>
+      <c r="P50" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="70"/>
+      <c r="Q50" s="71"/>
       <c r="R50" s="26">
         <f>SUM(R10:R49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="194">
     <mergeCell ref="M49:O49"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="438" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26ADB95-CF4A-4DC4-A630-136A57846ACC}"/>
+  <xr:revisionPtr revIDLastSave="451" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F7B172-AACD-4D78-B948-3E05E14E8F51}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,13 +98,13 @@
     <t>Teil                   (Prog,Prot)</t>
   </si>
   <si>
-    <t>Prot</t>
-  </si>
-  <si>
     <t>Stundenaufzeichnung erstellen</t>
   </si>
   <si>
     <t>Clickdummy erstellen</t>
+  </si>
+  <si>
+    <t>Clickdummy (SMS, TP Übersicht, Home) bearbeitet</t>
   </si>
 </sst>
 </file>
@@ -1238,6 +1238,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1298,11 +1299,140 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1310,9 +1440,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1322,148 +1464,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1750,7 +1750,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,31 +1759,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33">
+      <c r="A2" s="34">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>0.18680555555555556</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+        <v>0.25902777777777775</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
@@ -1797,17 +1797,17 @@
       <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
@@ -1821,11 +1821,11 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
@@ -1836,35 +1836,34 @@
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="34">
-        <v>0</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="35">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="34">
-        <f>Projektstundennachweis!I10</f>
-        <v>4.513888888888884E-2</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="35">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
@@ -1878,11 +1877,11 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
@@ -1893,34 +1892,34 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="34">
-        <v>0</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="35">
+        <v>0</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42">
-        <v>0</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1952,7 +1951,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F16"/>
+      <selection activeCell="D19" sqref="D19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,248 +1964,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="60" t="s">
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="100"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="44" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="102"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="36" t="s">
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="105"/>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="83"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="79"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="102" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="84" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="77" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="87" t="s">
+      <c r="K5" s="81"/>
+      <c r="L5" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="90"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="84" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="72" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="72" t="s">
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="72" t="s">
+      <c r="Q6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="66" t="s">
+      <c r="R6" s="91" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="66"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="91"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="66"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="91"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="67"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -2217,12 +2214,12 @@
         <f>H10-G10</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="96"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="78"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="7">
@@ -2231,30 +2228,30 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="99"/>
+      <c r="D11" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="29">
         <v>0.65138888888888891</v>
       </c>
-      <c r="H11" s="105">
+      <c r="H11" s="30">
         <v>0.79305555555555562</v>
       </c>
       <c r="I11" s="7">
         <f>H11-G11</f>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="65"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="7">
@@ -2263,24 +2260,30 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
+      <c r="D12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="29">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="I12" s="7">
         <f t="shared" ref="I12:I49" si="0">H12-G12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
+        <v>7.2222222222222188E-2</v>
+      </c>
+      <c r="J12" s="68"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="65"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="7">
@@ -2289,24 +2292,24 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="65"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7">
@@ -2315,24 +2318,24 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="65"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="7">
@@ -2341,24 +2344,24 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="65"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="7">
@@ -2367,24 +2370,24 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="65"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="7">
@@ -2393,24 +2396,24 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="7">
@@ -2419,24 +2422,24 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="65"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="7">
@@ -2445,24 +2448,24 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="65"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="7">
@@ -2471,24 +2474,24 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="65"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="7">
@@ -2497,24 +2500,24 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="65"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="7">
@@ -2523,24 +2526,24 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="65"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="7">
@@ -2549,24 +2552,24 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="65"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="7">
@@ -2575,24 +2578,24 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="65"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="7">
@@ -2601,24 +2604,24 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="65"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="51"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="65"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="52"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2627,24 +2630,24 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="51"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="65"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="52"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2653,24 +2656,24 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="65"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2679,24 +2682,24 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="65"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2705,24 +2708,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="51"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="65"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="52"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2731,24 +2734,24 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="51"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="65"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2757,24 +2760,24 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="51"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="65"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2783,24 +2786,24 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="65"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="51"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="65"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="52"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2809,24 +2812,24 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="51"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="65"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="52"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2835,24 +2838,24 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="51"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="65"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="52"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2861,24 +2864,24 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="63"/>
-      <c r="K35" s="64"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="51"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="65"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2887,24 +2890,24 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="65"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="63"/>
-      <c r="K36" s="64"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="51"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="65"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2913,24 +2916,24 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="65"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="63"/>
-      <c r="K37" s="64"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="65"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2939,24 +2942,24 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
-      <c r="B38" s="75"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="65"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="74"/>
-      <c r="K38" s="75"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="65"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="52"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="7">
@@ -2965,24 +2968,24 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="63"/>
-      <c r="K39" s="64"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="51"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="65"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="52"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="7">
@@ -2991,24 +2994,24 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="65"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="51"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="65"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="52"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
@@ -3017,24 +3020,24 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="63"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="65"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="63"/>
-      <c r="K41" s="64"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="65"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="52"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -3043,24 +3046,24 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="65"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="63"/>
-      <c r="K42" s="64"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="51"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="65"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="52"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3069,24 +3072,24 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="63"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="65"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="63"/>
-      <c r="K43" s="64"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="65"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="52"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3095,24 +3098,24 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="65"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J44" s="63"/>
-      <c r="K44" s="64"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="51"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="65"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="52"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3121,24 +3124,24 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="65"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J45" s="63"/>
-      <c r="K45" s="64"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="51"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="65"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3147,24 +3150,24 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J46" s="63"/>
-      <c r="K46" s="64"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="51"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="65"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3173,24 +3176,24 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="65"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J47" s="63"/>
-      <c r="K47" s="64"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="51"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="65"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="52"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3199,24 +3202,24 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="65"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J48" s="63"/>
-      <c r="K48" s="64"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="51"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="65"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3225,24 +3228,24 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="68"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="65"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
       <c r="L49" s="11"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="65"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="52"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="8">
@@ -3251,30 +3254,30 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="70"/>
-      <c r="B50" s="71"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="76" t="s">
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="71"/>
+      <c r="H50" s="67"/>
       <c r="I50" s="26">
         <f>SUM(I10:I49)</f>
-        <v>0.18680555555555556</v>
-      </c>
-      <c r="J50" s="70"/>
-      <c r="K50" s="71"/>
+        <v>0.25902777777777775</v>
+      </c>
+      <c r="J50" s="66"/>
+      <c r="K50" s="67"/>
       <c r="L50" s="12"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="76" t="s">
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="71"/>
+      <c r="Q50" s="67"/>
       <c r="R50" s="26">
         <f>SUM(R10:R49)</f>
         <v>0</v>
@@ -3283,6 +3286,176 @@
     <row r="51" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="194">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="M5:O9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
     <mergeCell ref="M49:O49"/>
     <mergeCell ref="M50:O50"/>
     <mergeCell ref="D47:F47"/>
@@ -3307,176 +3480,6 @@
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J38:K38"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="M5:O9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F7B172-AACD-4D78-B948-3E05E14E8F51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E5B70C-34C5-4A78-9BD6-F4774EA66126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -106,14 +106,40 @@
   <si>
     <t>Clickdummy (SMS, TP Übersicht, Home) bearbeitet</t>
   </si>
+  <si>
+    <t>Planung des Projektes</t>
+  </si>
+  <si>
+    <t>Besprechung mit DA Betreuer</t>
+  </si>
+  <si>
+    <t>DA Antrag verfassen</t>
+  </si>
+  <si>
+    <t>Ausbesserung des Antrags</t>
+  </si>
+  <si>
+    <t>Pflichtenheft schreiben</t>
+  </si>
+  <si>
+    <t>Einarbeitung in LaTex</t>
+  </si>
+  <si>
+    <t>Finalisierung des Clickdummies</t>
+  </si>
+  <si>
+    <t>Github Repo bearbeiten</t>
+  </si>
+  <si>
+    <t>Besprechung mit DA Betreuer und Auftraggeber</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="hh:mm"/>
-    <numFmt numFmtId="165" formatCode="[hh]:mm;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[hh]:mm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -176,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1164,6 +1190,58 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1179,7 +1257,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1187,10 +1265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="56" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="56" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1232,7 +1310,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="80" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="80" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1248,13 +1326,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="79" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="71" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="79" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="71" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1275,10 +1353,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="72" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="73" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="72" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="73" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1299,17 +1377,125 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1329,6 +1515,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1338,138 +1542,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
+    <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="3" builtinId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1753,12 +1849,12 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
@@ -1771,10 +1867,10 @@
       <c r="H1" s="32"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>0.25902777777777775</v>
+        <v>0.77708333333333324</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1785,7 +1881,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1796,7 +1892,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -1809,7 +1905,7 @@
       <c r="H4" s="49"/>
       <c r="I4" s="50"/>
     </row>
-    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="19"/>
@@ -1820,7 +1916,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
@@ -1835,7 +1931,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>15</v>
       </c>
@@ -1850,7 +1946,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
@@ -1865,7 +1961,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
@@ -1876,7 +1972,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1987,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +2002,7 @@
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +2017,7 @@
       <c r="H12" s="43"/>
       <c r="I12" s="44"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:I1"/>
@@ -1950,260 +2046,260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:F19"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="54"/>
+      <c r="L1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="100"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="63"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="102"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="74" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="102"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="60"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="105"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104" t="s">
+      <c r="K3" s="56"/>
+      <c r="L3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="105"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="79"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="80" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="84"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="61" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="86" t="s">
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="80" t="s">
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="93" t="s">
+      <c r="K5" s="79"/>
+      <c r="L5" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="86" t="s">
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="88"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="89" t="s">
+      <c r="Q5" s="86"/>
+      <c r="R5" s="87"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="89" t="s">
+      <c r="J6" s="80"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="89" t="s">
+      <c r="Q6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="91" t="s">
+      <c r="R6" s="67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="91"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="91"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="92"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="67"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="67"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="68"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -2214,28 +2310,36 @@
         <f>H10-G10</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
+      <c r="J10" s="108">
+        <v>44730</v>
+      </c>
+      <c r="K10" s="52"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="5"/>
+      <c r="M10" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="1">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.71666666666666667</v>
+      </c>
       <c r="R10" s="7">
         <f>Q10-P10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="51"/>
+        <v>8.8194444444444464E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="29">
         <v>0.65138888888888891</v>
       </c>
@@ -2246,28 +2350,36 @@
         <f>H11-G11</f>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="107">
+        <v>44731</v>
+      </c>
+      <c r="K11" s="65"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3"/>
+      <c r="M11" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="29">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>0.84375</v>
+      </c>
       <c r="R11" s="7">
         <f>Q11-P11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="51"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="29">
         <v>0.6430555555555556</v>
       </c>
@@ -2278,220 +2390,288 @@
         <f t="shared" ref="I12:I49" si="0">H12-G12</f>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="51"/>
+      <c r="J12" s="107">
+        <v>44732</v>
+      </c>
+      <c r="K12" s="65"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="3"/>
+      <c r="M12" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>0.40625</v>
+      </c>
       <c r="R12" s="7">
-        <f t="shared" ref="R12:R37" si="1">Q12-P12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="51"/>
+        <f t="shared" ref="R12:R38" si="1">Q12-P12</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="107">
+        <v>44732</v>
+      </c>
+      <c r="K13" s="65"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3"/>
+      <c r="M13" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="29">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="R13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="51"/>
+        <v>4.5138888888888951E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="51"/>
+      <c r="J14" s="107">
+        <v>44734</v>
+      </c>
+      <c r="K14" s="65"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="3"/>
+      <c r="M14" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="29">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="R14" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="51"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="51"/>
+      <c r="J15" s="107">
+        <v>44741</v>
+      </c>
+      <c r="K15" s="65"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="3"/>
+      <c r="M15" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="29">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="R15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="51"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="51"/>
+      <c r="J16" s="107">
+        <v>44759</v>
+      </c>
+      <c r="K16" s="65"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="3"/>
+      <c r="M16" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="65"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="29">
+        <v>0.86249999999999993</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>0.8833333333333333</v>
+      </c>
       <c r="R16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="51"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="51"/>
+      <c r="J17" s="107">
+        <v>44759</v>
+      </c>
+      <c r="K17" s="65"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3"/>
+      <c r="M17" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="65"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="29">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>0.74583333333333324</v>
+      </c>
       <c r="R17" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="51"/>
+        <v>0.10277777777777763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="51"/>
+      <c r="J18" s="107">
+        <v>44759</v>
+      </c>
+      <c r="K18" s="65"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="3"/>
+      <c r="M18" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="65"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="29">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>0.79791666666666661</v>
+      </c>
       <c r="R18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="51"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="51"/>
+      <c r="J19" s="107">
+        <v>44760</v>
+      </c>
+      <c r="K19" s="66"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="3"/>
+      <c r="M19" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="59"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="29">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="R19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="51"/>
+        <v>7.2222222222222188E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="107">
+        <v>44768</v>
+      </c>
+      <c r="K20" s="65"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="M20" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="7">
@@ -2499,25 +2679,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="51"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="68"/>
-      <c r="K21" s="51"/>
+      <c r="J21" s="107">
+        <v>44768</v>
+      </c>
+      <c r="K21" s="65"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
+      <c r="M21" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="7">
@@ -2525,25 +2709,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="51"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="68"/>
-      <c r="K22" s="51"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="66"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="7">
@@ -2551,25 +2735,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="51"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="51"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="7">
@@ -2577,25 +2761,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="51"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="51"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="66"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="7">
@@ -2603,25 +2787,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="51"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="51"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="52"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="66"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2629,25 +2813,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="51"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="51"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="66"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2655,25 +2839,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
-      <c r="B27" s="51"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="64"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="51"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="66"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2681,25 +2865,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
-      <c r="B28" s="51"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="51"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="66"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2707,25 +2891,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="51"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="51"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="52"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="66"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2733,25 +2917,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="51"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="51"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="52"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="66"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2759,25 +2943,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
-      <c r="B31" s="51"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="51"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="65"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="52"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="66"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2785,25 +2969,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
-      <c r="B32" s="51"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="68"/>
-      <c r="K32" s="51"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="65"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="52"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="66"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2811,25 +2995,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
-      <c r="B33" s="51"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="51"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="65"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="52"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="66"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2837,25 +3021,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
-      <c r="B34" s="51"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="51"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="65"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="66"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2863,25 +3047,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
-      <c r="B35" s="51"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="68"/>
-      <c r="K35" s="51"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="65"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="52"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="66"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2889,25 +3073,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
-      <c r="B36" s="51"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="51"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="52"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="66"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2915,25 +3099,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
-      <c r="B37" s="51"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="51"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="52"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="66"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2941,103 +3125,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
-      <c r="B38" s="70"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="75"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="69"/>
-      <c r="K38" s="70"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="28"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="3"/>
       <c r="R38" s="7">
-        <f>Q38-P38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="51"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="66"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="51"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="3"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="28"/>
       <c r="R39" s="7">
-        <f t="shared" ref="R39:R49" si="2">Q39-P39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="51"/>
+        <f>Q39-P39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="68"/>
-      <c r="K40" s="51"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="52"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="66"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
-      <c r="B41" s="51"/>
+        <f t="shared" ref="R40:R49" si="2">Q40-P40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="68"/>
-      <c r="K41" s="51"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="52"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="66"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -3045,25 +3229,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="51"/>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="68"/>
-      <c r="K42" s="51"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="52"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="66"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3071,25 +3255,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
-      <c r="B43" s="51"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="64"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="68"/>
-      <c r="K43" s="51"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="52"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="66"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3097,25 +3281,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
-      <c r="B44" s="51"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="64"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J44" s="68"/>
-      <c r="K44" s="51"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="65"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="52"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="66"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3123,25 +3307,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
-      <c r="B45" s="51"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="64"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="52"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J45" s="68"/>
-      <c r="K45" s="51"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="65"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="52"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="66"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3149,25 +3333,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
-      <c r="B46" s="51"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="64"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J46" s="68"/>
-      <c r="K46" s="51"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="65"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="52"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="66"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3175,25 +3359,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
-      <c r="B47" s="51"/>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="64"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="52"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J47" s="68"/>
-      <c r="K47" s="51"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="65"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="52"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="66"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3201,25 +3385,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
-      <c r="B48" s="51"/>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="64"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="52"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J48" s="68"/>
-      <c r="K48" s="51"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="65"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="66"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3227,13 +3411,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="52"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
@@ -3242,104 +3426,167 @@
       </c>
       <c r="J49" s="64"/>
       <c r="K49" s="65"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="8">
+      <c r="L49" s="10"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="66"/>
-      <c r="B50" s="67"/>
+    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="111"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="71" t="s">
+      <c r="D50" s="110"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="67"/>
+      <c r="H50" s="102"/>
       <c r="I50" s="26">
         <f>SUM(I10:I49)</f>
         <v>0.25902777777777775</v>
       </c>
-      <c r="J50" s="66"/>
-      <c r="K50" s="67"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="72"/>
       <c r="L50" s="12"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="71" t="s">
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="67"/>
+      <c r="Q50" s="72"/>
       <c r="R50" s="26">
         <f>SUM(R10:R49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>0.51805555555555549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D5:F9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="M5:O9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -3364,122 +3611,59 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="M5:O9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D5:F9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{B2E5B70C-34C5-4A78-9BD6-F4774EA66126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B9FB7DD-D4A2-44FE-9592-533CE2CFBB70}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{B2E5B70C-34C5-4A78-9BD6-F4774EA66126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BF25FE-9D80-4886-861F-E90B8AFAC9F3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,100 +1078,218 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="60" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="61" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="67" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="68" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1192,131 +1310,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="60" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="61" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="67" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="68" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1614,34 +1614,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85">
+      <c r="A2" s="28">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>1.2437499999999999</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="86"/>
+        <v>1.2645833333333334</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1649,23 +1649,23 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="88"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="90"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
       <c r="D5" s="9"/>
@@ -1676,11 +1676,11 @@
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
@@ -1688,26 +1688,26 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="93"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="20">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="29">
         <f>Projektstundennachweis!I50</f>
-        <v>0.64930555555555569</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="86"/>
+        <v>0.67013888888888906</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="13"/>
@@ -1718,11 +1718,11 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
@@ -1730,23 +1730,23 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="93"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="99">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37">
         <f>Projektstundennachweis!R50</f>
         <v>0.59444444444444433</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="100"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+      <selection activeCell="A5" sqref="A5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,244 +1788,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="68" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="72"/>
+      <c r="L1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="70"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="82"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="24" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="44" t="s">
+      <c r="K2" s="74"/>
+      <c r="L2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="72"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="79"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="21" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="51"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="98"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="81" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="58" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="52" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="81" t="s">
+      <c r="K5" s="93"/>
+      <c r="L5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="58" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="99"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="61" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="61" t="s">
+      <c r="J6" s="94"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="61" t="s">
+      <c r="Q6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="63" t="s">
+      <c r="R6" s="85" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="63"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="85"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="63"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="85"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="64"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="86"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="A10" s="69">
         <v>44730</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2036,16 +2036,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="69">
         <v>44730</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="76" t="s">
+      <c r="K10" s="70"/>
+      <c r="L10" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="43"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2058,16 +2058,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="83">
         <v>44731</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="80" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2078,16 +2078,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="83">
         <v>44731</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="80" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
       <c r="P11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2100,16 +2100,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="83">
         <v>44732</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="80" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="18">
         <v>0.375</v>
       </c>
@@ -2120,16 +2120,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="83">
         <v>44732</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="80" t="s">
+      <c r="K12" s="49"/>
+      <c r="L12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="68"/>
       <c r="P12" s="18">
         <v>0.375</v>
       </c>
@@ -2142,16 +2142,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+      <c r="A13" s="83">
         <v>44732</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2162,16 +2162,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="83">
         <v>44732</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="80" t="s">
+      <c r="K13" s="49"/>
+      <c r="L13" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
       <c r="P13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2184,16 +2184,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="83">
         <v>44734</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="80" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2204,16 +2204,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="83">
         <v>44734</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="80" t="s">
+      <c r="K14" s="49"/>
+      <c r="L14" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="68"/>
       <c r="P14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2226,16 +2226,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="83">
         <v>44741</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="80" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2246,16 +2246,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="83">
         <v>44741</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="80" t="s">
+      <c r="K15" s="49"/>
+      <c r="L15" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="68"/>
       <c r="P15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2268,16 +2268,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="83">
         <v>44759</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="80" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2288,16 +2288,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="83">
         <v>44759</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="80" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="45"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
       <c r="P16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2310,16 +2310,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="83">
         <v>44753</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="80" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="18">
         <v>0.70833333333333337</v>
       </c>
@@ -2330,16 +2330,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="83">
         <v>44759</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="80" t="s">
+      <c r="K17" s="49"/>
+      <c r="L17" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="68"/>
       <c r="P17" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2352,16 +2352,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+      <c r="A18" s="83">
         <v>44759</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="80" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="18">
         <v>0.65138888888888891</v>
       </c>
@@ -2372,16 +2372,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="83">
         <v>44759</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="80" t="s">
+      <c r="K18" s="49"/>
+      <c r="L18" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="68"/>
       <c r="P18" s="18">
         <v>0.74791666666666667</v>
       </c>
@@ -2394,16 +2394,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="83">
         <v>44760</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="80" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2414,16 +2414,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="83">
         <v>44760</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="80" t="s">
+      <c r="K19" s="50"/>
+      <c r="L19" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
       <c r="P19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2436,36 +2436,36 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+      <c r="A20" s="83">
         <v>44768</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="80" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="18">
         <v>0.91666666666666663</v>
       </c>
       <c r="H20" s="19">
-        <v>0.9375</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="J20" s="46">
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="J20" s="83">
         <v>44768</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="80" t="s">
+      <c r="K20" s="49"/>
+      <c r="L20" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="68"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="7">
@@ -2474,16 +2474,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="46">
+      <c r="A21" s="83">
         <v>44768</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="80" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2494,16 +2494,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="83">
         <v>44768</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="80" t="s">
+      <c r="K21" s="49"/>
+      <c r="L21" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68"/>
       <c r="P21" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2516,24 +2516,24 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="7">
@@ -2542,24 +2542,24 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="7">
@@ -2568,24 +2568,24 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="7">
@@ -2594,24 +2594,24 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2620,24 +2620,24 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="31"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2646,24 +2646,24 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="31"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2672,24 +2672,24 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="31"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2698,24 +2698,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="31"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="50"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2724,24 +2724,24 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="31"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="50"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2750,24 +2750,24 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="31"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2776,24 +2776,24 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="31"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2802,24 +2802,24 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="50"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2828,24 +2828,24 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="31"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="50"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2854,24 +2854,24 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="31"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2880,24 +2880,24 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="31"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2906,24 +2906,24 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="31"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="50"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2932,24 +2932,24 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="31"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="50"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="7">
@@ -2958,24 +2958,24 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="31"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="50"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="7">
@@ -2984,24 +2984,24 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="31"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="50"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
@@ -3010,24 +3010,24 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="31"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="50"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -3036,24 +3036,24 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="31"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3062,24 +3062,24 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="31"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="50"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3088,24 +3088,24 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="31"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3114,24 +3114,24 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="31"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3140,24 +3140,24 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="39"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="31"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="50"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3166,24 +3166,24 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="31"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="50"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3192,24 +3192,24 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="39"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="31"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="50"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3218,24 +3218,24 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="79"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="31"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="50"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="7">
@@ -3244,30 +3244,30 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="65" t="s">
+      <c r="A50" s="100"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="29"/>
+      <c r="H50" s="47"/>
       <c r="I50" s="15">
         <f>SUM(I10:I49)</f>
-        <v>0.64930555555555569</v>
-      </c>
-      <c r="J50" s="28"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="65" t="s">
+        <v>0.67013888888888906</v>
+      </c>
+      <c r="J50" s="100"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="29"/>
+      <c r="Q50" s="47"/>
       <c r="R50" s="15">
         <f>SUM(R10:R49)</f>
         <v>0.59444444444444433</v>
@@ -3276,105 +3276,75 @@
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
@@ -3394,80 +3364,110 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\AberGymMobile\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{B2E5B70C-34C5-4A78-9BD6-F4774EA66126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BF25FE-9D80-4886-861F-E90B8AFAC9F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5640FC-D3A3-4612-8A81-FDAB5F0F9E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Einarbeitung in LaTex</t>
   </si>
   <si>
-    <t>Github Repo bearbeiten</t>
-  </si>
-  <si>
     <t>Besprechung mit DA Betreuer und Auftraggeber</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Gesamte Stunden</t>
+  </si>
+  <si>
+    <t>Github Backlog erstellen</t>
   </si>
 </sst>
 </file>
@@ -1151,32 +1151,137 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1205,126 +1310,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
+    <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="3" builtinId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1608,7 +1608,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
@@ -1629,7 +1629,7 @@
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>1.2645833333333334</v>
+        <v>1.3138888888888889</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37">
         <f>Projektstundennachweis!R50</f>
-        <v>0.59444444444444433</v>
+        <v>0.64374999999999982</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -1772,11 +1772,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1788,244 +1788,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="80" t="s">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="80" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="82"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="73" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="67" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="79"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="75" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="78"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="98"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="92" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="54" t="s">
+      <c r="K5" s="69"/>
+      <c r="L5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
       <c r="P5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="26"/>
-      <c r="R5" s="99"/>
+      <c r="R5" s="77"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="88" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="88" t="s">
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="88" t="s">
+      <c r="Q6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="85" t="s">
+      <c r="R6" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="85"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="80"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="85"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="80"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="86"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="81"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="82">
         <v>44730</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2036,16 +2036,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="82">
         <v>44730</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="63" t="s">
+      <c r="K10" s="83"/>
+      <c r="L10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="65"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="86"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2058,16 +2058,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+      <c r="A11" s="54">
         <v>44731</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="66" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2078,16 +2078,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="54">
         <v>44731</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="66" t="s">
+      <c r="K11" s="48"/>
+      <c r="L11" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="88"/>
       <c r="P11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2100,16 +2100,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+      <c r="A12" s="54">
         <v>44732</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="66" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="18">
         <v>0.375</v>
       </c>
@@ -2120,16 +2120,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="54">
         <v>44732</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="66" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="88"/>
       <c r="P12" s="18">
         <v>0.375</v>
       </c>
@@ -2142,16 +2142,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
+      <c r="A13" s="54">
         <v>44732</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="66" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2162,16 +2162,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="54">
         <v>44732</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="66" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="88"/>
       <c r="P13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2184,16 +2184,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="83">
+      <c r="A14" s="54">
         <v>44734</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2204,16 +2204,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="54">
         <v>44734</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="88"/>
       <c r="P14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2226,16 +2226,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="A15" s="54">
         <v>44741</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="66" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2246,16 +2246,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="54">
         <v>44741</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="66" t="s">
+      <c r="K15" s="48"/>
+      <c r="L15" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="88"/>
       <c r="P15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2268,16 +2268,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
+      <c r="A16" s="54">
         <v>44759</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="66" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2288,16 +2288,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="54">
         <v>44759</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="66" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="88"/>
       <c r="P16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2310,16 +2310,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
+      <c r="A17" s="54">
         <v>44753</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="66" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="18">
         <v>0.70833333333333337</v>
       </c>
@@ -2330,16 +2330,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="83">
+      <c r="J17" s="54">
         <v>44759</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="66" t="s">
+      <c r="K17" s="48"/>
+      <c r="L17" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="88"/>
       <c r="P17" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2352,16 +2352,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
+      <c r="A18" s="54">
         <v>44759</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="66" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="18">
         <v>0.65138888888888891</v>
       </c>
@@ -2372,16 +2372,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="83">
+      <c r="J18" s="54">
         <v>44759</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="66" t="s">
+      <c r="K18" s="48"/>
+      <c r="L18" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="88"/>
       <c r="P18" s="18">
         <v>0.74791666666666667</v>
       </c>
@@ -2394,16 +2394,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="A19" s="54">
         <v>44760</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="66" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2414,16 +2414,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="83">
+      <c r="J19" s="54">
         <v>44760</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="66" t="s">
+      <c r="K19" s="52"/>
+      <c r="L19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="68"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="88"/>
       <c r="P19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2436,16 +2436,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
+      <c r="A20" s="54">
         <v>44768</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="18">
         <v>0.91666666666666663</v>
       </c>
@@ -2456,34 +2456,38 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="54">
         <v>44768</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="18">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="R20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.638888888888884E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="83">
+      <c r="A21" s="54">
         <v>44768</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="88"/>
       <c r="G21" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2494,46 +2498,46 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="83">
-        <v>44768</v>
-      </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="68"/>
+      <c r="J21" s="54">
+        <v>44769</v>
+      </c>
+      <c r="K21" s="48"/>
+      <c r="L21" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="88"/>
       <c r="P21" s="18">
-        <v>0.84027777777777779</v>
+        <v>0.4152777777777778</v>
       </c>
       <c r="Q21" s="19">
-        <v>0.91666666666666663</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="1"/>
-        <v>7.638888888888884E-2</v>
+        <v>4.9305555555555547E-2</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="84"/>
-      <c r="K22" s="49"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="48"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="7">
@@ -2542,24 +2546,24 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="7">
@@ -2568,24 +2572,24 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="84"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="7">
@@ -2594,24 +2598,24 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="52"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2620,24 +2624,24 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="84"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="52"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2646,24 +2650,24 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="84"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2672,24 +2676,24 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="84"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2698,24 +2702,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="84"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="50"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="52"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2724,24 +2728,24 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="84"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="50"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2750,24 +2754,24 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="84"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2776,24 +2780,24 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="84"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="52"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2802,24 +2806,24 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="84"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="50"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="52"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2828,24 +2832,24 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="84"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="50"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="52"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2854,24 +2858,24 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="84"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="50"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="52"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2880,24 +2884,24 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36" s="84"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="50"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2906,24 +2910,24 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="84"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="50"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2932,24 +2936,24 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="84"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="50"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="52"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="7">
@@ -2958,24 +2962,24 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="90"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="50"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="52"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="7">
@@ -2984,24 +2988,24 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="84"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="50"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="52"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
@@ -3010,24 +3014,24 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="84"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="50"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="52"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -3036,24 +3040,24 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="84"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="50"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="52"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3062,24 +3066,24 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="84"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="50"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="52"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3088,24 +3092,24 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="84"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="52"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3114,24 +3118,24 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="84"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="50"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3140,24 +3144,24 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="84"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="50"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3166,24 +3170,24 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="84"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="50"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="52"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3192,24 +3196,24 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="84"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="50"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3218,24 +3222,24 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="100"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="84"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="50"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="52"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="7">
@@ -3244,38 +3248,206 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="100"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="45" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="47"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="15">
         <f>SUM(I10:I49)</f>
         <v>0.67013888888888906</v>
       </c>
-      <c r="J50" s="100"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="45" t="s">
+      <c r="J50" s="45"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="47"/>
+      <c r="Q50" s="46"/>
       <c r="R50" s="15">
         <f>SUM(R10:R49)</f>
-        <v>0.59444444444444433</v>
+        <v>0.64374999999999982</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="192">
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -3295,179 +3467,11 @@
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\AberGymMobile\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5640FC-D3A3-4612-8A81-FDAB5F0F9E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4B5640FC-D3A3-4612-8A81-FDAB5F0F9E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C8D0D1-5778-4CA5-8713-804D144DBEEB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -127,6 +127,9 @@
   <si>
     <t>Github Backlog erstellen</t>
   </si>
+  <si>
+    <t>Fertigstellung Clickdummy</t>
+  </si>
 </sst>
 </file>
 
@@ -1151,31 +1154,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1187,38 +1214,77 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1241,9 +1307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,75 +1319,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
-    <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="3" builtinId="24"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1608,7 +1611,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
@@ -1629,7 +1632,7 @@
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>1.3138888888888889</v>
+        <v>1.3555555555555556</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1698,7 +1701,7 @@
       <c r="C7" s="44"/>
       <c r="D7" s="29">
         <f>Projektstundennachweis!I50</f>
-        <v>0.67013888888888906</v>
+        <v>0.7118055555555558</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -1773,10 +1776,10 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:O24"/>
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1788,244 +1791,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57" t="s">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="64"/>
+      <c r="L1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="60" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="64" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="67"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="76"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="96"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="89" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="68" t="s">
+      <c r="I5" s="97"/>
+      <c r="J5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="89" t="s">
+      <c r="K5" s="90"/>
+      <c r="L5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="91"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="26"/>
-      <c r="R5" s="77"/>
+      <c r="R5" s="97"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="78" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="78" t="s">
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="78" t="s">
+      <c r="Q6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="80" t="s">
+      <c r="R6" s="75" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="80"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="75"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="80"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="75"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="81"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="76"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="82">
+      <c r="A10" s="60">
         <v>44730</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2036,16 +2039,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="82">
+      <c r="J10" s="60">
         <v>44730</v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84" t="s">
+      <c r="K10" s="61"/>
+      <c r="L10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="86"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2058,16 +2061,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="62">
         <v>44731</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="87" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2078,16 +2081,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="62">
         <v>44731</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="87" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="88"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="59"/>
       <c r="P11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2100,16 +2103,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="62">
         <v>44732</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="87" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="88"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="18">
         <v>0.375</v>
       </c>
@@ -2120,16 +2123,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="62">
         <v>44732</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="87" t="s">
+      <c r="K12" s="49"/>
+      <c r="L12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="88"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="59"/>
       <c r="P12" s="18">
         <v>0.375</v>
       </c>
@@ -2142,16 +2145,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="62">
         <v>44732</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="87" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="88"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2162,16 +2165,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="62">
         <v>44732</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="87" t="s">
+      <c r="K13" s="49"/>
+      <c r="L13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="88"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="59"/>
       <c r="P13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2184,16 +2187,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="62">
         <v>44734</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="87" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="88"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2204,16 +2207,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="62">
         <v>44734</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="87" t="s">
+      <c r="K14" s="49"/>
+      <c r="L14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="88"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="59"/>
       <c r="P14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2226,16 +2229,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+      <c r="A15" s="62">
         <v>44741</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="87" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="88"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2246,16 +2249,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="62">
         <v>44741</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="87" t="s">
+      <c r="K15" s="49"/>
+      <c r="L15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="88"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
       <c r="P15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2268,16 +2271,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="62">
         <v>44759</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="87" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="88"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2288,16 +2291,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="62">
         <v>44759</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="87" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="88"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="59"/>
       <c r="P16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2310,16 +2313,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="62">
         <v>44753</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="87" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="88"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="18">
         <v>0.70833333333333337</v>
       </c>
@@ -2330,16 +2333,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="62">
         <v>44759</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="87" t="s">
+      <c r="K17" s="49"/>
+      <c r="L17" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="88"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
       <c r="P17" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2352,16 +2355,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="62">
         <v>44759</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="87" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="88"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="18">
         <v>0.65138888888888891</v>
       </c>
@@ -2372,16 +2375,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="62">
         <v>44759</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="87" t="s">
+      <c r="K18" s="49"/>
+      <c r="L18" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="88"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59"/>
       <c r="P18" s="18">
         <v>0.74791666666666667</v>
       </c>
@@ -2394,16 +2397,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="62">
         <v>44760</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="87" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2414,16 +2417,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="62">
         <v>44760</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="87" t="s">
+      <c r="K19" s="50"/>
+      <c r="L19" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="88"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2436,16 +2439,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="62">
         <v>44768</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="87" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="88"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="18">
         <v>0.91666666666666663</v>
       </c>
@@ -2456,16 +2459,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="62">
         <v>44768</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="87" t="s">
+      <c r="K20" s="49"/>
+      <c r="L20" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="88"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
       <c r="P20" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2478,16 +2481,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+      <c r="A21" s="62">
         <v>44768</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="87" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="88"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2498,16 +2501,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="62">
         <v>44769</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="87" t="s">
+      <c r="K21" s="49"/>
+      <c r="L21" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="88"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59"/>
       <c r="P21" s="18">
         <v>0.4152777777777778</v>
       </c>
@@ -2520,24 +2523,32 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
+      <c r="A22" s="62">
+        <v>44769</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="18">
+        <v>0.4375</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="52"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="J22" s="86"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="7">
@@ -2546,24 +2557,24 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="52"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="52"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="7">
@@ -2572,24 +2583,24 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="52"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="52"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="7">
@@ -2598,24 +2609,24 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="52"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="52"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2624,24 +2635,24 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="52"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="52"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2650,24 +2661,24 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="52"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="52"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2676,24 +2687,24 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="52"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="52"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2702,24 +2713,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="52"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="52"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="50"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2728,24 +2739,24 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="52"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="52"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="50"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2754,24 +2765,24 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="52"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="52"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2780,24 +2791,24 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="52"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="52"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2806,24 +2817,24 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="52"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="52"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="50"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2832,24 +2843,24 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="52"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="52"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="50"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2858,24 +2869,24 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="52"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="52"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2884,24 +2895,24 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="52"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="52"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2910,24 +2921,24 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="52"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="52"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="50"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2936,24 +2947,24 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="52"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="52"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="50"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="7">
@@ -2962,24 +2973,24 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="52"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="52"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="50"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="7">
@@ -2988,24 +2999,24 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="52"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="52"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="50"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
@@ -3014,24 +3025,24 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="52"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="52"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="50"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -3040,24 +3051,24 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="52"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="47"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="52"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3066,24 +3077,24 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="52"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="47"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="52"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="50"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3092,24 +3103,24 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="52"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="52"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3118,24 +3129,24 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="52"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="52"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3144,24 +3155,24 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="52"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="47"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="52"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="50"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3170,24 +3181,24 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="52"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="52"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="50"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3196,24 +3207,24 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="52"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="47"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="52"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="50"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3222,24 +3233,24 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="74"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="100"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="47"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="52"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="50"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="7">
@@ -3248,30 +3259,30 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="53" t="s">
+      <c r="A50" s="100"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="46"/>
+      <c r="H50" s="47"/>
       <c r="I50" s="15">
         <f>SUM(I10:I49)</f>
-        <v>0.67013888888888906</v>
-      </c>
-      <c r="J50" s="45"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="53" t="s">
+        <v>0.7118055555555558</v>
+      </c>
+      <c r="J50" s="100"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="46"/>
+      <c r="Q50" s="47"/>
       <c r="R50" s="15">
         <f>SUM(R10:R49)</f>
         <v>0.64374999999999982</v>
@@ -3280,174 +3291,6 @@
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -3472,6 +3315,174 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\AberGymMobile\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4B5640FC-D3A3-4612-8A81-FDAB5F0F9E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C8D0D1-5778-4CA5-8713-804D144DBEEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5054D-4223-4060-9EE9-BDACCB04E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -1154,31 +1154,148 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1193,141 +1310,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
+    <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="3" builtinId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1611,7 +1611,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
@@ -1632,7 +1632,7 @@
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>1.3555555555555556</v>
+        <v>1.4465277777777779</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1701,7 +1701,7 @@
       <c r="C7" s="44"/>
       <c r="D7" s="29">
         <f>Projektstundennachweis!I50</f>
-        <v>0.7118055555555558</v>
+        <v>0.76111111111111129</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -1743,7 +1743,7 @@
       <c r="C10" s="36"/>
       <c r="D10" s="37">
         <f>Projektstundennachweis!R50</f>
-        <v>0.64374999999999982</v>
+        <v>0.68541666666666656</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -1775,11 +1775,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1791,244 +1791,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="72" t="s">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="72" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="74"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="61"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="63"/>
+      <c r="L2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="71"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="67" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="69"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="96"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="76"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="77" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="89" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="77" t="s">
+      <c r="K5" s="71"/>
+      <c r="L5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="26"/>
-      <c r="R5" s="97"/>
+      <c r="R5" s="77"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="98" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="98" t="s">
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="98" t="s">
+      <c r="Q6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="75" t="s">
+      <c r="R6" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="75"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="80"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="75"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="80"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="76"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="81"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
+      <c r="A10" s="91">
         <v>44730</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2039,16 +2039,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="91">
         <v>44730</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="54" t="s">
+      <c r="K10" s="92"/>
+      <c r="L10" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="95"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2061,16 +2061,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="56">
         <v>44731</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2081,16 +2081,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="56">
         <v>44731</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="57" t="s">
+      <c r="K11" s="48"/>
+      <c r="L11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="97"/>
       <c r="P11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2103,16 +2103,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="A12" s="56">
         <v>44732</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="18">
         <v>0.375</v>
       </c>
@@ -2123,16 +2123,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="56">
         <v>44732</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="57" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="97"/>
       <c r="P12" s="18">
         <v>0.375</v>
       </c>
@@ -2145,16 +2145,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="A13" s="56">
         <v>44732</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2165,16 +2165,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="56">
         <v>44732</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="57" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="97"/>
       <c r="P13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2187,16 +2187,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="A14" s="56">
         <v>44734</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2207,16 +2207,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="56">
         <v>44734</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="57" t="s">
+      <c r="K14" s="48"/>
+      <c r="L14" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="59"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="97"/>
       <c r="P14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2229,16 +2229,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
+      <c r="A15" s="56">
         <v>44741</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2249,16 +2249,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="56">
         <v>44741</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="57" t="s">
+      <c r="K15" s="48"/>
+      <c r="L15" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="97"/>
       <c r="P15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2271,16 +2271,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
+      <c r="A16" s="56">
         <v>44759</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="97"/>
       <c r="G16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2291,16 +2291,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="56">
         <v>44759</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="57" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="97"/>
       <c r="P16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2313,16 +2313,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+      <c r="A17" s="56">
         <v>44753</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="18">
         <v>0.70833333333333337</v>
       </c>
@@ -2333,16 +2333,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="56">
         <v>44759</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="57" t="s">
+      <c r="K17" s="48"/>
+      <c r="L17" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="97"/>
       <c r="P17" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2355,16 +2355,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
+      <c r="A18" s="56">
         <v>44759</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="97"/>
       <c r="G18" s="18">
         <v>0.65138888888888891</v>
       </c>
@@ -2375,16 +2375,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="56">
         <v>44759</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="57" t="s">
+      <c r="K18" s="48"/>
+      <c r="L18" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="97"/>
       <c r="P18" s="18">
         <v>0.74791666666666667</v>
       </c>
@@ -2397,16 +2397,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="62">
+      <c r="A19" s="56">
         <v>44760</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="97"/>
       <c r="G19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2417,16 +2417,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="56">
         <v>44760</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="57" t="s">
+      <c r="K19" s="52"/>
+      <c r="L19" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="97"/>
       <c r="P19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2439,16 +2439,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+      <c r="A20" s="56">
         <v>44768</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="18">
         <v>0.91666666666666663</v>
       </c>
@@ -2459,16 +2459,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="56">
         <v>44768</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="57" t="s">
+      <c r="K20" s="48"/>
+      <c r="L20" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="59"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="97"/>
       <c r="P20" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2481,16 +2481,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="56">
         <v>44768</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2501,16 +2501,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="56">
         <v>44769</v>
       </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="57" t="s">
+      <c r="K21" s="48"/>
+      <c r="L21" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="59"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="97"/>
       <c r="P21" s="18">
         <v>0.4152777777777778</v>
       </c>
@@ -2523,16 +2523,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="A22" s="56">
         <v>44769</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="18">
         <v>0.4375</v>
       </c>
@@ -2543,38 +2543,54 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="86"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3"/>
+      <c r="J22" s="56">
+        <v>44769</v>
+      </c>
+      <c r="K22" s="48"/>
+      <c r="L22" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="18">
+        <v>0.4375</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="R22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
+      <c r="A23" s="56">
+        <v>44769</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="18">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0.46458333333333335</v>
+      </c>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
+        <v>4.9305555555555547E-2</v>
+      </c>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="7">
@@ -2583,24 +2599,24 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="86"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="7">
@@ -2609,24 +2625,24 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="52"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2635,24 +2651,24 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="86"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="52"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2661,24 +2677,24 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="86"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2687,24 +2703,24 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="86"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2713,24 +2729,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="86"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="50"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="52"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2739,24 +2755,24 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="86"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="50"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2765,24 +2781,24 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="86"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2791,24 +2807,24 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="86"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="52"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2817,24 +2833,24 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="86"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="50"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="52"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2843,24 +2859,24 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="86"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="50"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="52"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2869,24 +2885,24 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="86"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="50"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="52"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2895,24 +2911,24 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36" s="86"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="50"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2921,24 +2937,24 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="50"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2947,24 +2963,24 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="86"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="50"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="52"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="7">
@@ -2973,24 +2989,24 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="87"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="50"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="52"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="7">
@@ -2999,24 +3015,24 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="86"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="50"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="52"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
@@ -3025,24 +3041,24 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="86"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="50"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="52"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -3051,24 +3067,24 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="86"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="50"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="52"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3077,24 +3093,24 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="86"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="50"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="52"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3103,24 +3119,24 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="86"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="52"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3129,24 +3145,24 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="86"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="50"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3155,24 +3171,24 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="86"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="50"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3181,24 +3197,24 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="86"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="50"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="52"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3207,24 +3223,24 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="86"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="50"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3233,24 +3249,24 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="95"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="100"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="86"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="50"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="52"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="7">
@@ -3259,38 +3275,206 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="100"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="45" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="47"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="15">
         <f>SUM(I10:I49)</f>
-        <v>0.7118055555555558</v>
-      </c>
-      <c r="J50" s="100"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="45" t="s">
+        <v>0.76111111111111129</v>
+      </c>
+      <c r="J50" s="45"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="47"/>
+      <c r="Q50" s="46"/>
       <c r="R50" s="15">
         <f>SUM(R10:R49)</f>
-        <v>0.64374999999999982</v>
+        <v>0.68541666666666656</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="192">
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -3315,174 +3499,6 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\AberGymMobile\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\GitHub\AberGymMobile\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5054D-4223-4060-9EE9-BDACCB04E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -130,6 +130,12 @@
   <si>
     <t>Fertigstellung Clickdummy</t>
   </si>
+  <si>
+    <t>Pflichtenheft bearbeitet</t>
+  </si>
+  <si>
+    <t>Use Case Diagramm erstellt</t>
+  </si>
 </sst>
 </file>
 
@@ -1044,7 +1050,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -1154,37 +1160,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1196,38 +1220,77 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1247,6 +1310,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,67 +1325,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1632,7 +1641,7 @@
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>1.4465277777777779</v>
+        <v>1.5819444444444444</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1743,7 +1752,7 @@
       <c r="C10" s="36"/>
       <c r="D10" s="37">
         <f>Projektstundennachweis!R50</f>
-        <v>0.68541666666666656</v>
+        <v>0.82083333333333319</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -1775,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:O24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,244 +1800,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59" t="s">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="64"/>
+      <c r="L1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="61"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="62" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="66" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="76"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="96"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="82" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="70" t="s">
+      <c r="I5" s="97"/>
+      <c r="J5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="82" t="s">
+      <c r="K5" s="90"/>
+      <c r="L5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="84"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="26"/>
-      <c r="R5" s="77"/>
+      <c r="R5" s="97"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="78" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="78" t="s">
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="78" t="s">
+      <c r="Q6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="80" t="s">
+      <c r="R6" s="75" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="80"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="75"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="80"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="75"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="81"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="76"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+      <c r="A10" s="60">
         <v>44730</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2039,16 +2048,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="60">
         <v>44730</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93" t="s">
+      <c r="K10" s="61"/>
+      <c r="L10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2061,16 +2070,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="A11" s="62">
         <v>44731</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="96" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="97"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2081,16 +2090,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="62">
         <v>44731</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="96" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="97"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="59"/>
       <c r="P11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2103,16 +2112,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="62">
         <v>44732</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="96" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="97"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="18">
         <v>0.375</v>
       </c>
@@ -2123,16 +2132,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="62">
         <v>44732</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="96" t="s">
+      <c r="K12" s="49"/>
+      <c r="L12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="97"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="59"/>
       <c r="P12" s="18">
         <v>0.375</v>
       </c>
@@ -2145,16 +2154,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="A13" s="62">
         <v>44732</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="96" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="97"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2165,16 +2174,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="62">
         <v>44732</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="96" t="s">
+      <c r="K13" s="49"/>
+      <c r="L13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="97"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="59"/>
       <c r="P13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2187,16 +2196,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="62">
         <v>44734</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="96" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="97"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2207,16 +2216,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="62">
         <v>44734</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="96" t="s">
+      <c r="K14" s="49"/>
+      <c r="L14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="97"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="59"/>
       <c r="P14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2229,16 +2238,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="A15" s="62">
         <v>44741</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="96" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2249,16 +2258,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="62">
         <v>44741</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="96" t="s">
+      <c r="K15" s="49"/>
+      <c r="L15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="97"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
       <c r="P15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2271,16 +2280,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="62">
         <v>44759</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="96" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="97"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2291,16 +2300,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="62">
         <v>44759</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="96" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="97"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="59"/>
       <c r="P16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2313,16 +2322,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="A17" s="62">
         <v>44753</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="97"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="18">
         <v>0.70833333333333337</v>
       </c>
@@ -2333,16 +2342,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="62">
         <v>44759</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="96" t="s">
+      <c r="K17" s="49"/>
+      <c r="L17" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="97"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
       <c r="P17" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2355,16 +2364,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="62">
         <v>44759</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="97"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="18">
         <v>0.65138888888888891</v>
       </c>
@@ -2375,16 +2384,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="62">
         <v>44759</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="96" t="s">
+      <c r="K18" s="49"/>
+      <c r="L18" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="97"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59"/>
       <c r="P18" s="18">
         <v>0.74791666666666667</v>
       </c>
@@ -2397,16 +2406,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="A19" s="62">
         <v>44760</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="96" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="97"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2417,16 +2426,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="62">
         <v>44760</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="96" t="s">
+      <c r="K19" s="50"/>
+      <c r="L19" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="97"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2439,16 +2448,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="62">
         <v>44768</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="97"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="18">
         <v>0.91666666666666663</v>
       </c>
@@ -2459,16 +2468,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="62">
         <v>44768</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="96" t="s">
+      <c r="K20" s="49"/>
+      <c r="L20" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="97"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
       <c r="P20" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2481,16 +2490,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+      <c r="A21" s="62">
         <v>44768</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="96" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="97"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2501,16 +2510,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="62">
         <v>44769</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="96" t="s">
+      <c r="K21" s="49"/>
+      <c r="L21" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="97"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59"/>
       <c r="P21" s="18">
         <v>0.4152777777777778</v>
       </c>
@@ -2523,16 +2532,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="62">
         <v>44769</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="96" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="97"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="18">
         <v>0.4375</v>
       </c>
@@ -2543,16 +2552,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="62">
         <v>44769</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="96" t="s">
+      <c r="K22" s="49"/>
+      <c r="L22" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="97"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="18">
         <v>0.4375</v>
       </c>
@@ -2565,16 +2574,16 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="56">
+      <c r="A23" s="62">
         <v>44769</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="96" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="97"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="18">
         <v>0.4152777777777778</v>
       </c>
@@ -2585,64 +2594,80 @@
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="3"/>
+      <c r="J23" s="62">
+        <v>44776</v>
+      </c>
+      <c r="K23" s="101"/>
+      <c r="L23" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="18">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>0.80069444444444438</v>
+      </c>
       <c r="R23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.8888888888888906E-2</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="52"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3"/>
+      <c r="J24" s="62">
+        <v>44777</v>
+      </c>
+      <c r="K24" s="49"/>
+      <c r="L24" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="18">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0.75208333333333333</v>
+      </c>
       <c r="R24" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6527777777777724E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="52"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="52"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2651,24 +2676,24 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="52"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="52"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2677,24 +2702,24 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="52"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="52"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2703,24 +2728,24 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="52"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="52"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2729,24 +2754,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="52"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="52"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="50"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2755,24 +2780,24 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="52"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="52"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="50"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2781,24 +2806,24 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="52"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="52"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2807,24 +2832,24 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="52"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="52"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2833,24 +2858,24 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="52"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="52"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="50"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2859,24 +2884,24 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="52"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="52"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="50"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2885,24 +2910,24 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="52"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="52"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2911,24 +2936,24 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="52"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="52"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2937,24 +2962,24 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="52"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="52"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="50"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2963,24 +2988,24 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="52"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="52"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="50"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="7">
@@ -2989,24 +3014,24 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="52"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="52"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="50"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="7">
@@ -3015,24 +3040,24 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="52"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="52"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="50"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
@@ -3041,24 +3066,24 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="52"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="52"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="50"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -3067,24 +3092,24 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="52"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="47"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="52"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3093,24 +3118,24 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="52"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="47"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="52"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="50"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3119,24 +3144,24 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="52"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="52"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3145,24 +3170,24 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="52"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="52"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3171,24 +3196,24 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="52"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="47"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="52"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="50"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3197,24 +3222,24 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="52"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="52"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="50"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3223,24 +3248,24 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="52"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="47"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="52"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="50"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3249,24 +3274,24 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="100"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="47"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="52"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="50"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="7">
@@ -3275,206 +3300,38 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="53" t="s">
+      <c r="A50" s="100"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="46"/>
+      <c r="H50" s="47"/>
       <c r="I50" s="15">
         <f>SUM(I10:I49)</f>
         <v>0.76111111111111129</v>
       </c>
-      <c r="J50" s="45"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="53" t="s">
+      <c r="J50" s="100"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="46"/>
+      <c r="Q50" s="47"/>
       <c r="R50" s="15">
         <f>SUM(R10:R49)</f>
-        <v>0.68541666666666656</v>
+        <v>0.82083333333333319</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -3499,6 +3356,174 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\GitHub\AberGymMobile\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\4CHIF\AberGymMobile\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF0E263-00D9-4DC4-88B4-DDDC67F1A085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>Use Case Diagramm erstellt</t>
+  </si>
+  <si>
+    <t>Fertigstellung Clickdummy 1</t>
+  </si>
+  <si>
+    <t>Home Screen Clickdummy 1</t>
+  </si>
+  <si>
+    <t>Fertigstellung Clickdummy 2 &amp; Info Clickdummy 1</t>
+  </si>
+  <si>
+    <t>Planungsbesprechung Clickdummy</t>
+  </si>
+  <si>
+    <t>Planungsbesprechung Clickdummymmy &amp; Ideen Recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planung Clickdummy: Info Einbau &amp; Design 2 </t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1068,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -1160,31 +1178,151 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,136 +1337,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1641,7 +1662,7 @@
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>1.5819444444444444</v>
+        <v>2.1937499999999996</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1710,7 +1731,7 @@
       <c r="C7" s="44"/>
       <c r="D7" s="29">
         <f>Projektstundennachweis!I50</f>
-        <v>0.76111111111111129</v>
+        <v>1.1180555555555556</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -1752,7 +1773,7 @@
       <c r="C10" s="36"/>
       <c r="D10" s="37">
         <f>Projektstundennachweis!R50</f>
-        <v>0.82083333333333319</v>
+        <v>1.0756944444444443</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -1784,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:O27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,60 +1821,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="72" t="s">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="72" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="74"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="71"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
@@ -1884,160 +1905,160 @@
       <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="96"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="77"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="77" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="89" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="77" t="s">
+      <c r="K5" s="72"/>
+      <c r="L5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="26"/>
-      <c r="R5" s="97"/>
+      <c r="R5" s="78"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="98" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="98" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="98" t="s">
+      <c r="Q6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="75" t="s">
+      <c r="R6" s="81" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="75"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="81"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="75"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="81"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="76"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="82"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
+      <c r="A10" s="92">
         <v>44730</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2048,16 +2069,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="92">
         <v>44730</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="54" t="s">
+      <c r="K10" s="93"/>
+      <c r="L10" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="96"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2070,16 +2091,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="56">
         <v>44731</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2090,16 +2111,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="56">
         <v>44731</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="57" t="s">
+      <c r="K11" s="48"/>
+      <c r="L11" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="98"/>
       <c r="P11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2112,16 +2133,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="A12" s="56">
         <v>44732</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="18">
         <v>0.375</v>
       </c>
@@ -2132,16 +2153,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="56">
         <v>44732</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="57" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="98"/>
       <c r="P12" s="18">
         <v>0.375</v>
       </c>
@@ -2154,16 +2175,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="A13" s="56">
         <v>44732</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2174,16 +2195,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="56">
         <v>44732</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="57" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="98"/>
       <c r="P13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2196,16 +2217,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="A14" s="56">
         <v>44734</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2216,16 +2237,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="56">
         <v>44734</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="57" t="s">
+      <c r="K14" s="48"/>
+      <c r="L14" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="59"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="98"/>
       <c r="P14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2238,16 +2259,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
+      <c r="A15" s="56">
         <v>44741</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2258,16 +2279,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="56">
         <v>44741</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="57" t="s">
+      <c r="K15" s="48"/>
+      <c r="L15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="98"/>
       <c r="P15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2280,16 +2301,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
+      <c r="A16" s="56">
         <v>44759</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2300,16 +2321,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="56">
         <v>44759</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="57" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="98"/>
       <c r="P16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2322,16 +2343,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+      <c r="A17" s="56">
         <v>44753</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="18">
         <v>0.70833333333333337</v>
       </c>
@@ -2342,16 +2363,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="56">
         <v>44759</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="57" t="s">
+      <c r="K17" s="48"/>
+      <c r="L17" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="98"/>
       <c r="P17" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2364,16 +2385,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
+      <c r="A18" s="56">
         <v>44759</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="18">
         <v>0.65138888888888891</v>
       </c>
@@ -2384,16 +2405,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="56">
         <v>44759</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="57" t="s">
+      <c r="K18" s="48"/>
+      <c r="L18" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="98"/>
       <c r="P18" s="18">
         <v>0.74791666666666667</v>
       </c>
@@ -2406,16 +2427,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="62">
+      <c r="A19" s="56">
         <v>44760</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2426,16 +2447,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="56">
         <v>44760</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="57" t="s">
+      <c r="K19" s="52"/>
+      <c r="L19" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="98"/>
       <c r="P19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2448,16 +2469,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+      <c r="A20" s="56">
         <v>44768</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="18">
         <v>0.91666666666666663</v>
       </c>
@@ -2468,16 +2489,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="56">
         <v>44768</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="57" t="s">
+      <c r="K20" s="48"/>
+      <c r="L20" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="59"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="98"/>
       <c r="P20" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2490,16 +2511,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="56">
         <v>44768</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2510,16 +2531,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="56">
         <v>44769</v>
       </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="57" t="s">
+      <c r="K21" s="48"/>
+      <c r="L21" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="59"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="98"/>
       <c r="P21" s="18">
         <v>0.4152777777777778</v>
       </c>
@@ -2532,16 +2553,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="A22" s="56">
         <v>44769</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="18">
         <v>0.4375</v>
       </c>
@@ -2552,16 +2573,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="56">
         <v>44769</v>
       </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="57" t="s">
+      <c r="K22" s="48"/>
+      <c r="L22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="98"/>
       <c r="P22" s="18">
         <v>0.4375</v>
       </c>
@@ -2574,16 +2595,16 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+      <c r="A23" s="56">
         <v>44769</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="57" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="18">
         <v>0.4152777777777778</v>
       </c>
@@ -2594,16 +2615,16 @@
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="56">
         <v>44776</v>
       </c>
-      <c r="K23" s="101"/>
-      <c r="L23" s="57" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="59"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="98"/>
       <c r="P23" s="18">
         <v>0.71180555555555547</v>
       </c>
@@ -2616,28 +2637,36 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
+      <c r="A24" s="56">
+        <v>44774</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="62">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J24" s="56">
         <v>44777</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="57" t="s">
+      <c r="K24" s="48"/>
+      <c r="L24" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="98"/>
       <c r="P24" s="18">
         <v>0.7055555555555556</v>
       </c>
@@ -2650,102 +2679,158 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="56">
+        <v>44777</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.75</v>
+      </c>
       <c r="I25" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="3"/>
+        <f t="shared" ref="I25" si="4">H25-G25</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J25" s="56">
+        <v>44792</v>
+      </c>
+      <c r="K25" s="48"/>
+      <c r="L25" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="18">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="R25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13055555555555554</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="56">
+        <v>44792</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="I26" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="86"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="3"/>
+        <f>H26-G26</f>
+        <v>5.5555555555555469E-2</v>
+      </c>
+      <c r="J26" s="56">
+        <v>44796</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="18">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>0.66875000000000007</v>
+      </c>
       <c r="R26" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.4166666666666696E-2</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="56">
+        <v>44796</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0.66875000000000007</v>
+      </c>
       <c r="I27" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="86"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="3"/>
+        <f>H27-G27</f>
+        <v>4.3750000000000067E-2</v>
+      </c>
+      <c r="J27" s="56">
+        <v>44797</v>
+      </c>
+      <c r="K27" s="102"/>
+      <c r="L27" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>0.48680555555555555</v>
+      </c>
       <c r="R27" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>Q27-P27</f>
+        <v>7.0138888888888862E-2</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="56">
+        <v>44797</v>
+      </c>
+      <c r="B28" s="102"/>
+      <c r="C28" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.48680555555555555</v>
+      </c>
       <c r="I28" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="86"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
+        <f>H28-G28</f>
+        <v>0.11180555555555555</v>
+      </c>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2754,24 +2839,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="86"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="50"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="52"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2780,24 +2865,24 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="86"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="50"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2806,24 +2891,24 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="86"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2832,24 +2917,24 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="86"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="52"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2858,24 +2943,24 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="86"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="50"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="52"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2884,24 +2969,24 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="86"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="50"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="52"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2910,24 +2995,24 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="86"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="50"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="52"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2936,24 +3021,24 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36" s="86"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="50"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2962,24 +3047,24 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="50"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2988,24 +3073,24 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="86"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="50"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="52"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="7">
@@ -3014,24 +3099,24 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="87"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="50"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="52"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="7">
@@ -3040,298 +3125,466 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="86"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="50"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="52"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
-        <f t="shared" ref="R40:R49" si="4">Q40-P40</f>
+        <f t="shared" ref="R40:R49" si="5">Q40-P40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="86"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="50"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="52"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="86"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="50"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="52"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="86"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="50"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="52"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="86"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="52"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="86"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="50"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="86"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="50"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="86"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="50"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="52"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="86"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="50"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="95"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="101"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="86"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="50"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="52"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="100"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="45" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="47"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="15">
         <f>SUM(I10:I49)</f>
-        <v>0.76111111111111129</v>
-      </c>
-      <c r="J50" s="100"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="45" t="s">
+        <v>1.1180555555555556</v>
+      </c>
+      <c r="J50" s="45"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="47"/>
+      <c r="Q50" s="46"/>
       <c r="R50" s="15">
         <f>SUM(R10:R49)</f>
-        <v>0.82083333333333319</v>
+        <v>1.0756944444444443</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="192">
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -3356,174 +3609,6 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\GitHub\AberGymMobile\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -1160,31 +1160,151 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,144 +1319,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
-    <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="3" builtinId="24"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1620,7 +1620,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
@@ -1784,11 +1784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:O27"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1800,60 +1800,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="72" t="s">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="72" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="74"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="65" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="71"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
@@ -1884,160 +1884,160 @@
       <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="96"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="77"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="77" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="89" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="77" t="s">
+      <c r="K5" s="72"/>
+      <c r="L5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="26"/>
-      <c r="R5" s="97"/>
+      <c r="R5" s="78"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="98" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="98" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="98" t="s">
+      <c r="Q6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="75" t="s">
+      <c r="R6" s="81" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="75"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="81"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="75"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="81"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="76"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="82"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
+      <c r="A10" s="92">
         <v>44730</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2048,16 +2048,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="92">
         <v>44730</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="54" t="s">
+      <c r="K10" s="93"/>
+      <c r="L10" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="96"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2070,16 +2070,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="56">
         <v>44731</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2090,16 +2090,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="56">
         <v>44731</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="57" t="s">
+      <c r="K11" s="48"/>
+      <c r="L11" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="98"/>
       <c r="P11" s="18">
         <v>0.79166666666666663</v>
       </c>
@@ -2112,16 +2112,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="A12" s="56">
         <v>44732</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="18">
         <v>0.375</v>
       </c>
@@ -2132,16 +2132,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="56">
         <v>44732</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="57" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="98"/>
       <c r="P12" s="18">
         <v>0.375</v>
       </c>
@@ -2154,16 +2154,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="A13" s="56">
         <v>44732</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2174,16 +2174,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="56">
         <v>44732</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="57" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="98"/>
       <c r="P13" s="18">
         <v>0.60069444444444442</v>
       </c>
@@ -2196,16 +2196,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="A14" s="56">
         <v>44734</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2216,16 +2216,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="56">
         <v>44734</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="57" t="s">
+      <c r="K14" s="48"/>
+      <c r="L14" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="59"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="98"/>
       <c r="P14" s="18">
         <v>0.50694444444444442</v>
       </c>
@@ -2238,16 +2238,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
+      <c r="A15" s="56">
         <v>44741</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2258,16 +2258,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="56">
         <v>44741</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="57" t="s">
+      <c r="K15" s="48"/>
+      <c r="L15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="98"/>
       <c r="P15" s="18">
         <v>0.49305555555555558</v>
       </c>
@@ -2280,16 +2280,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
+      <c r="A16" s="56">
         <v>44759</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2300,16 +2300,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="56">
         <v>44759</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="57" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="98"/>
       <c r="P16" s="18">
         <v>0.86249999999999993</v>
       </c>
@@ -2322,16 +2322,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+      <c r="A17" s="56">
         <v>44753</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="18">
         <v>0.70833333333333337</v>
       </c>
@@ -2342,16 +2342,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="56">
         <v>44759</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="57" t="s">
+      <c r="K17" s="48"/>
+      <c r="L17" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="98"/>
       <c r="P17" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2364,16 +2364,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
+      <c r="A18" s="56">
         <v>44759</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="18">
         <v>0.65138888888888891</v>
       </c>
@@ -2384,16 +2384,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="56">
         <v>44759</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="57" t="s">
+      <c r="K18" s="48"/>
+      <c r="L18" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="98"/>
       <c r="P18" s="18">
         <v>0.74791666666666667</v>
       </c>
@@ -2406,16 +2406,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="62">
+      <c r="A19" s="56">
         <v>44760</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2426,16 +2426,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="56">
         <v>44760</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="57" t="s">
+      <c r="K19" s="52"/>
+      <c r="L19" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="98"/>
       <c r="P19" s="18">
         <v>0.6430555555555556</v>
       </c>
@@ -2448,16 +2448,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+      <c r="A20" s="56">
         <v>44768</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="18">
         <v>0.91666666666666663</v>
       </c>
@@ -2468,16 +2468,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="56">
         <v>44768</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="57" t="s">
+      <c r="K20" s="48"/>
+      <c r="L20" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="59"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="98"/>
       <c r="P20" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2490,16 +2490,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="56">
         <v>44768</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="18">
         <v>0.84027777777777779</v>
       </c>
@@ -2510,16 +2510,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="56">
         <v>44769</v>
       </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="57" t="s">
+      <c r="K21" s="48"/>
+      <c r="L21" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="59"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="98"/>
       <c r="P21" s="18">
         <v>0.4152777777777778</v>
       </c>
@@ -2532,16 +2532,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="A22" s="56">
         <v>44769</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="18">
         <v>0.4375</v>
       </c>
@@ -2552,16 +2552,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="56">
         <v>44769</v>
       </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="57" t="s">
+      <c r="K22" s="48"/>
+      <c r="L22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="98"/>
       <c r="P22" s="18">
         <v>0.4375</v>
       </c>
@@ -2574,16 +2574,16 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+      <c r="A23" s="56">
         <v>44769</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="57" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="18">
         <v>0.4152777777777778</v>
       </c>
@@ -2594,16 +2594,16 @@
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="56">
         <v>44776</v>
       </c>
-      <c r="K23" s="101"/>
-      <c r="L23" s="57" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="59"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="98"/>
       <c r="P23" s="18">
         <v>0.71180555555555547</v>
       </c>
@@ -2616,28 +2616,28 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="56">
         <v>44777</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="57" t="s">
+      <c r="K24" s="48"/>
+      <c r="L24" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="98"/>
       <c r="P24" s="18">
         <v>0.7055555555555556</v>
       </c>
@@ -2650,24 +2650,24 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="52"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7">
@@ -2676,24 +2676,24 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="86"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="52"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="7">
@@ -2702,24 +2702,24 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="86"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="7">
@@ -2728,24 +2728,24 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="86"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="7">
@@ -2754,24 +2754,24 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="86"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="50"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="52"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="7">
@@ -2780,24 +2780,24 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="86"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="50"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="7">
@@ -2806,24 +2806,24 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="86"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="7">
@@ -2832,24 +2832,24 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="86"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="52"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="7">
@@ -2858,24 +2858,24 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="86"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="50"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="52"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="7">
@@ -2884,24 +2884,24 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="86"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="50"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="52"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="7">
@@ -2910,24 +2910,24 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="86"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="50"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="52"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="7">
@@ -2936,24 +2936,24 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36" s="86"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="50"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="7">
@@ -2962,24 +2962,24 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="50"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="7">
@@ -2988,24 +2988,24 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="7">
         <f>H38-G38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="86"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="50"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="52"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="7">
@@ -3014,24 +3014,24 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="87"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="50"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="52"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="7">
@@ -3040,24 +3040,24 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="86"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="50"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="52"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="7">
@@ -3066,24 +3066,24 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="86"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="50"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="52"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="7">
@@ -3092,24 +3092,24 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="86"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="50"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="52"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="7">
@@ -3118,24 +3118,24 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="86"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="50"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="52"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="7">
@@ -3144,24 +3144,24 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="86"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="52"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="7">
@@ -3170,24 +3170,24 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="86"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="50"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="7">
@@ -3196,24 +3196,24 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="86"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="50"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="7">
@@ -3222,24 +3222,24 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="86"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="50"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="52"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="7">
@@ -3248,24 +3248,24 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="86"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="50"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="7">
@@ -3274,24 +3274,24 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="95"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="101"/>
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="86"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="50"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="52"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="7">
@@ -3300,30 +3300,30 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="100"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="45" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="47"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="15">
         <f>SUM(I10:I49)</f>
         <v>0.76111111111111129</v>
       </c>
-      <c r="J50" s="100"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="45" t="s">
+      <c r="J50" s="45"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="47"/>
+      <c r="Q50" s="46"/>
       <c r="R50" s="15">
         <f>SUM(R10:R49)</f>
         <v>0.82083333333333319</v>
@@ -3332,6 +3332,174 @@
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="192">
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -3356,174 +3524,6 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C583C7A-2946-48D1-9AD3-BA48DA7487D3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -135,6 +135,89 @@
   </si>
   <si>
     <t>Use Case Diagramm erstellt</t>
+  </si>
+  <si>
+    <t>Fertigstellung Clickdummy (Komplett neues Design)</t>
+  </si>
+  <si>
+    <t>Animationen hinzugefügt, Neue Farbenkombination</t>
+  </si>
+  <si>
+    <t>GitHub Repo Update und Goldene Farb Pattern und Blaue Farb Pattern</t>
+  </si>
+  <si>
+    <t>Neues Desgin angepasst an Verbesserungsvorschläge des Meetings</t>
+  </si>
+  <si>
+    <t>Ferigstellung des 1 Klickdummy und 2 Klickdummy</t>
+  </si>
+  <si>
+    <t>Klickdummy bearbeiten</t>
+  </si>
+  <si>
+    <t>Neues 3 Klickdummy Desgin. Vorbereitung auf Meeting</t>
+  </si>
+  <si>
+    <t>4 Desgin und 3 Desgin überarbeiten und erstellen</t>
+  </si>
+  <si>
+    <t>Flutter installation und Anwendung für Mobile App erstellen</t>
+  </si>
+  <si>
+    <t>Homepage bearbeiten</t>
+  </si>
+  <si>
+    <t>Backend hinzufügen</t>
+  </si>
+  <si>
+    <t>Backend fertigstellen mit Testdaten für Mobile Anwendung</t>
+  </si>
+  <si>
+    <t>Mobile Anwendung bearbeiten (Home Screen, Data Table &amp; Scrollbar, Splashscreen, Footer, Last_Plan Screen) Live Share mit Kuvac</t>
+  </si>
+  <si>
+    <t>Finished (Footer, Code Design rework, Connection with MySql, MySql Select Statement)
+Errors:
++ Get no Data form Database</t>
+  </si>
+  <si>
+    <t>MySql Verbindung und Model erstellen</t>
+  </si>
+  <si>
+    <t>Database connection finished, the problem was the package, Started Table</t>
+  </si>
+  <si>
+    <t>Loop für Übungen</t>
+  </si>
+  <si>
+    <t>StartScreen finished</t>
+  </si>
+  <si>
+    <t>Live Share, started with PS, MainScreen 95% finished, cleaning code</t>
+  </si>
+  <si>
+    <t>Fortschrittssystem anfangen</t>
+  </si>
+  <si>
+    <t>Set Clicker 90%, Name ändern</t>
+  </si>
+  <si>
+    <t>Fortschrittssystem ToDoList fertiggestellt</t>
+  </si>
+  <si>
+    <t>Fertige FS Liste und füge neues UpdateSystem hinzu</t>
+  </si>
+  <si>
+    <t>Update AppBar</t>
+  </si>
+  <si>
+    <t>Live Share, Change App Icon and Label Title, Change Startscreen and add Add Banner, Test app on extern Android, Splashscreen 50%</t>
+  </si>
+  <si>
+    <t>Fix Projekt</t>
+  </si>
+  <si>
+    <t>Update Stundenaufzeichung</t>
   </si>
 </sst>
 </file>
@@ -205,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1043,6 +1126,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1050,21 +1185,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="51" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,7 +1206,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,10 +1229,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="70" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="71" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="72" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1112,7 +1261,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="60" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="61" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1145,7 +1294,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1160,40 +1309,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1220,9 +1423,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1256,6 +1456,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1286,7 +1489,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1301,34 +1504,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1349,6 +1534,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1617,148 +1806,148 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34">
         <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>1.5819444444444444</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+        <v>5.228472222222222</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="29">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="35">
         <f>Projektstundennachweis!I50</f>
-        <v>0.76111111111111129</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+        <v>4.4076388888888891</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43">
         <f>Projektstundennachweis!R50</f>
         <v>0.82083333333333319</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1782,1556 +1971,2475 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:O9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="23" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="23"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60" t="s">
+    <row r="1" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="60" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="86"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="63" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="89"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="67" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69" t="s">
+      <c r="K3" s="91"/>
+      <c r="L3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="77"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="100"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="101"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="25" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="71" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="83" t="s">
+      <c r="K5" s="95"/>
+      <c r="L5" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="25" t="s">
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="78"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="79" t="s">
+      <c r="Q5" s="32"/>
+      <c r="R5" s="102"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="79" t="s">
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="79" t="s">
+      <c r="Q6" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="81" t="s">
+      <c r="R6" s="105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="81"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="81"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="82"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="92">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="105"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="105"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="106"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="71">
         <v>44730</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.71666666666666667</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="71">
         <v>44730</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94" t="s">
+      <c r="K10" s="72"/>
+      <c r="L10" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="96"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="75"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>0.71666666666666667</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <f>Q10-P10</f>
         <v>8.8194444444444464E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="62">
         <v>44731</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="97" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="18">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="16">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>0.84375</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="62">
         <v>44731</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="97" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="18">
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="16">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="17">
         <v>0.84375</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <f>Q11-P11</f>
         <v>5.208333333333337E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="62">
         <v>44732</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="97" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="18">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="16">
         <v>0.375</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>0.40625</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="62">
         <v>44732</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="97" t="s">
+      <c r="K12" s="54"/>
+      <c r="L12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="18">
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="16">
         <v>0.375</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="17">
         <v>0.40625</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="5">
         <f t="shared" ref="R12:R38" si="1">Q12-P12</f>
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="62">
         <v>44732</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="97" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="18">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="16">
         <v>0.60069444444444442</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="62">
         <v>44732</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="97" t="s">
+      <c r="K13" s="54"/>
+      <c r="L13" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="18">
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="16">
         <v>0.60069444444444442</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="17">
         <v>0.64583333333333337</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="5">
         <f t="shared" si="1"/>
         <v>4.5138888888888951E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="62">
         <v>44734</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="97" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="18">
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="16">
         <v>0.50694444444444442</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>0.52777777777777779</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="62">
         <v>44734</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="97" t="s">
+      <c r="K14" s="54"/>
+      <c r="L14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="18">
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="16">
         <v>0.50694444444444442</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="17">
         <v>0.52777777777777779</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="5">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="62">
         <v>44741</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="97" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="18">
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="16">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>0.52777777777777779</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="62">
         <v>44741</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="97" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="18">
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="16">
         <v>0.49305555555555558</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="17">
         <v>0.52777777777777779</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="5">
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="62">
         <v>44759</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="97" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="18">
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="16">
         <v>0.86249999999999993</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>0.8833333333333333</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="62">
         <v>44759</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="97" t="s">
+      <c r="K16" s="54"/>
+      <c r="L16" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="18">
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="16">
         <v>0.86249999999999993</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="17">
         <v>0.8833333333333333</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="5">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="62">
         <v>44753</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="18">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <v>0.75347222222222221</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="62">
         <v>44759</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="97" t="s">
+      <c r="K17" s="54"/>
+      <c r="L17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="18">
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="16">
         <v>0.6430555555555556</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="17">
         <v>0.74583333333333324</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="5">
         <f t="shared" si="1"/>
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="62">
         <v>44759</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="97" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="18">
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="16">
         <v>0.65138888888888891</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <v>0.79305555555555562</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="62">
         <v>44759</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="97" t="s">
+      <c r="K18" s="54"/>
+      <c r="L18" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="18">
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="16">
         <v>0.74791666666666667</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="17">
         <v>0.79791666666666661</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <f t="shared" si="1"/>
         <v>4.9999999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="62">
         <v>44760</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="18">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="16">
         <v>0.6430555555555556</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <v>0.71527777777777779</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="62">
         <v>44760</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="97" t="s">
+      <c r="K19" s="78"/>
+      <c r="L19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="18">
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="16">
         <v>0.6430555555555556</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <v>0.71527777777777779</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="5">
         <f t="shared" si="1"/>
         <v>7.2222222222222188E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="62">
         <v>44768</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="18">
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="16">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>0.95833333333333337</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="5">
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="62">
         <v>44768</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="97" t="s">
+      <c r="K20" s="54"/>
+      <c r="L20" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="18">
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="16">
         <v>0.84027777777777779</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="17">
         <v>0.91666666666666663</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="5">
         <f t="shared" si="1"/>
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="62">
         <v>44768</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="18">
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="16">
         <v>0.84027777777777779</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="17">
         <v>0.91666666666666663</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="62">
         <v>44769</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="97" t="s">
+      <c r="K21" s="54"/>
+      <c r="L21" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="18">
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="16">
         <v>0.4152777777777778</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="17">
         <v>0.46458333333333335</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="5">
         <f t="shared" si="1"/>
         <v>4.9305555555555547E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="62">
         <v>44769</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="97" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="18">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="16">
         <v>0.4375</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="17">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="5">
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="62">
         <v>44769</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="97" t="s">
+      <c r="K22" s="54"/>
+      <c r="L22" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="18">
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="16">
         <v>0.4375</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="17">
         <v>0.47916666666666669</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="5">
         <f t="shared" si="1"/>
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="56">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="62">
         <v>44769</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="18">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="16">
         <v>0.4152777777777778</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="17">
         <v>0.46458333333333335</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="62">
         <v>44776</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="97" t="s">
+      <c r="K23" s="81"/>
+      <c r="L23" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="18">
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="16">
         <v>0.71180555555555547</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="17">
         <v>0.80069444444444438</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="5">
         <f t="shared" si="1"/>
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="7">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="62">
+        <v>44774</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="16">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="56">
+        <v>6.8750000000000089E-2</v>
+      </c>
+      <c r="J24" s="62">
         <v>44777</v>
       </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="97" t="s">
+      <c r="K24" s="54"/>
+      <c r="L24" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="18">
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="16">
         <v>0.7055555555555556</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <v>0.75208333333333333</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="5">
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="7">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="62">
+        <v>44776</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="16">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="I25" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="52"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="78"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="7">
+      <c r="R25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="7">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="62">
+        <v>44777</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="16">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="52"/>
+        <v>7.5000000000000067E-2</v>
+      </c>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="78"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="7">
+      <c r="R26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="7">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="62">
+        <v>44796</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="16">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="I27" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="52"/>
+        <v>7.5694444444444398E-2</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="7">
+      <c r="R27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="7">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="62">
+        <v>44797</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="16">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="I28" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="52"/>
+        <v>7.7083333333333393E-2</v>
+      </c>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="78"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="7">
+      <c r="R28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="7">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="62">
+        <v>44819</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="16">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="I29" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="52"/>
+        <v>5.6944444444444464E-2</v>
+      </c>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="78"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="7">
+      <c r="R29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="7">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="62">
+        <v>44822</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0.46875</v>
+      </c>
+      <c r="I30" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="52"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="78"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="7">
+      <c r="R30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="7">
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="79">
+        <v>44823</v>
+      </c>
+      <c r="B31" s="80"/>
+      <c r="C31" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="27">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="H31" s="28">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="I31" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="52"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="78"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="7">
+      <c r="R31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="7">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="66">
+        <v>44825</v>
+      </c>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H32" s="25">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I32" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="52"/>
+        <v>0.15625</v>
+      </c>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="78"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="7">
+      <c r="R32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="7">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="62">
+        <v>44826</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="16">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="I33" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="52"/>
+        <v>9.9305555555555536E-2</v>
+      </c>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="78"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="7">
+      <c r="R33" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="7">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="62">
+        <v>44847</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="16">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="I34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="52"/>
+        <v>0.15625</v>
+      </c>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="78"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="7">
+      <c r="R34" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="7">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="62">
+        <v>44856</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="52"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="7">
+      <c r="R35" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="7">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="62">
+        <v>44858</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="16">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="I36" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="52"/>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="78"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="7">
+      <c r="R36" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="7">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="62">
+        <v>44859</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="I37" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="52"/>
+        <v>0.25</v>
+      </c>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="78"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="7">
+      <c r="R37" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="7">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="64">
+        <v>44861</v>
+      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H38" s="15">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="I38" s="5">
         <f>H38-G38</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="52"/>
+        <v>0.18194444444444446</v>
+      </c>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="78"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="7">
+      <c r="R38" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="7">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="62">
+        <v>44862</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I39" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="7">
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="J39" s="76"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="5">
         <f>Q39-P39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="7">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="62">
+        <v>44864</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="16">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="I40" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="52"/>
+        <v>0.1034722222222223</v>
+      </c>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="78"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="7">
+      <c r="R40" s="5">
         <f t="shared" ref="R40:R49" si="4">Q40-P40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="7">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="62">
+        <v>44866</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I41" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="52"/>
+        <v>0.125</v>
+      </c>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="78"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="7">
+      <c r="R41" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="7">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="62">
+        <v>44866</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="I42" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="47"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="52"/>
+        <v>0.23611111111111116</v>
+      </c>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="78"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="7">
+      <c r="R42" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="7">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="62">
+        <v>44869</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="16">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I43" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="47"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="52"/>
+        <v>0.12152777777777773</v>
+      </c>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="78"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="7">
+      <c r="R43" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="7">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="62">
+        <v>44870</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="I44" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="52"/>
+        <v>0.18194444444444446</v>
+      </c>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="78"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="7">
+      <c r="R44" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="7">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="62">
+        <v>44873</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="16">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="I45" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="52"/>
+        <v>0.1694444444444444</v>
+      </c>
+      <c r="J45" s="53"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="78"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="7">
+      <c r="R45" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="7">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="62">
+        <v>44874</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H46" s="17">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="I46" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="47"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="52"/>
+        <v>0.18402777777777773</v>
+      </c>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="78"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="7">
+      <c r="R46" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="7">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="62">
+        <v>44874</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="16">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="I47" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="52"/>
+        <v>0.12500000000000011</v>
+      </c>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="78"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="7">
+      <c r="R47" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="7">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="62">
+        <v>44879</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H48" s="17">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I48" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="47"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="52"/>
+        <v>0.15277777777777773</v>
+      </c>
+      <c r="J48" s="53"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="78"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="7">
+      <c r="R48" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="8">
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="79">
+        <v>44893</v>
+      </c>
+      <c r="B49" s="80"/>
+      <c r="C49" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="28">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I49" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="47"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="52"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="78"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="7">
+      <c r="R49" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="53" t="s">
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="58"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="46"/>
-      <c r="I50" s="15">
+      <c r="H50" s="52"/>
+      <c r="I50" s="13">
         <f>SUM(I10:I49)</f>
-        <v>0.76111111111111129</v>
-      </c>
-      <c r="J50" s="45"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="99"/>
-      <c r="N50" s="99"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="53" t="s">
+        <v>4.4076388888888891</v>
+      </c>
+      <c r="J50" s="58"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="15">
+      <c r="Q50" s="52"/>
+      <c r="R50" s="13">
         <f>SUM(R10:R49)</f>
         <v>0.82083333333333319</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="71">
+        <v>44910</v>
+      </c>
+      <c r="B51" s="72"/>
+      <c r="C51" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="I51" s="5">
+        <f>H51-G51</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="62"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="5">
+        <f>H52-G52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="62"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="5">
+        <f t="shared" ref="I53:I78" si="5">H53-G53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="62"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="62"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="62"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="62"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="62"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="62"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="62"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="62"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="62"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="62"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="62"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="62"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="62"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="62"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="62"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="62"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="62"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="62"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="62"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="66"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="62"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="62"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="62"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="62"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="62"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="64"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="5">
+        <f>H79-G79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="62"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="5">
+        <f t="shared" ref="I80:I88" si="6">H80-G80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="62"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="62"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="62"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="62"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="62"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="53"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="53"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="53"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="53"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="5">
+        <f t="shared" ref="I89" si="7">H89-G89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="53"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="5">
+        <f t="shared" ref="I90:I99" si="8">H90-G90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="53"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="53"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="53"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="53"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="53"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="53"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="53"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="53"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="53"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="58"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="52"/>
+      <c r="I100" s="13">
+        <f>SUM(I51:I99)</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="293">
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="L42:O42"/>
     <mergeCell ref="L43:O43"/>
@@ -3524,6 +4632,107 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:F100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C583C7A-2946-48D1-9AD3-BA48DA7487D3}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6E2B79D-CDB5-4D6B-9912-D02B082DA9E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Person</t>
-  </si>
-  <si>
-    <t>11.07.2022          bis          31.10.2022</t>
   </si>
   <si>
     <t>Tätigkeiten</t>
@@ -218,6 +215,15 @@
   </si>
   <si>
     <t>Update Stundenaufzeichung</t>
+  </si>
+  <si>
+    <t>Neues Projekt Login Page mit QRCode und NFC</t>
+  </si>
+  <si>
+    <t>Errors fixen von Qr Code und NFC, QR Code einloggen geht jetzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.07.2022          bis          </t>
   </si>
 </sst>
 </file>
@@ -1310,210 +1316,210 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1534,10 +1540,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1805,18 +1807,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF6767E-54AE-4B4E-8EBD-E2378F13C4F0}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1827,10 +1829,10 @@
       <c r="H1" s="32"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
-        <f>Projektstundennachweis!I50+Projektstundennachweis!R50</f>
-        <v>5.228472222222222</v>
+        <f>D7+D10</f>
+        <v>5.7513888888888882</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1841,7 +1843,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1852,9 +1854,9 @@
       <c r="H3" s="8"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -1865,7 +1867,7 @@
       <c r="H4" s="46"/>
       <c r="I4" s="47"/>
     </row>
-    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
@@ -1876,14 +1878,14 @@
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="39"/>
       <c r="D6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1891,15 +1893,15 @@
       <c r="H6" s="10"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="50"/>
       <c r="D7" s="35">
-        <f>Projektstundennachweis!I50</f>
-        <v>4.4076388888888891</v>
+        <f>Projektstundennachweis!I100</f>
+        <v>4.9305555555555554</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -1907,7 +1909,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1918,14 +1920,14 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="39"/>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1933,9 +1935,9 @@
       <c r="H9" s="10"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -1973,261 +1975,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView view="pageLayout" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="23" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="23"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="23" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="23"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="77"/>
+      <c r="L1" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="79"/>
+      <c r="L2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="83"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="112"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84" t="s">
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="106"/>
+      <c r="L5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="86"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="89"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="100"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="101"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="107" t="s">
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="31" t="s">
+      <c r="Q5" s="32"/>
+      <c r="R5" s="113"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="31" t="s">
+      <c r="H6" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="102"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="103" t="s">
+      <c r="Q6" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="R6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="105"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="105"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="106"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="71">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="88"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="88"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="109"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="89"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
         <v>44730</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2238,16 +2240,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="69">
         <v>44730</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2259,17 +2261,17 @@
         <v>8.8194444444444464E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="71">
         <v>44731</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2280,16 +2282,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="71">
         <v>44731</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
       <c r="P11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2301,17 +2303,17 @@
         <v>5.208333333333337E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="62">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="71">
         <v>44732</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="16">
         <v>0.375</v>
       </c>
@@ -2322,16 +2324,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="71">
         <v>44732</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
       <c r="P12" s="16">
         <v>0.375</v>
       </c>
@@ -2343,17 +2345,17 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="62">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="71">
         <v>44732</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2364,16 +2366,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="71">
         <v>44732</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
       <c r="P13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2385,17 +2387,17 @@
         <v>4.5138888888888951E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="62">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="71">
         <v>44734</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2406,16 +2408,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="71">
         <v>44734</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
       <c r="P14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2427,17 +2429,17 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="62">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="71">
         <v>44741</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2448,16 +2450,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="71">
         <v>44741</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="62"/>
       <c r="P15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2469,17 +2471,17 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="62">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="71">
         <v>44759</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2490,16 +2492,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="71">
         <v>44759</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="57"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="62"/>
       <c r="P16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2511,17 +2513,17 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="62">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="71">
         <v>44753</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="16">
         <v>0.70833333333333337</v>
       </c>
@@ -2532,16 +2534,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="71">
         <v>44759</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
       <c r="P17" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2553,17 +2555,17 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="62">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="71">
         <v>44759</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="16">
         <v>0.65138888888888891</v>
       </c>
@@ -2574,16 +2576,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="71">
         <v>44759</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="57"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="62"/>
       <c r="P18" s="16">
         <v>0.74791666666666667</v>
       </c>
@@ -2595,17 +2597,17 @@
         <v>4.9999999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="62">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
         <v>44760</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2616,16 +2618,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="71">
         <v>44760</v>
       </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="57"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
       <c r="P19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2637,17 +2639,17 @@
         <v>7.2222222222222188E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="62">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="71">
         <v>44768</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="16">
         <v>0.91666666666666663</v>
       </c>
@@ -2658,16 +2660,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="71">
         <v>44768</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62"/>
       <c r="P20" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2679,17 +2681,17 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="62">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="71">
         <v>44768</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2700,16 +2702,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="71">
         <v>44769</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="57"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
       <c r="P21" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2721,17 +2723,17 @@
         <v>4.9305555555555547E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="62">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="71">
         <v>44769</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="16">
         <v>0.4375</v>
       </c>
@@ -2742,16 +2744,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="71">
         <v>44769</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="57"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="16">
         <v>0.4375</v>
       </c>
@@ -2763,17 +2765,17 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="62">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="71">
         <v>44769</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2784,16 +2786,16 @@
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="71">
         <v>44776</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="57"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="62"/>
       <c r="P23" s="16">
         <v>0.71180555555555547</v>
       </c>
@@ -2805,17 +2807,17 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="62">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="71">
         <v>44774</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="16">
         <v>0.57291666666666663</v>
       </c>
@@ -2826,16 +2828,16 @@
         <f t="shared" si="2"/>
         <v>6.8750000000000089E-2</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="71">
         <v>44777</v>
       </c>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="62"/>
       <c r="P24" s="16">
         <v>0.7055555555555556</v>
       </c>
@@ -2847,17 +2849,17 @@
         <v>4.6527777777777724E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="62">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="71">
         <v>44776</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="16">
         <v>0.6069444444444444</v>
       </c>
@@ -2868,12 +2870,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="78"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="5">
@@ -2881,17 +2883,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="62">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="71">
         <v>44777</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="16">
         <v>0.34166666666666662</v>
       </c>
@@ -2902,12 +2904,12 @@
         <f t="shared" si="2"/>
         <v>7.5000000000000067E-2</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="78"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="56"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5">
@@ -2915,17 +2917,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="62">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="71">
         <v>44796</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="16">
         <v>0.58680555555555558</v>
       </c>
@@ -2936,12 +2938,12 @@
         <f t="shared" si="2"/>
         <v>7.5694444444444398E-2</v>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="78"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="5">
@@ -2949,17 +2951,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="62">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="71">
         <v>44797</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="16">
         <v>0.56041666666666667</v>
       </c>
@@ -2970,12 +2972,12 @@
         <f t="shared" si="2"/>
         <v>7.7083333333333393E-2</v>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="78"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5">
@@ -2983,17 +2985,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="62">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="71">
         <v>44819</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="16">
         <v>0.83124999999999993</v>
       </c>
@@ -3004,12 +3006,12 @@
         <f t="shared" si="2"/>
         <v>5.6944444444444464E-2</v>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="78"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="5">
@@ -3017,17 +3019,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="62">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="71">
         <v>44822</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="16">
         <v>0.375</v>
       </c>
@@ -3038,12 +3040,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="78"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="5">
@@ -3051,17 +3053,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="79">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="99">
         <v>44823</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="27">
         <v>0.42638888888888887</v>
       </c>
@@ -3072,12 +3074,12 @@
         <f t="shared" si="2"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="78"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="5">
@@ -3085,17 +3087,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="66">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="101">
         <v>44825</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
       <c r="G32" s="24">
         <v>0.33333333333333331</v>
       </c>
@@ -3106,12 +3108,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="78"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="5">
@@ -3119,17 +3121,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="62">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="71">
         <v>44826</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="16">
         <v>0.77569444444444446</v>
       </c>
@@ -3140,12 +3142,12 @@
         <f t="shared" si="2"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="78"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="5">
@@ -3153,17 +3155,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="62">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="71">
         <v>44847</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -3174,12 +3176,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="78"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="5">
@@ -3187,17 +3189,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="62">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="71">
         <v>44856</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3208,12 +3210,12 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="78"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="56"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="5">
@@ -3221,17 +3223,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="62">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="71">
         <v>44858</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="16">
         <v>0.60416666666666663</v>
       </c>
@@ -3242,12 +3244,12 @@
         <f t="shared" si="2"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="78"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="5">
@@ -3255,17 +3257,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="62">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="71">
         <v>44859</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="16">
         <v>0.375</v>
       </c>
@@ -3276,12 +3278,12 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="78"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="56"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="5">
@@ -3289,17 +3291,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="64">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="103">
         <v>44861</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="14">
         <v>0.58333333333333337</v>
       </c>
@@ -3310,12 +3312,12 @@
         <f>H38-G38</f>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="78"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="56"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="5">
@@ -3323,17 +3325,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="62">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="71">
         <v>44862</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="16">
         <v>0.5</v>
       </c>
@@ -3344,12 +3346,12 @@
         <f t="shared" si="2"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="J39" s="76"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="78"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="56"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="5">
@@ -3357,17 +3359,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="62">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="71">
         <v>44864</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="16">
         <v>0.75486111111111109</v>
       </c>
@@ -3378,12 +3380,12 @@
         <f t="shared" si="2"/>
         <v>0.1034722222222223</v>
       </c>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="78"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="56"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="5">
@@ -3391,17 +3393,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="62">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="71">
         <v>44866</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3412,12 +3414,12 @@
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="78"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="56"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="5">
@@ -3425,17 +3427,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="62">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="71">
         <v>44866</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="16">
         <v>0.625</v>
       </c>
@@ -3446,12 +3448,12 @@
         <f t="shared" si="2"/>
         <v>0.23611111111111116</v>
       </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="78"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="56"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="5">
@@ -3459,17 +3461,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="62">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="71">
         <v>44869</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="16">
         <v>0.36805555555555558</v>
       </c>
@@ -3480,12 +3482,12 @@
         <f t="shared" si="2"/>
         <v>0.12152777777777773</v>
       </c>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="78"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="56"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="5">
@@ -3493,17 +3495,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="62">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="71">
         <v>44870</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="16">
         <v>0.625</v>
       </c>
@@ -3514,12 +3516,12 @@
         <f t="shared" si="2"/>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J44" s="53"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="78"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="56"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="5">
@@ -3527,17 +3529,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="62">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="71">
         <v>44873</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="57"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="16">
         <v>0.55555555555555558</v>
       </c>
@@ -3548,12 +3550,12 @@
         <f t="shared" si="2"/>
         <v>0.1694444444444444</v>
       </c>
-      <c r="J45" s="53"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="78"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="56"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="5">
@@ -3561,17 +3563,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="62">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="71">
         <v>44874</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="57"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="16">
         <v>0.33333333333333331</v>
       </c>
@@ -3582,12 +3584,12 @@
         <f t="shared" si="2"/>
         <v>0.18402777777777773</v>
       </c>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="78"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="5">
@@ -3595,17 +3597,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="62">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="71">
         <v>44874</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="57"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="16">
         <v>0.57708333333333328</v>
       </c>
@@ -3616,12 +3618,12 @@
         <f t="shared" si="2"/>
         <v>0.12500000000000011</v>
       </c>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="78"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="56"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="5">
@@ -3629,17 +3631,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="62">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="71">
         <v>44879</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="57"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="16">
         <v>0.45833333333333331</v>
       </c>
@@ -3650,12 +3652,12 @@
         <f t="shared" si="2"/>
         <v>0.15277777777777773</v>
       </c>
-      <c r="J48" s="53"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="78"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="56"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="5">
@@ -3663,17 +3665,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="79">
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="99">
         <v>44893</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="118"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65"/>
       <c r="G49" s="27">
         <v>0.75</v>
       </c>
@@ -3684,12 +3686,12 @@
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="78"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="56"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="5">
@@ -3697,47 +3699,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="58"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="52"/>
+    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="118"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="59"/>
       <c r="I50" s="13">
         <f>SUM(I10:I49)</f>
         <v>4.4076388888888891</v>
       </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="52"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="59"/>
       <c r="R50" s="13">
         <f>SUM(R10:R49)</f>
         <v>0.82083333333333319</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="71">
+    <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="69">
         <v>44910</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="75"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
       <c r="G51" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -3748,866 +3750,1518 @@
         <f>H51-G51</f>
         <v>7.5000000000000011E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="62"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="5">
+        <f>Q51-P51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="71">
+        <v>44911</v>
+      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="17">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="I52" s="5">
         <f>H52-G52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="62"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
+        <v>0.19791666666666663</v>
+      </c>
+      <c r="J52" s="71"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="5">
+        <f>Q52-P52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="71">
+        <v>44912</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H53" s="17">
+        <v>1</v>
+      </c>
       <c r="I53" s="5">
         <f t="shared" ref="I53:I78" si="5">H53-G53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="62"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57"/>
+        <v>0.25</v>
+      </c>
+      <c r="J53" s="71"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="5">
+        <f t="shared" ref="R53:R78" si="6">Q53-P53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="71"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="62"/>
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
       <c r="I54" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="62"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="57"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="71"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
       <c r="I55" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="71"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="16"/>
       <c r="H56" s="17"/>
       <c r="I56" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="62"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="57"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="71"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="62"/>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
       <c r="I57" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="62"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="57"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="71"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="62"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="62"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="57"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="71"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="62"/>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
       <c r="I59" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="62"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="57"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="71"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62"/>
       <c r="G60" s="16"/>
       <c r="H60" s="17"/>
       <c r="I60" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="62"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="57"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="71"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
       <c r="I61" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="62"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="71"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
       <c r="I62" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="62"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="57"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="71"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
       <c r="I63" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="62"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="57"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="71"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
       <c r="I64" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="62"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="57"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="71"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="62"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="57"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="62"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="71"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="62"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="57"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="62"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="71"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="62"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="57"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="71"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="62"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="57"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="62"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="71"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="62"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="57"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="71"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="62"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="57"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="71"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="62"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="57"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="71"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
       <c r="I72" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="66"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="70"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="101"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="75"/>
       <c r="G73" s="24"/>
       <c r="H73" s="25"/>
       <c r="I73" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="62"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="57"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="71"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
       <c r="I74" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="62"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="62"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="71"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="62"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="57"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="71"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
       <c r="I76" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="62"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="57"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="62"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="71"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="62"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="57"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="62"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="71"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="62"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="64"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="57"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="103"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="62"/>
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
       <c r="I79" s="5">
         <f>H79-G79</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="62"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="57"/>
+      <c r="J79" s="103"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="5">
+        <f>Q79-P79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="71"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="5">
-        <f t="shared" ref="I80:I88" si="6">H80-G80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="62"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="57"/>
+        <f t="shared" ref="I80:I88" si="7">H80-G80</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="71"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="5">
+        <f t="shared" ref="R80:R99" si="8">Q80-P80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="71"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="62"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="57"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="71"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="62"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="71"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="62"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="57"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="71"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="71"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="16"/>
       <c r="H83" s="17"/>
       <c r="I83" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="62"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="57"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="71"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="71"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
       <c r="I84" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="62"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="57"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="71"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="62"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="71"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="62"/>
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
       <c r="I85" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="53"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="57"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="71"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="62"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="117"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="62"/>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
       <c r="I86" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="53"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="57"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="117"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="62"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="117"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="62"/>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
       <c r="I87" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="53"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="57"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="117"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="117"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="62"/>
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
       <c r="I88" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="53"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="57"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="117"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="62"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="117"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="62"/>
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="5">
-        <f t="shared" ref="I89" si="7">H89-G89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="53"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="57"/>
+        <f t="shared" ref="I89" si="9">H89-G89</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="117"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="62"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="117"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="62"/>
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
       <c r="I90" s="5">
-        <f t="shared" ref="I90:I99" si="8">H90-G90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="53"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="57"/>
+        <f t="shared" ref="I90:I99" si="10">H90-G90</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="117"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="62"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="117"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="62"/>
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
       <c r="I91" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="117"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="61"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="62"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="53"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="57"/>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="117"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="62"/>
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
       <c r="I92" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="117"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="62"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="53"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="57"/>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="117"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="62"/>
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
       <c r="I93" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="117"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="62"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="53"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="57"/>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="117"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="62"/>
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
       <c r="I94" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="117"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="61"/>
+      <c r="N94" s="61"/>
+      <c r="O94" s="62"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="53"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="57"/>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="117"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="62"/>
       <c r="G95" s="2"/>
       <c r="H95" s="3"/>
       <c r="I95" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="117"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="60"/>
+      <c r="M95" s="61"/>
+      <c r="N95" s="61"/>
+      <c r="O95" s="62"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="53"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="57"/>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="117"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="62"/>
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
       <c r="I96" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="117"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="61"/>
+      <c r="N96" s="61"/>
+      <c r="O96" s="62"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="53"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="57"/>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="117"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="62"/>
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
       <c r="I97" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="117"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="62"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="53"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="57"/>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="117"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="62"/>
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
       <c r="I98" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="117"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="61"/>
+      <c r="N98" s="61"/>
+      <c r="O98" s="62"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="53"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="57"/>
+    <row r="99" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="117"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="62"/>
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
       <c r="I99" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="117"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="60"/>
+      <c r="M99" s="61"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="62"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="58"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="52"/>
+    <row r="100" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="118"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="59"/>
       <c r="I100" s="13">
-        <f>SUM(I51:I99)</f>
-        <v>7.5000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <f>SUM(I51:I99)+I50</f>
+        <v>4.9305555555555554</v>
+      </c>
+      <c r="J100" s="118"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
+      <c r="O100" s="53"/>
+      <c r="P100" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q100" s="59"/>
+      <c r="R100" s="13">
+        <f>SUM(R51:R99)+R50</f>
+        <v>0.82083333333333319</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="293">
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
+  <mergeCells count="394">
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:F55"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -4632,112 +5286,182 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;22Projektstundennachweis</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="I50 R50" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6E2B79D-CDB5-4D6B-9912-D02B082DA9E1}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB60462-4131-43F9-A39E-7EE51C6757D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.07.2022          bis          </t>
+  </si>
+  <si>
+    <t>Mobile Anwendung bearbeiten, QR Code fertig und Porjekte verbinden und bearbeiten</t>
   </si>
 </sst>
 </file>
@@ -1316,6 +1319,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1324,32 +1351,167 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1360,166 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1540,6 +1543,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1807,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF6767E-54AE-4B4E-8EBD-E2378F13C4F0}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1832,7 +1839,7 @@
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <f>D7+D10</f>
-        <v>5.7513888888888882</v>
+        <v>6.1416666666666666</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1901,7 +1908,7 @@
       <c r="C7" s="50"/>
       <c r="D7" s="35">
         <f>Projektstundennachweis!I100</f>
-        <v>4.9305555555555554</v>
+        <v>5.3208333333333337</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -1975,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,244 +1999,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="85" t="s">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="85" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="78" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="61" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="84"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="80" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82" t="s">
+      <c r="K3" s="91"/>
+      <c r="L3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="112"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="90" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="32"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="105" t="s">
+      <c r="I5" s="102"/>
+      <c r="J5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="90" t="s">
+      <c r="K5" s="95"/>
+      <c r="L5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
       <c r="P5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="113"/>
+      <c r="R5" s="102"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="114" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="114" t="s">
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="114" t="s">
+      <c r="Q6" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="88" t="s">
+      <c r="R6" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="88"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="105"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="88"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="105"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="89"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="106"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="71">
         <v>44730</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2240,16 +2247,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="71">
         <v>44730</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="66" t="s">
+      <c r="K10" s="72"/>
+      <c r="L10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="75"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2262,16 +2269,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+      <c r="A11" s="62">
         <v>44731</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="60" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2282,16 +2289,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="62">
         <v>44731</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="60" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2304,16 +2311,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
+      <c r="A12" s="62">
         <v>44732</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="60" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="16">
         <v>0.375</v>
       </c>
@@ -2324,16 +2331,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="62">
         <v>44732</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="60" t="s">
+      <c r="K12" s="54"/>
+      <c r="L12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
       <c r="P12" s="16">
         <v>0.375</v>
       </c>
@@ -2346,16 +2353,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="A13" s="62">
         <v>44732</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2366,16 +2373,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="62">
         <v>44732</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="60" t="s">
+      <c r="K13" s="54"/>
+      <c r="L13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2388,16 +2395,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="A14" s="62">
         <v>44734</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="60" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2408,16 +2415,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="62">
         <v>44734</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="60" t="s">
+      <c r="K14" s="54"/>
+      <c r="L14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
       <c r="P14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2430,16 +2437,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
+      <c r="A15" s="62">
         <v>44741</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2450,16 +2457,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="71">
+      <c r="J15" s="62">
         <v>44741</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="60" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="62"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2472,16 +2479,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="62">
         <v>44759</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="60" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2492,16 +2499,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="62">
         <v>44759</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="60" t="s">
+      <c r="K16" s="54"/>
+      <c r="L16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="62"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2514,16 +2521,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="A17" s="62">
         <v>44753</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="60" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="16">
         <v>0.70833333333333337</v>
       </c>
@@ -2534,16 +2541,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="71">
+      <c r="J17" s="62">
         <v>44759</v>
       </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="60" t="s">
+      <c r="K17" s="54"/>
+      <c r="L17" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
       <c r="P17" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2556,16 +2563,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="62">
         <v>44759</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="16">
         <v>0.65138888888888891</v>
       </c>
@@ -2576,16 +2583,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="62">
         <v>44759</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="60" t="s">
+      <c r="K18" s="54"/>
+      <c r="L18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
       <c r="P18" s="16">
         <v>0.74791666666666667</v>
       </c>
@@ -2598,16 +2605,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+      <c r="A19" s="62">
         <v>44760</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2618,16 +2625,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="62">
         <v>44760</v>
       </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="60" t="s">
+      <c r="K19" s="78"/>
+      <c r="L19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2640,16 +2647,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+      <c r="A20" s="62">
         <v>44768</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="60" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="16">
         <v>0.91666666666666663</v>
       </c>
@@ -2660,16 +2667,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="71">
+      <c r="J20" s="62">
         <v>44768</v>
       </c>
-      <c r="K20" s="55"/>
-      <c r="L20" s="60" t="s">
+      <c r="K20" s="54"/>
+      <c r="L20" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2682,16 +2689,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="A21" s="62">
         <v>44768</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="60" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2702,16 +2709,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="71">
+      <c r="J21" s="62">
         <v>44769</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="60" t="s">
+      <c r="K21" s="54"/>
+      <c r="L21" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2724,16 +2731,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="71">
+      <c r="A22" s="62">
         <v>44769</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="60" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="16">
         <v>0.4375</v>
       </c>
@@ -2744,16 +2751,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="62">
         <v>44769</v>
       </c>
-      <c r="K22" s="55"/>
-      <c r="L22" s="60" t="s">
+      <c r="K22" s="54"/>
+      <c r="L22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="62"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
       <c r="P22" s="16">
         <v>0.4375</v>
       </c>
@@ -2766,16 +2773,16 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+      <c r="A23" s="62">
         <v>44769</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="60" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2786,16 +2793,16 @@
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="62">
         <v>44776</v>
       </c>
-      <c r="K23" s="116"/>
-      <c r="L23" s="60" t="s">
+      <c r="K23" s="81"/>
+      <c r="L23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="62"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
       <c r="P23" s="16">
         <v>0.71180555555555547</v>
       </c>
@@ -2808,16 +2815,16 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="71">
+      <c r="A24" s="62">
         <v>44774</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="16">
         <v>0.57291666666666663</v>
       </c>
@@ -2828,16 +2835,16 @@
         <f t="shared" si="2"/>
         <v>6.8750000000000089E-2</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="62">
         <v>44777</v>
       </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="60" t="s">
+      <c r="K24" s="54"/>
+      <c r="L24" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
       <c r="P24" s="16">
         <v>0.7055555555555556</v>
       </c>
@@ -2850,16 +2857,16 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+      <c r="A25" s="62">
         <v>44776</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="16">
         <v>0.6069444444444444</v>
       </c>
@@ -2870,12 +2877,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J25" s="117"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="78"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="5">
@@ -2884,16 +2891,16 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="62">
         <v>44777</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="60" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="16">
         <v>0.34166666666666662</v>
       </c>
@@ -2904,12 +2911,12 @@
         <f t="shared" si="2"/>
         <v>7.5000000000000067E-2</v>
       </c>
-      <c r="J26" s="117"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="56"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="78"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5">
@@ -2918,16 +2925,16 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+      <c r="A27" s="62">
         <v>44796</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="16">
         <v>0.58680555555555558</v>
       </c>
@@ -2938,12 +2945,12 @@
         <f t="shared" si="2"/>
         <v>7.5694444444444398E-2</v>
       </c>
-      <c r="J27" s="117"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="5">
@@ -2952,16 +2959,16 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="71">
+      <c r="A28" s="62">
         <v>44797</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="60" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="16">
         <v>0.56041666666666667</v>
       </c>
@@ -2972,12 +2979,12 @@
         <f t="shared" si="2"/>
         <v>7.7083333333333393E-2</v>
       </c>
-      <c r="J28" s="117"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="78"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5">
@@ -2986,16 +2993,16 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+      <c r="A29" s="62">
         <v>44819</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="16">
         <v>0.83124999999999993</v>
       </c>
@@ -3006,12 +3013,12 @@
         <f t="shared" si="2"/>
         <v>5.6944444444444464E-2</v>
       </c>
-      <c r="J29" s="117"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="78"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="5">
@@ -3020,16 +3027,16 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="71">
+      <c r="A30" s="62">
         <v>44822</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="60" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="16">
         <v>0.375</v>
       </c>
@@ -3040,12 +3047,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J30" s="117"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="78"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="5">
@@ -3054,16 +3061,16 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99">
+      <c r="A31" s="79">
         <v>44823</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="63" t="s">
+      <c r="B31" s="80"/>
+      <c r="C31" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
       <c r="G31" s="27">
         <v>0.42638888888888887</v>
       </c>
@@ -3074,12 +3081,12 @@
         <f t="shared" si="2"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="J31" s="117"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="78"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="5">
@@ -3088,16 +3095,16 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="101">
+      <c r="A32" s="66">
         <v>44825</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="73" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="24">
         <v>0.33333333333333331</v>
       </c>
@@ -3108,12 +3115,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J32" s="117"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="78"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="5">
@@ -3122,16 +3129,16 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="71">
+      <c r="A33" s="62">
         <v>44826</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="60" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="16">
         <v>0.77569444444444446</v>
       </c>
@@ -3142,12 +3149,12 @@
         <f t="shared" si="2"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="J33" s="117"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="56"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="78"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="5">
@@ -3156,16 +3163,16 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="71">
+      <c r="A34" s="62">
         <v>44847</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="60" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -3176,12 +3183,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J34" s="117"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="56"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="78"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="5">
@@ -3190,16 +3197,16 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
+      <c r="A35" s="62">
         <v>44856</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="60" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3210,12 +3217,12 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="J35" s="117"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="56"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="5">
@@ -3224,16 +3231,16 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="71">
+      <c r="A36" s="62">
         <v>44858</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="60" t="s">
+      <c r="B36" s="54"/>
+      <c r="C36" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="16">
         <v>0.60416666666666663</v>
       </c>
@@ -3244,12 +3251,12 @@
         <f t="shared" si="2"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="J36" s="117"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="56"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="78"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="5">
@@ -3258,16 +3265,16 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="71">
+      <c r="A37" s="62">
         <v>44859</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="72" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="16">
         <v>0.375</v>
       </c>
@@ -3278,12 +3285,12 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J37" s="117"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="56"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="78"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="5">
@@ -3292,16 +3299,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="103">
+      <c r="A38" s="64">
         <v>44861</v>
       </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="60" t="s">
+      <c r="B38" s="65"/>
+      <c r="C38" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="14">
         <v>0.58333333333333337</v>
       </c>
@@ -3312,12 +3319,12 @@
         <f>H38-G38</f>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J38" s="117"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="56"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="78"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="5">
@@ -3326,16 +3333,16 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="71">
+      <c r="A39" s="62">
         <v>44862</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="60" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="16">
         <v>0.5</v>
       </c>
@@ -3346,12 +3353,12 @@
         <f t="shared" si="2"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="J39" s="119"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="56"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="78"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="5">
@@ -3360,16 +3367,16 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="71">
+      <c r="A40" s="62">
         <v>44864</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="60" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="16">
         <v>0.75486111111111109</v>
       </c>
@@ -3380,12 +3387,12 @@
         <f t="shared" si="2"/>
         <v>0.1034722222222223</v>
       </c>
-      <c r="J40" s="117"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="56"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="78"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="5">
@@ -3394,16 +3401,16 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="71">
+      <c r="A41" s="62">
         <v>44866</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="60" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3414,12 +3421,12 @@
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="J41" s="117"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="56"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="78"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="5">
@@ -3428,16 +3435,16 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="71">
+      <c r="A42" s="62">
         <v>44866</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="60" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="62"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="16">
         <v>0.625</v>
       </c>
@@ -3448,12 +3455,12 @@
         <f t="shared" si="2"/>
         <v>0.23611111111111116</v>
       </c>
-      <c r="J42" s="117"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="56"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="78"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="5">
@@ -3462,16 +3469,16 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="71">
+      <c r="A43" s="62">
         <v>44869</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="16">
         <v>0.36805555555555558</v>
       </c>
@@ -3482,12 +3489,12 @@
         <f t="shared" si="2"/>
         <v>0.12152777777777773</v>
       </c>
-      <c r="J43" s="117"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="56"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="78"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="5">
@@ -3496,16 +3503,16 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="71">
+      <c r="A44" s="62">
         <v>44870</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="60" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="62"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="16">
         <v>0.625</v>
       </c>
@@ -3516,12 +3523,12 @@
         <f t="shared" si="2"/>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J44" s="117"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="56"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="78"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="5">
@@ -3530,16 +3537,16 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+      <c r="A45" s="62">
         <v>44873</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="60" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="62"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="16">
         <v>0.55555555555555558</v>
       </c>
@@ -3550,12 +3557,12 @@
         <f t="shared" si="2"/>
         <v>0.1694444444444444</v>
       </c>
-      <c r="J45" s="117"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="56"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="78"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="5">
@@ -3564,16 +3571,16 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="71">
+      <c r="A46" s="62">
         <v>44874</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="16">
         <v>0.33333333333333331</v>
       </c>
@@ -3584,12 +3591,12 @@
         <f t="shared" si="2"/>
         <v>0.18402777777777773</v>
       </c>
-      <c r="J46" s="117"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="56"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="78"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="5">
@@ -3598,16 +3605,16 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="71">
+      <c r="A47" s="62">
         <v>44874</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="60" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="62"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="16">
         <v>0.57708333333333328</v>
       </c>
@@ -3618,12 +3625,12 @@
         <f t="shared" si="2"/>
         <v>0.12500000000000011</v>
       </c>
-      <c r="J47" s="117"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="56"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="78"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="5">
@@ -3632,16 +3639,16 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="71">
+      <c r="A48" s="62">
         <v>44879</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="60" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="62"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="16">
         <v>0.45833333333333331</v>
       </c>
@@ -3652,12 +3659,12 @@
         <f t="shared" si="2"/>
         <v>0.15277777777777773</v>
       </c>
-      <c r="J48" s="117"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="56"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="78"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="5">
@@ -3666,16 +3673,16 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="99">
+      <c r="A49" s="79">
         <v>44893</v>
       </c>
-      <c r="B49" s="100"/>
-      <c r="C49" s="63" t="s">
+      <c r="B49" s="80"/>
+      <c r="C49" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="65"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
       <c r="G49" s="27">
         <v>0.75</v>
       </c>
@@ -3686,12 +3693,12 @@
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J49" s="117"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="56"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="78"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="5">
@@ -3700,46 +3707,46 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="118"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="57" t="s">
+      <c r="A50" s="58"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="13">
         <f>SUM(I10:I49)</f>
         <v>4.4076388888888891</v>
       </c>
-      <c r="J50" s="118"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="57" t="s">
+      <c r="J50" s="58"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q50" s="59"/>
+      <c r="Q50" s="52"/>
       <c r="R50" s="13">
         <f>SUM(R10:R49)</f>
         <v>0.82083333333333319</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+      <c r="A51" s="71">
         <v>44910</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="72"/>
+      <c r="C51" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="75"/>
       <c r="G51" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -3750,12 +3757,12 @@
         <f>H51-G51</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="J51" s="69"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="68"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="75"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="5">
@@ -3764,16 +3771,16 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="71">
+      <c r="A52" s="62">
         <v>44911</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="60" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="16">
         <v>0.5</v>
       </c>
@@ -3784,12 +3791,12 @@
         <f>H52-G52</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="J52" s="71"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="57"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="17"/>
       <c r="R52" s="5">
@@ -3798,16 +3805,16 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="71">
+      <c r="A53" s="62">
         <v>44912</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="60" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="62"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="16">
         <v>0.75</v>
       </c>
@@ -3818,12 +3825,12 @@
         <f t="shared" ref="I53:I78" si="5">H53-G53</f>
         <v>0.25</v>
       </c>
-      <c r="J53" s="71"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="57"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
       <c r="R53" s="5">
@@ -3832,24 +3839,32 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
+      <c r="A54" s="62">
+        <v>44913</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="17">
+        <v>0.89027777777777783</v>
+      </c>
       <c r="I54" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="71"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="62"/>
+        <v>0.39027777777777783</v>
+      </c>
+      <c r="J54" s="62"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="57"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="5">
@@ -3858,24 +3873,24 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
       <c r="I55" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J55" s="71"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="57"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="17"/>
       <c r="R55" s="5">
@@ -3884,24 +3899,24 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="16"/>
       <c r="H56" s="17"/>
       <c r="I56" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J56" s="71"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="57"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
       <c r="R56" s="5">
@@ -3910,24 +3925,24 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="62"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
       <c r="I57" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J57" s="71"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="57"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="5">
@@ -3936,24 +3951,24 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="62"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J58" s="71"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="57"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="5">
@@ -3962,24 +3977,24 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="62"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
       <c r="I59" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J59" s="71"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="57"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="5">
@@ -3988,24 +4003,24 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="62"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="16"/>
       <c r="H60" s="17"/>
       <c r="I60" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J60" s="71"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="57"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="5">
@@ -4014,24 +4029,24 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="62"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
       <c r="I61" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J61" s="71"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="57"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="5">
@@ -4040,24 +4055,24 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="62"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
       <c r="I62" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J62" s="71"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="57"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="5">
@@ -4066,24 +4081,24 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
       <c r="I63" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J63" s="71"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="57"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="5">
@@ -4092,24 +4107,24 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="62"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
       <c r="I64" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J64" s="71"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="57"/>
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="5">
@@ -4118,24 +4133,24 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J65" s="71"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="57"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="5">
@@ -4144,24 +4159,24 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="62"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J66" s="71"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="57"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="5">
@@ -4170,24 +4185,24 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J67" s="71"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="57"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
       <c r="R67" s="5">
@@ -4196,24 +4211,24 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="62"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J68" s="71"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="57"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
       <c r="R68" s="5">
@@ -4222,24 +4237,24 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="62"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J69" s="71"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="57"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
       <c r="R69" s="5">
@@ -4248,24 +4263,24 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J70" s="71"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="57"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="5">
@@ -4274,24 +4289,24 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="62"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J71" s="71"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="57"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="5">
@@ -4300,24 +4315,24 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="62"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
       <c r="I72" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J72" s="71"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="57"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="30">
@@ -4326,24 +4341,24 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="101"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="75"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="70"/>
       <c r="G73" s="24"/>
       <c r="H73" s="25"/>
       <c r="I73" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J73" s="101"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="75"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="70"/>
       <c r="P73" s="24"/>
       <c r="Q73" s="25"/>
       <c r="R73" s="26">
@@ -4352,24 +4367,24 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="62"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
       <c r="I74" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J74" s="71"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="57"/>
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="5">
@@ -4378,24 +4393,24 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="62"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="71"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="57"/>
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
       <c r="R75" s="5">
@@ -4404,24 +4419,24 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="62"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
       <c r="I76" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J76" s="71"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="57"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="5">
@@ -4430,24 +4445,24 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J77" s="71"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="57"/>
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="5">
@@ -4456,24 +4471,24 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="62"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J78" s="71"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="57"/>
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="5">
@@ -4482,24 +4497,24 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="103"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="62"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
       <c r="I79" s="5">
         <f>H79-G79</f>
         <v>0</v>
       </c>
-      <c r="J79" s="103"/>
-      <c r="K79" s="104"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="61"/>
-      <c r="N79" s="61"/>
-      <c r="O79" s="62"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="57"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="5">
@@ -4508,24 +4523,24 @@
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="62"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="5">
         <f t="shared" ref="I80:I88" si="7">H80-G80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="71"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="57"/>
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="5">
@@ -4534,24 +4549,24 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J81" s="71"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="57"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="5">
@@ -4560,24 +4575,24 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="62"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J82" s="71"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="57"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="5">
@@ -4586,24 +4601,24 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="62"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="16"/>
       <c r="H83" s="17"/>
       <c r="I83" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J83" s="71"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="57"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="5">
@@ -4612,24 +4627,24 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="62"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
       <c r="I84" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J84" s="71"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="57"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="5">
@@ -4638,24 +4653,24 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="62"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
       <c r="I85" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J85" s="71"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="62"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="57"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="5">
@@ -4664,24 +4679,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="117"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="62"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
       <c r="I86" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J86" s="117"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
-      <c r="O86" s="62"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="57"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="5">
@@ -4690,24 +4705,24 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="117"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="62"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
       <c r="I87" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J87" s="117"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="62"/>
+      <c r="J87" s="53"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="57"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="5">
@@ -4716,24 +4731,24 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="117"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="62"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
       <c r="I88" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J88" s="117"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="61"/>
-      <c r="N88" s="61"/>
-      <c r="O88" s="62"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="57"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="5">
@@ -4742,24 +4757,24 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="117"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="62"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="5">
         <f t="shared" ref="I89" si="9">H89-G89</f>
         <v>0</v>
       </c>
-      <c r="J89" s="117"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="61"/>
-      <c r="N89" s="61"/>
-      <c r="O89" s="62"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="57"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="5">
@@ -4768,24 +4783,24 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="117"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="62"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
       <c r="I90" s="5">
         <f t="shared" ref="I90:I99" si="10">H90-G90</f>
         <v>0</v>
       </c>
-      <c r="J90" s="117"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-      <c r="O90" s="62"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="57"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="5">
@@ -4794,24 +4809,24 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="117"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="62"/>
+      <c r="A91" s="53"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
       <c r="I91" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J91" s="117"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="61"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="62"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="57"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="5">
@@ -4820,24 +4835,24 @@
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="117"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="62"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
       <c r="I92" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J92" s="117"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="61"/>
-      <c r="N92" s="61"/>
-      <c r="O92" s="62"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="57"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="5">
@@ -4846,24 +4861,24 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="117"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="62"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
       <c r="I93" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J93" s="117"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="61"/>
-      <c r="N93" s="61"/>
-      <c r="O93" s="62"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="57"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="5">
@@ -4872,24 +4887,24 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="117"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="62"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
       <c r="I94" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J94" s="117"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="61"/>
-      <c r="N94" s="61"/>
-      <c r="O94" s="62"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="54"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="57"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="5">
@@ -4898,24 +4913,24 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="117"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="62"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="57"/>
       <c r="G95" s="2"/>
       <c r="H95" s="3"/>
       <c r="I95" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J95" s="117"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="60"/>
-      <c r="M95" s="61"/>
-      <c r="N95" s="61"/>
-      <c r="O95" s="62"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="57"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="5">
@@ -4924,24 +4939,24 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="117"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="62"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="57"/>
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
       <c r="I96" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J96" s="117"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="60"/>
-      <c r="M96" s="61"/>
-      <c r="N96" s="61"/>
-      <c r="O96" s="62"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="57"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="5">
@@ -4950,24 +4965,24 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="117"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="62"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="57"/>
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
       <c r="I97" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J97" s="117"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="61"/>
-      <c r="N97" s="61"/>
-      <c r="O97" s="62"/>
+      <c r="J97" s="53"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="57"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="5">
@@ -4976,24 +4991,24 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="117"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="62"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="57"/>
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
       <c r="I98" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J98" s="117"/>
-      <c r="K98" s="55"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="61"/>
-      <c r="N98" s="61"/>
-      <c r="O98" s="62"/>
+      <c r="J98" s="53"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="56"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="57"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="5">
@@ -5002,24 +5017,24 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="117"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="62"/>
+      <c r="A99" s="53"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="57"/>
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
       <c r="I99" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J99" s="117"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="60"/>
-      <c r="M99" s="61"/>
-      <c r="N99" s="61"/>
-      <c r="O99" s="62"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="56"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="57"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="5">
@@ -5028,30 +5043,30 @@
       </c>
     </row>
     <row r="100" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="118"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="57" t="s">
+      <c r="A100" s="58"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="59"/>
+      <c r="H100" s="52"/>
       <c r="I100" s="13">
         <f>SUM(I51:I99)+I50</f>
-        <v>4.9305555555555554</v>
-      </c>
-      <c r="J100" s="118"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="51"/>
-      <c r="M100" s="52"/>
-      <c r="N100" s="52"/>
-      <c r="O100" s="53"/>
-      <c r="P100" s="57" t="s">
+        <v>5.3208333333333337</v>
+      </c>
+      <c r="J100" s="58"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="61"/>
+      <c r="P100" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q100" s="59"/>
+      <c r="Q100" s="52"/>
       <c r="R100" s="13">
         <f>SUM(R51:R99)+R50</f>
         <v>0.82083333333333319</v>
@@ -5060,208 +5075,174 @@
     <row r="101" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="394">
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:O100"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -5286,174 +5267,208 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:O100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB60462-4131-43F9-A39E-7EE51C6757D9}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F7943B-5D76-4698-9303-2CAA2E9016D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Mobile Anwendung bearbeiten, QR Code fertig und Porjekte verbinden und bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save data in cache and connect old project to new one </t>
   </si>
 </sst>
 </file>
@@ -1319,210 +1322,210 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1839,7 +1842,7 @@
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <f>D7+D10</f>
-        <v>6.1416666666666666</v>
+        <v>6.4638888888888886</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1908,7 +1911,7 @@
       <c r="C7" s="50"/>
       <c r="D7" s="35">
         <f>Projektstundennachweis!I100</f>
-        <v>5.3208333333333337</v>
+        <v>5.6430555555555557</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -1982,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,244 +2002,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84" t="s">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="77"/>
+      <c r="L1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="87" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="56" t="s">
+      <c r="K2" s="79"/>
+      <c r="L2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="89"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="84"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="90" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="83"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="101"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="112"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="107" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="109"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="32"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="94" t="s">
+      <c r="I5" s="113"/>
+      <c r="J5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="107" t="s">
+      <c r="K5" s="106"/>
+      <c r="L5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
       <c r="P5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="102"/>
+      <c r="R5" s="113"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="103" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="103" t="s">
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="103" t="s">
+      <c r="Q6" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="105" t="s">
+      <c r="R6" s="88" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="105"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="105"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="88"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="106"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="89"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
+      <c r="A10" s="69">
         <v>44730</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2247,16 +2250,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="69">
         <v>44730</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73" t="s">
+      <c r="K10" s="70"/>
+      <c r="L10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2269,16 +2272,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="71">
         <v>44731</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2289,16 +2292,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="71">
         <v>44731</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
       <c r="P11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2311,16 +2314,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="A12" s="71">
         <v>44732</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="16">
         <v>0.375</v>
       </c>
@@ -2331,16 +2334,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="71">
         <v>44732</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55" t="s">
+      <c r="K12" s="55"/>
+      <c r="L12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
       <c r="P12" s="16">
         <v>0.375</v>
       </c>
@@ -2353,16 +2356,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="A13" s="71">
         <v>44732</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2373,16 +2376,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="71">
         <v>44732</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55" t="s">
+      <c r="K13" s="55"/>
+      <c r="L13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
       <c r="P13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2395,16 +2398,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="A14" s="71">
         <v>44734</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2415,16 +2418,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="71">
         <v>44734</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55" t="s">
+      <c r="K14" s="55"/>
+      <c r="L14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
       <c r="P14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2437,16 +2440,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
+      <c r="A15" s="71">
         <v>44741</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2457,16 +2460,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="71">
         <v>44741</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55" t="s">
+      <c r="K15" s="55"/>
+      <c r="L15" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="62"/>
       <c r="P15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2479,16 +2482,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
+      <c r="A16" s="71">
         <v>44759</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2499,16 +2502,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="71">
         <v>44759</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55" t="s">
+      <c r="K16" s="55"/>
+      <c r="L16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="57"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="62"/>
       <c r="P16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2521,16 +2524,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+      <c r="A17" s="71">
         <v>44753</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="16">
         <v>0.70833333333333337</v>
       </c>
@@ -2541,16 +2544,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="71">
         <v>44759</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55" t="s">
+      <c r="K17" s="55"/>
+      <c r="L17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
       <c r="P17" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2563,16 +2566,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
+      <c r="A18" s="71">
         <v>44759</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="16">
         <v>0.65138888888888891</v>
       </c>
@@ -2583,16 +2586,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="71">
         <v>44759</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55" t="s">
+      <c r="K18" s="55"/>
+      <c r="L18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="57"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="62"/>
       <c r="P18" s="16">
         <v>0.74791666666666667</v>
       </c>
@@ -2605,16 +2608,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="62">
+      <c r="A19" s="71">
         <v>44760</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2625,16 +2628,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="71">
         <v>44760</v>
       </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="55" t="s">
+      <c r="K19" s="56"/>
+      <c r="L19" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="57"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
       <c r="P19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2647,16 +2650,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+      <c r="A20" s="71">
         <v>44768</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="16">
         <v>0.91666666666666663</v>
       </c>
@@ -2667,16 +2670,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="71">
         <v>44768</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55" t="s">
+      <c r="K20" s="55"/>
+      <c r="L20" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62"/>
       <c r="P20" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2689,16 +2692,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="71">
         <v>44768</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2709,16 +2712,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="71">
         <v>44769</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55" t="s">
+      <c r="K21" s="55"/>
+      <c r="L21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="57"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
       <c r="P21" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2731,16 +2734,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="A22" s="71">
         <v>44769</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="16">
         <v>0.4375</v>
       </c>
@@ -2751,16 +2754,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="71">
         <v>44769</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55" t="s">
+      <c r="K22" s="55"/>
+      <c r="L22" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="57"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="16">
         <v>0.4375</v>
       </c>
@@ -2773,16 +2776,16 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+      <c r="A23" s="71">
         <v>44769</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2793,16 +2796,16 @@
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="71">
         <v>44776</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="55" t="s">
+      <c r="K23" s="116"/>
+      <c r="L23" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="57"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="62"/>
       <c r="P23" s="16">
         <v>0.71180555555555547</v>
       </c>
@@ -2815,16 +2818,16 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+      <c r="A24" s="71">
         <v>44774</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="63" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="16">
         <v>0.57291666666666663</v>
       </c>
@@ -2835,16 +2838,16 @@
         <f t="shared" si="2"/>
         <v>6.8750000000000089E-2</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="71">
         <v>44777</v>
       </c>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55" t="s">
+      <c r="K24" s="55"/>
+      <c r="L24" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="62"/>
       <c r="P24" s="16">
         <v>0.7055555555555556</v>
       </c>
@@ -2857,16 +2860,16 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="62">
+      <c r="A25" s="71">
         <v>44776</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="16">
         <v>0.6069444444444444</v>
       </c>
@@ -2877,12 +2880,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="78"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="5">
@@ -2891,16 +2894,16 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
+      <c r="A26" s="71">
         <v>44777</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="16">
         <v>0.34166666666666662</v>
       </c>
@@ -2911,12 +2914,12 @@
         <f t="shared" si="2"/>
         <v>7.5000000000000067E-2</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="78"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="56"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5">
@@ -2925,16 +2928,16 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
+      <c r="A27" s="71">
         <v>44796</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="16">
         <v>0.58680555555555558</v>
       </c>
@@ -2945,12 +2948,12 @@
         <f t="shared" si="2"/>
         <v>7.5694444444444398E-2</v>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="78"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="5">
@@ -2959,16 +2962,16 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+      <c r="A28" s="71">
         <v>44797</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="16">
         <v>0.56041666666666667</v>
       </c>
@@ -2979,12 +2982,12 @@
         <f t="shared" si="2"/>
         <v>7.7083333333333393E-2</v>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="78"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5">
@@ -2993,16 +2996,16 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
+      <c r="A29" s="71">
         <v>44819</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="16">
         <v>0.83124999999999993</v>
       </c>
@@ -3013,12 +3016,12 @@
         <f t="shared" si="2"/>
         <v>5.6944444444444464E-2</v>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="78"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="5">
@@ -3027,16 +3030,16 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="62">
+      <c r="A30" s="71">
         <v>44822</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="16">
         <v>0.375</v>
       </c>
@@ -3047,12 +3050,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="78"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="5">
@@ -3061,16 +3064,16 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79">
+      <c r="A31" s="99">
         <v>44823</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="116" t="s">
+      <c r="B31" s="100"/>
+      <c r="C31" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="27">
         <v>0.42638888888888887</v>
       </c>
@@ -3081,12 +3084,12 @@
         <f t="shared" si="2"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="78"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="5">
@@ -3095,16 +3098,16 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="66">
+      <c r="A32" s="101">
         <v>44825</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="102"/>
+      <c r="C32" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
       <c r="G32" s="24">
         <v>0.33333333333333331</v>
       </c>
@@ -3115,12 +3118,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="78"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="5">
@@ -3129,16 +3132,16 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="62">
+      <c r="A33" s="71">
         <v>44826</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="16">
         <v>0.77569444444444446</v>
       </c>
@@ -3149,12 +3152,12 @@
         <f t="shared" si="2"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="78"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="5">
@@ -3163,16 +3166,16 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
+      <c r="A34" s="71">
         <v>44847</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -3183,12 +3186,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="78"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="5">
@@ -3197,16 +3200,16 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="62">
+      <c r="A35" s="71">
         <v>44856</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55" t="s">
+      <c r="B35" s="55"/>
+      <c r="C35" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3217,12 +3220,12 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="78"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="56"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="5">
@@ -3231,16 +3234,16 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="62">
+      <c r="A36" s="71">
         <v>44858</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="16">
         <v>0.60416666666666663</v>
       </c>
@@ -3251,12 +3254,12 @@
         <f t="shared" si="2"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="78"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="5">
@@ -3265,16 +3268,16 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="62">
+      <c r="A37" s="71">
         <v>44859</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="63" t="s">
+      <c r="B37" s="55"/>
+      <c r="C37" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="16">
         <v>0.375</v>
       </c>
@@ -3285,12 +3288,12 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="78"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="56"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="5">
@@ -3299,16 +3302,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="64">
+      <c r="A38" s="103">
         <v>44861</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="55" t="s">
+      <c r="B38" s="104"/>
+      <c r="C38" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="14">
         <v>0.58333333333333337</v>
       </c>
@@ -3319,12 +3322,12 @@
         <f>H38-G38</f>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="78"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="56"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="5">
@@ -3333,16 +3336,16 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="62">
+      <c r="A39" s="71">
         <v>44862</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55" t="s">
+      <c r="B39" s="55"/>
+      <c r="C39" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="16">
         <v>0.5</v>
       </c>
@@ -3353,12 +3356,12 @@
         <f t="shared" si="2"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="J39" s="76"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="78"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="56"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="5">
@@ -3367,16 +3370,16 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="62">
+      <c r="A40" s="71">
         <v>44864</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55" t="s">
+      <c r="B40" s="55"/>
+      <c r="C40" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="16">
         <v>0.75486111111111109</v>
       </c>
@@ -3387,12 +3390,12 @@
         <f t="shared" si="2"/>
         <v>0.1034722222222223</v>
       </c>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="78"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="56"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="5">
@@ -3401,16 +3404,16 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="62">
+      <c r="A41" s="71">
         <v>44866</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55" t="s">
+      <c r="B41" s="55"/>
+      <c r="C41" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3421,12 +3424,12 @@
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="78"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="56"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="5">
@@ -3435,16 +3438,16 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="62">
+      <c r="A42" s="71">
         <v>44866</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55" t="s">
+      <c r="B42" s="55"/>
+      <c r="C42" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="16">
         <v>0.625</v>
       </c>
@@ -3455,12 +3458,12 @@
         <f t="shared" si="2"/>
         <v>0.23611111111111116</v>
       </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="78"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="56"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="5">
@@ -3469,16 +3472,16 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="62">
+      <c r="A43" s="71">
         <v>44869</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55" t="s">
+      <c r="B43" s="55"/>
+      <c r="C43" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="16">
         <v>0.36805555555555558</v>
       </c>
@@ -3489,12 +3492,12 @@
         <f t="shared" si="2"/>
         <v>0.12152777777777773</v>
       </c>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="78"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="56"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="5">
@@ -3503,16 +3506,16 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="62">
+      <c r="A44" s="71">
         <v>44870</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55" t="s">
+      <c r="B44" s="55"/>
+      <c r="C44" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="16">
         <v>0.625</v>
       </c>
@@ -3523,12 +3526,12 @@
         <f t="shared" si="2"/>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J44" s="53"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="78"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="56"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="5">
@@ -3537,16 +3540,16 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="62">
+      <c r="A45" s="71">
         <v>44873</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55" t="s">
+      <c r="B45" s="55"/>
+      <c r="C45" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="57"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="16">
         <v>0.55555555555555558</v>
       </c>
@@ -3557,12 +3560,12 @@
         <f t="shared" si="2"/>
         <v>0.1694444444444444</v>
       </c>
-      <c r="J45" s="53"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="78"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="56"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="5">
@@ -3571,16 +3574,16 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="62">
+      <c r="A46" s="71">
         <v>44874</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="57"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="16">
         <v>0.33333333333333331</v>
       </c>
@@ -3591,12 +3594,12 @@
         <f t="shared" si="2"/>
         <v>0.18402777777777773</v>
       </c>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="78"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="5">
@@ -3605,16 +3608,16 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="62">
+      <c r="A47" s="71">
         <v>44874</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="55"/>
+      <c r="C47" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="57"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="16">
         <v>0.57708333333333328</v>
       </c>
@@ -3625,12 +3628,12 @@
         <f t="shared" si="2"/>
         <v>0.12500000000000011</v>
       </c>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="78"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="56"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="5">
@@ -3639,16 +3642,16 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="62">
+      <c r="A48" s="71">
         <v>44879</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="55"/>
+      <c r="C48" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="57"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="16">
         <v>0.45833333333333331</v>
       </c>
@@ -3659,12 +3662,12 @@
         <f t="shared" si="2"/>
         <v>0.15277777777777773</v>
       </c>
-      <c r="J48" s="53"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="78"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="56"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="5">
@@ -3673,16 +3676,16 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="79">
+      <c r="A49" s="99">
         <v>44893</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="116" t="s">
+      <c r="B49" s="100"/>
+      <c r="C49" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="118"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65"/>
       <c r="G49" s="27">
         <v>0.75</v>
       </c>
@@ -3693,12 +3696,12 @@
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="78"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="56"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="5">
@@ -3707,46 +3710,46 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="51" t="s">
+      <c r="A50" s="118"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="52"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="13">
         <f>SUM(I10:I49)</f>
         <v>4.4076388888888891</v>
       </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="51" t="s">
+      <c r="J50" s="118"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Q50" s="52"/>
+      <c r="Q50" s="59"/>
       <c r="R50" s="13">
         <f>SUM(R10:R49)</f>
         <v>0.82083333333333319</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71">
+      <c r="A51" s="69">
         <v>44910</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="73" t="s">
+      <c r="B51" s="70"/>
+      <c r="C51" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="75"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
       <c r="G51" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -3757,12 +3760,12 @@
         <f>H51-G51</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="J51" s="71"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="75"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="68"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="5">
@@ -3771,16 +3774,16 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="62">
+      <c r="A52" s="71">
         <v>44911</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="57"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
       <c r="G52" s="16">
         <v>0.5</v>
       </c>
@@ -3791,12 +3794,12 @@
         <f>H52-G52</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="57"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="62"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="17"/>
       <c r="R52" s="5">
@@ -3805,16 +3808,16 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="62">
+      <c r="A53" s="71">
         <v>44912</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55" t="s">
+      <c r="B53" s="55"/>
+      <c r="C53" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="57"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="16">
         <v>0.75</v>
       </c>
@@ -3825,12 +3828,12 @@
         <f t="shared" ref="I53:I78" si="5">H53-G53</f>
         <v>0.25</v>
       </c>
-      <c r="J53" s="62"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="57"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="62"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
       <c r="R53" s="5">
@@ -3839,16 +3842,16 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="62">
+      <c r="A54" s="71">
         <v>44913</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="62"/>
       <c r="G54" s="16">
         <v>0.5</v>
       </c>
@@ -3859,12 +3862,12 @@
         <f t="shared" si="5"/>
         <v>0.39027777777777783</v>
       </c>
-      <c r="J54" s="62"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="57"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="62"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="5">
@@ -3873,24 +3876,32 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
+      <c r="A55" s="71">
+        <v>44914</v>
+      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="16">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="H55" s="17">
+        <v>0.83124999999999993</v>
+      </c>
       <c r="I55" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="62"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="57"/>
+        <v>0.32222222222222219</v>
+      </c>
+      <c r="J55" s="71"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="62"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="17"/>
       <c r="R55" s="5">
@@ -3899,24 +3910,24 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="16"/>
       <c r="H56" s="17"/>
       <c r="I56" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J56" s="62"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="57"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="62"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
       <c r="R56" s="5">
@@ -3925,24 +3936,24 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="57"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="62"/>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
       <c r="I57" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J57" s="62"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="57"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="62"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="5">
@@ -3951,24 +3962,24 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="57"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="62"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J58" s="62"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="57"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="62"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="5">
@@ -3977,24 +3988,24 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="57"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="62"/>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
       <c r="I59" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J59" s="62"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="57"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="62"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="5">
@@ -4003,24 +4014,24 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="57"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62"/>
       <c r="G60" s="16"/>
       <c r="H60" s="17"/>
       <c r="I60" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J60" s="62"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="57"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="62"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="5">
@@ -4029,24 +4040,24 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="57"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
       <c r="I61" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J61" s="62"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="57"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="62"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="5">
@@ -4055,24 +4066,24 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
       <c r="I62" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J62" s="62"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="57"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="62"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="5">
@@ -4081,24 +4092,24 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="57"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
       <c r="I63" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J63" s="62"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="57"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="62"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="5">
@@ -4107,24 +4118,24 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="57"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
       <c r="I64" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J64" s="62"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="57"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="62"/>
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="5">
@@ -4133,24 +4144,24 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="57"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J65" s="62"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="57"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="62"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="5">
@@ -4159,24 +4170,24 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="62"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="57"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J66" s="62"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="57"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="62"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="5">
@@ -4185,24 +4196,24 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="57"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J67" s="62"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="57"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="62"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
       <c r="R67" s="5">
@@ -4211,24 +4222,24 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="57"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J68" s="62"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="57"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="62"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
       <c r="R68" s="5">
@@ -4237,24 +4248,24 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="57"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J69" s="62"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="57"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="62"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
       <c r="R69" s="5">
@@ -4263,24 +4274,24 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="57"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J70" s="62"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="57"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="62"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="5">
@@ -4289,24 +4300,24 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="57"/>
+      <c r="A71" s="71"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J71" s="62"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="57"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="62"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="5">
@@ -4315,24 +4326,24 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="57"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
       <c r="I72" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J72" s="62"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="57"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="62"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="30">
@@ -4341,24 +4352,24 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="70"/>
+      <c r="A73" s="101"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="75"/>
       <c r="G73" s="24"/>
       <c r="H73" s="25"/>
       <c r="I73" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J73" s="66"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="69"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="70"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="75"/>
       <c r="P73" s="24"/>
       <c r="Q73" s="25"/>
       <c r="R73" s="26">
@@ -4367,24 +4378,24 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="57"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
       <c r="I74" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J74" s="62"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="57"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="62"/>
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="5">
@@ -4393,24 +4404,24 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="62"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="57"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="62"/>
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
       <c r="R75" s="5">
@@ -4419,24 +4430,24 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="57"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
       <c r="I76" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J76" s="62"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="57"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="62"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="5">
@@ -4445,24 +4456,24 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="57"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J77" s="62"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="57"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="62"/>
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="5">
@@ -4471,24 +4482,24 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="57"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="62"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J78" s="62"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="57"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="62"/>
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="5">
@@ -4497,24 +4508,24 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="57"/>
+      <c r="A79" s="103"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="62"/>
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
       <c r="I79" s="5">
         <f>H79-G79</f>
         <v>0</v>
       </c>
-      <c r="J79" s="64"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="57"/>
+      <c r="J79" s="103"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="62"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="5">
@@ -4523,24 +4534,24 @@
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="57"/>
+      <c r="A80" s="71"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="5">
         <f t="shared" ref="I80:I88" si="7">H80-G80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="62"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="57"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="62"/>
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="5">
@@ -4549,24 +4560,24 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="57"/>
+      <c r="A81" s="71"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J81" s="62"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="57"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="62"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="5">
@@ -4575,24 +4586,24 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="57"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J82" s="62"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="57"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="62"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="5">
@@ -4601,24 +4612,24 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="57"/>
+      <c r="A83" s="71"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="16"/>
       <c r="H83" s="17"/>
       <c r="I83" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J83" s="62"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="57"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="62"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="5">
@@ -4627,24 +4638,24 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="57"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
       <c r="I84" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J84" s="62"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="57"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="62"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="5">
@@ -4653,24 +4664,24 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="57"/>
+      <c r="A85" s="71"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="62"/>
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
       <c r="I85" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J85" s="62"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="57"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="62"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="5">
@@ -4679,24 +4690,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="57"/>
+      <c r="A86" s="117"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="62"/>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
       <c r="I86" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J86" s="53"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="57"/>
+      <c r="J86" s="117"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="62"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="5">
@@ -4705,24 +4716,24 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="57"/>
+      <c r="A87" s="117"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="62"/>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
       <c r="I87" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J87" s="53"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="57"/>
+      <c r="J87" s="117"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="62"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="5">
@@ -4731,24 +4742,24 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="57"/>
+      <c r="A88" s="117"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="62"/>
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
       <c r="I88" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J88" s="53"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="57"/>
+      <c r="J88" s="117"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="62"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="5">
@@ -4757,24 +4768,24 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="57"/>
+      <c r="A89" s="117"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="62"/>
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="5">
         <f t="shared" ref="I89" si="9">H89-G89</f>
         <v>0</v>
       </c>
-      <c r="J89" s="53"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="57"/>
+      <c r="J89" s="117"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="62"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="5">
@@ -4783,24 +4794,24 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="57"/>
+      <c r="A90" s="117"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="62"/>
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
       <c r="I90" s="5">
         <f t="shared" ref="I90:I99" si="10">H90-G90</f>
         <v>0</v>
       </c>
-      <c r="J90" s="53"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="55"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="57"/>
+      <c r="J90" s="117"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="62"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="5">
@@ -4809,24 +4820,24 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="57"/>
+      <c r="A91" s="117"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="62"/>
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
       <c r="I91" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J91" s="53"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="57"/>
+      <c r="J91" s="117"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="61"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="62"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="5">
@@ -4835,24 +4846,24 @@
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="57"/>
+      <c r="A92" s="117"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="62"/>
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
       <c r="I92" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J92" s="53"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="57"/>
+      <c r="J92" s="117"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="62"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="5">
@@ -4861,24 +4872,24 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="57"/>
+      <c r="A93" s="117"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="62"/>
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
       <c r="I93" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J93" s="53"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="55"/>
-      <c r="M93" s="56"/>
-      <c r="N93" s="56"/>
-      <c r="O93" s="57"/>
+      <c r="J93" s="117"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="62"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="5">
@@ -4887,24 +4898,24 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="57"/>
+      <c r="A94" s="117"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="62"/>
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
       <c r="I94" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J94" s="53"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="55"/>
-      <c r="M94" s="56"/>
-      <c r="N94" s="56"/>
-      <c r="O94" s="57"/>
+      <c r="J94" s="117"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="61"/>
+      <c r="N94" s="61"/>
+      <c r="O94" s="62"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="5">
@@ -4913,24 +4924,24 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="57"/>
+      <c r="A95" s="117"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="62"/>
       <c r="G95" s="2"/>
       <c r="H95" s="3"/>
       <c r="I95" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J95" s="53"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="55"/>
-      <c r="M95" s="56"/>
-      <c r="N95" s="56"/>
-      <c r="O95" s="57"/>
+      <c r="J95" s="117"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="60"/>
+      <c r="M95" s="61"/>
+      <c r="N95" s="61"/>
+      <c r="O95" s="62"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="5">
@@ -4939,24 +4950,24 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="57"/>
+      <c r="A96" s="117"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="62"/>
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
       <c r="I96" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J96" s="53"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="56"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="57"/>
+      <c r="J96" s="117"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="61"/>
+      <c r="N96" s="61"/>
+      <c r="O96" s="62"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="5">
@@ -4965,24 +4976,24 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="57"/>
+      <c r="A97" s="117"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="62"/>
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
       <c r="I97" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J97" s="53"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="56"/>
-      <c r="N97" s="56"/>
-      <c r="O97" s="57"/>
+      <c r="J97" s="117"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="62"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="5">
@@ -4991,24 +5002,24 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="57"/>
+      <c r="A98" s="117"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="62"/>
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
       <c r="I98" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J98" s="53"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="56"/>
-      <c r="N98" s="56"/>
-      <c r="O98" s="57"/>
+      <c r="J98" s="117"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="61"/>
+      <c r="N98" s="61"/>
+      <c r="O98" s="62"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="5">
@@ -5017,24 +5028,24 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="53"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="57"/>
+      <c r="A99" s="117"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="62"/>
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
       <c r="I99" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J99" s="53"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="56"/>
-      <c r="N99" s="56"/>
-      <c r="O99" s="57"/>
+      <c r="J99" s="117"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="60"/>
+      <c r="M99" s="61"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="62"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="5">
@@ -5043,30 +5054,30 @@
       </c>
     </row>
     <row r="100" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="58"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="51" t="s">
+      <c r="A100" s="118"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="52"/>
+      <c r="H100" s="59"/>
       <c r="I100" s="13">
         <f>SUM(I51:I99)+I50</f>
-        <v>5.3208333333333337</v>
-      </c>
-      <c r="J100" s="58"/>
-      <c r="K100" s="52"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="60"/>
-      <c r="N100" s="60"/>
-      <c r="O100" s="61"/>
-      <c r="P100" s="51" t="s">
+        <v>5.6430555555555557</v>
+      </c>
+      <c r="J100" s="118"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
+      <c r="O100" s="53"/>
+      <c r="P100" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Q100" s="52"/>
+      <c r="Q100" s="59"/>
       <c r="R100" s="13">
         <f>SUM(R51:R99)+R50</f>
         <v>0.82083333333333319</v>
@@ -5075,174 +5086,208 @@
     <row r="101" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="394">
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:F55"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -5267,208 +5312,174 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F7943B-5D76-4698-9303-2CAA2E9016D3}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76774531-C084-40C6-86C4-6888BE0A24D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve">Save data in cache and connect old project to new one </t>
+  </si>
+  <si>
+    <t>Wenn User sich einmal eingeloggt hat, muss er sich kein zweites mal einloggen</t>
   </si>
 </sst>
 </file>
@@ -1322,6 +1325,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1330,32 +1357,167 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1366,166 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1842,7 +1845,7 @@
     <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <f>D7+D10</f>
-        <v>6.4638888888888886</v>
+        <v>6.6624999999999996</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1911,7 +1914,7 @@
       <c r="C7" s="50"/>
       <c r="D7" s="35">
         <f>Projektstundennachweis!I100</f>
-        <v>5.6430555555555557</v>
+        <v>5.8416666666666668</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -1985,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:F56"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,244 +2005,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="85" t="s">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="85" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="78" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="61" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="84"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="80" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82" t="s">
+      <c r="K3" s="91"/>
+      <c r="L3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="112"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="90" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="32"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="105" t="s">
+      <c r="I5" s="102"/>
+      <c r="J5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="90" t="s">
+      <c r="K5" s="95"/>
+      <c r="L5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
       <c r="P5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="113"/>
+      <c r="R5" s="102"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="114" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="114" t="s">
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="114" t="s">
+      <c r="Q6" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="88" t="s">
+      <c r="R6" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="88"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="105"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="88"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="105"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="89"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="106"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="71">
         <v>44730</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2250,16 +2253,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="71">
         <v>44730</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="66" t="s">
+      <c r="K10" s="72"/>
+      <c r="L10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="75"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2272,16 +2275,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+      <c r="A11" s="62">
         <v>44731</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="60" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2292,16 +2295,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="62">
         <v>44731</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="60" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2314,16 +2317,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
+      <c r="A12" s="62">
         <v>44732</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="60" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="16">
         <v>0.375</v>
       </c>
@@ -2334,16 +2337,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="62">
         <v>44732</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="60" t="s">
+      <c r="K12" s="54"/>
+      <c r="L12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
       <c r="P12" s="16">
         <v>0.375</v>
       </c>
@@ -2356,16 +2359,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="A13" s="62">
         <v>44732</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2376,16 +2379,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="62">
         <v>44732</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="60" t="s">
+      <c r="K13" s="54"/>
+      <c r="L13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2398,16 +2401,16 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="A14" s="62">
         <v>44734</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="60" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2418,16 +2421,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="62">
         <v>44734</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="60" t="s">
+      <c r="K14" s="54"/>
+      <c r="L14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
       <c r="P14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2440,16 +2443,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
+      <c r="A15" s="62">
         <v>44741</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2460,16 +2463,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="71">
+      <c r="J15" s="62">
         <v>44741</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="60" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="62"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2482,16 +2485,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="62">
         <v>44759</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="60" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2502,16 +2505,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="62">
         <v>44759</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="60" t="s">
+      <c r="K16" s="54"/>
+      <c r="L16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="62"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2524,16 +2527,16 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="A17" s="62">
         <v>44753</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="60" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="16">
         <v>0.70833333333333337</v>
       </c>
@@ -2544,16 +2547,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="71">
+      <c r="J17" s="62">
         <v>44759</v>
       </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="60" t="s">
+      <c r="K17" s="54"/>
+      <c r="L17" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
       <c r="P17" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2566,16 +2569,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="62">
         <v>44759</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="16">
         <v>0.65138888888888891</v>
       </c>
@@ -2586,16 +2589,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="62">
         <v>44759</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="60" t="s">
+      <c r="K18" s="54"/>
+      <c r="L18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
       <c r="P18" s="16">
         <v>0.74791666666666667</v>
       </c>
@@ -2608,16 +2611,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+      <c r="A19" s="62">
         <v>44760</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2628,16 +2631,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="62">
         <v>44760</v>
       </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="60" t="s">
+      <c r="K19" s="78"/>
+      <c r="L19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2650,16 +2653,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+      <c r="A20" s="62">
         <v>44768</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="60" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="16">
         <v>0.91666666666666663</v>
       </c>
@@ -2670,16 +2673,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="71">
+      <c r="J20" s="62">
         <v>44768</v>
       </c>
-      <c r="K20" s="55"/>
-      <c r="L20" s="60" t="s">
+      <c r="K20" s="54"/>
+      <c r="L20" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2692,16 +2695,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="A21" s="62">
         <v>44768</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="60" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2712,16 +2715,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="71">
+      <c r="J21" s="62">
         <v>44769</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="60" t="s">
+      <c r="K21" s="54"/>
+      <c r="L21" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2734,16 +2737,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="71">
+      <c r="A22" s="62">
         <v>44769</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="60" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="16">
         <v>0.4375</v>
       </c>
@@ -2754,16 +2757,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="62">
         <v>44769</v>
       </c>
-      <c r="K22" s="55"/>
-      <c r="L22" s="60" t="s">
+      <c r="K22" s="54"/>
+      <c r="L22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="62"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
       <c r="P22" s="16">
         <v>0.4375</v>
       </c>
@@ -2776,16 +2779,16 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+      <c r="A23" s="62">
         <v>44769</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="60" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2796,16 +2799,16 @@
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="62">
         <v>44776</v>
       </c>
-      <c r="K23" s="116"/>
-      <c r="L23" s="60" t="s">
+      <c r="K23" s="81"/>
+      <c r="L23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="62"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
       <c r="P23" s="16">
         <v>0.71180555555555547</v>
       </c>
@@ -2818,16 +2821,16 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="71">
+      <c r="A24" s="62">
         <v>44774</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="16">
         <v>0.57291666666666663</v>
       </c>
@@ -2838,16 +2841,16 @@
         <f t="shared" si="2"/>
         <v>6.8750000000000089E-2</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="62">
         <v>44777</v>
       </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="60" t="s">
+      <c r="K24" s="54"/>
+      <c r="L24" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
       <c r="P24" s="16">
         <v>0.7055555555555556</v>
       </c>
@@ -2860,16 +2863,16 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+      <c r="A25" s="62">
         <v>44776</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="16">
         <v>0.6069444444444444</v>
       </c>
@@ -2880,12 +2883,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J25" s="117"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="78"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="5">
@@ -2894,16 +2897,16 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="62">
         <v>44777</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="60" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="16">
         <v>0.34166666666666662</v>
       </c>
@@ -2914,12 +2917,12 @@
         <f t="shared" si="2"/>
         <v>7.5000000000000067E-2</v>
       </c>
-      <c r="J26" s="117"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="56"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="78"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5">
@@ -2928,16 +2931,16 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+      <c r="A27" s="62">
         <v>44796</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="16">
         <v>0.58680555555555558</v>
       </c>
@@ -2948,12 +2951,12 @@
         <f t="shared" si="2"/>
         <v>7.5694444444444398E-2</v>
       </c>
-      <c r="J27" s="117"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="5">
@@ -2962,16 +2965,16 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="71">
+      <c r="A28" s="62">
         <v>44797</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="60" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="16">
         <v>0.56041666666666667</v>
       </c>
@@ -2982,12 +2985,12 @@
         <f t="shared" si="2"/>
         <v>7.7083333333333393E-2</v>
       </c>
-      <c r="J28" s="117"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="78"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5">
@@ -2996,16 +2999,16 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+      <c r="A29" s="62">
         <v>44819</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="16">
         <v>0.83124999999999993</v>
       </c>
@@ -3016,12 +3019,12 @@
         <f t="shared" si="2"/>
         <v>5.6944444444444464E-2</v>
       </c>
-      <c r="J29" s="117"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="78"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="5">
@@ -3030,16 +3033,16 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="71">
+      <c r="A30" s="62">
         <v>44822</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="60" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="16">
         <v>0.375</v>
       </c>
@@ -3050,12 +3053,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J30" s="117"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="78"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="5">
@@ -3064,16 +3067,16 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99">
+      <c r="A31" s="79">
         <v>44823</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="63" t="s">
+      <c r="B31" s="80"/>
+      <c r="C31" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
       <c r="G31" s="27">
         <v>0.42638888888888887</v>
       </c>
@@ -3084,12 +3087,12 @@
         <f t="shared" si="2"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="J31" s="117"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="78"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="5">
@@ -3098,16 +3101,16 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="101">
+      <c r="A32" s="66">
         <v>44825</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="73" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="24">
         <v>0.33333333333333331</v>
       </c>
@@ -3118,12 +3121,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J32" s="117"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="78"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="5">
@@ -3132,16 +3135,16 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="71">
+      <c r="A33" s="62">
         <v>44826</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="60" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="16">
         <v>0.77569444444444446</v>
       </c>
@@ -3152,12 +3155,12 @@
         <f t="shared" si="2"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="J33" s="117"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="56"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="78"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="5">
@@ -3166,16 +3169,16 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="71">
+      <c r="A34" s="62">
         <v>44847</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="60" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -3186,12 +3189,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J34" s="117"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="56"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="78"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="5">
@@ -3200,16 +3203,16 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
+      <c r="A35" s="62">
         <v>44856</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="60" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3220,12 +3223,12 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="J35" s="117"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="56"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="5">
@@ -3234,16 +3237,16 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="71">
+      <c r="A36" s="62">
         <v>44858</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="60" t="s">
+      <c r="B36" s="54"/>
+      <c r="C36" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="16">
         <v>0.60416666666666663</v>
       </c>
@@ -3254,12 +3257,12 @@
         <f t="shared" si="2"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="J36" s="117"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="56"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="78"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="5">
@@ -3268,16 +3271,16 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="71">
+      <c r="A37" s="62">
         <v>44859</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="72" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="16">
         <v>0.375</v>
       </c>
@@ -3288,12 +3291,12 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J37" s="117"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="56"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="78"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="5">
@@ -3302,16 +3305,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="103">
+      <c r="A38" s="64">
         <v>44861</v>
       </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="60" t="s">
+      <c r="B38" s="65"/>
+      <c r="C38" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="14">
         <v>0.58333333333333337</v>
       </c>
@@ -3322,12 +3325,12 @@
         <f>H38-G38</f>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J38" s="117"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="56"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="78"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="5">
@@ -3336,16 +3339,16 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="71">
+      <c r="A39" s="62">
         <v>44862</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="60" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="16">
         <v>0.5</v>
       </c>
@@ -3356,12 +3359,12 @@
         <f t="shared" si="2"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="J39" s="119"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="56"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="78"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="5">
@@ -3370,16 +3373,16 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="71">
+      <c r="A40" s="62">
         <v>44864</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="60" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="16">
         <v>0.75486111111111109</v>
       </c>
@@ -3390,12 +3393,12 @@
         <f t="shared" si="2"/>
         <v>0.1034722222222223</v>
       </c>
-      <c r="J40" s="117"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="56"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="78"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="5">
@@ -3404,16 +3407,16 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="71">
+      <c r="A41" s="62">
         <v>44866</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="60" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3424,12 +3427,12 @@
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="J41" s="117"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="56"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="78"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="5">
@@ -3438,16 +3441,16 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="71">
+      <c r="A42" s="62">
         <v>44866</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="60" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="62"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="16">
         <v>0.625</v>
       </c>
@@ -3458,12 +3461,12 @@
         <f t="shared" si="2"/>
         <v>0.23611111111111116</v>
       </c>
-      <c r="J42" s="117"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="56"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="78"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="5">
@@ -3472,16 +3475,16 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="71">
+      <c r="A43" s="62">
         <v>44869</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="16">
         <v>0.36805555555555558</v>
       </c>
@@ -3492,12 +3495,12 @@
         <f t="shared" si="2"/>
         <v>0.12152777777777773</v>
       </c>
-      <c r="J43" s="117"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="56"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="78"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="5">
@@ -3506,16 +3509,16 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="71">
+      <c r="A44" s="62">
         <v>44870</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="60" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="62"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="16">
         <v>0.625</v>
       </c>
@@ -3526,12 +3529,12 @@
         <f t="shared" si="2"/>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J44" s="117"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="56"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="78"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="5">
@@ -3540,16 +3543,16 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+      <c r="A45" s="62">
         <v>44873</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="60" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="62"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="16">
         <v>0.55555555555555558</v>
       </c>
@@ -3560,12 +3563,12 @@
         <f t="shared" si="2"/>
         <v>0.1694444444444444</v>
       </c>
-      <c r="J45" s="117"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="56"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="78"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="5">
@@ -3574,16 +3577,16 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="71">
+      <c r="A46" s="62">
         <v>44874</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="16">
         <v>0.33333333333333331</v>
       </c>
@@ -3594,12 +3597,12 @@
         <f t="shared" si="2"/>
         <v>0.18402777777777773</v>
       </c>
-      <c r="J46" s="117"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="56"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="78"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="5">
@@ -3608,16 +3611,16 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="71">
+      <c r="A47" s="62">
         <v>44874</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="60" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="62"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="16">
         <v>0.57708333333333328</v>
       </c>
@@ -3628,12 +3631,12 @@
         <f t="shared" si="2"/>
         <v>0.12500000000000011</v>
       </c>
-      <c r="J47" s="117"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="56"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="78"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="5">
@@ -3642,16 +3645,16 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="71">
+      <c r="A48" s="62">
         <v>44879</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="60" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="62"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="16">
         <v>0.45833333333333331</v>
       </c>
@@ -3662,12 +3665,12 @@
         <f t="shared" si="2"/>
         <v>0.15277777777777773</v>
       </c>
-      <c r="J48" s="117"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="56"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="78"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="5">
@@ -3676,16 +3679,16 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="99">
+      <c r="A49" s="79">
         <v>44893</v>
       </c>
-      <c r="B49" s="100"/>
-      <c r="C49" s="63" t="s">
+      <c r="B49" s="80"/>
+      <c r="C49" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="65"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
       <c r="G49" s="27">
         <v>0.75</v>
       </c>
@@ -3696,12 +3699,12 @@
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J49" s="117"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="56"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="78"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="5">
@@ -3710,46 +3713,46 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="118"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="57" t="s">
+      <c r="A50" s="58"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="13">
         <f>SUM(I10:I49)</f>
         <v>4.4076388888888891</v>
       </c>
-      <c r="J50" s="118"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="57" t="s">
+      <c r="J50" s="58"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q50" s="59"/>
+      <c r="Q50" s="52"/>
       <c r="R50" s="13">
         <f>SUM(R10:R49)</f>
         <v>0.82083333333333319</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+      <c r="A51" s="71">
         <v>44910</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="72"/>
+      <c r="C51" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="75"/>
       <c r="G51" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -3760,12 +3763,12 @@
         <f>H51-G51</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="J51" s="69"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="68"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="75"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="5">
@@ -3774,16 +3777,16 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="71">
+      <c r="A52" s="62">
         <v>44911</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="60" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="16">
         <v>0.5</v>
       </c>
@@ -3794,12 +3797,12 @@
         <f>H52-G52</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="J52" s="71"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="57"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="17"/>
       <c r="R52" s="5">
@@ -3808,32 +3811,32 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="71">
+      <c r="A53" s="62">
         <v>44912</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="60" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="62"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="16">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="H53" s="17">
         <v>1</v>
       </c>
       <c r="I53" s="5">
         <f t="shared" ref="I53:I78" si="5">H53-G53</f>
-        <v>0.25</v>
-      </c>
-      <c r="J53" s="71"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="62"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="J53" s="62"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="57"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
       <c r="R53" s="5">
@@ -3842,16 +3845,16 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="71">
+      <c r="A54" s="62">
         <v>44913</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="60" t="s">
+      <c r="B54" s="54"/>
+      <c r="C54" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="62"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="16">
         <v>0.5</v>
       </c>
@@ -3862,12 +3865,12 @@
         <f t="shared" si="5"/>
         <v>0.39027777777777783</v>
       </c>
-      <c r="J54" s="71"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="57"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="5">
@@ -3876,16 +3879,16 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="71">
+      <c r="A55" s="62">
         <v>44914</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="60" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="16">
         <v>0.50902777777777775</v>
       </c>
@@ -3896,12 +3899,12 @@
         <f t="shared" si="5"/>
         <v>0.32222222222222219</v>
       </c>
-      <c r="J55" s="71"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="57"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="17"/>
       <c r="R55" s="5">
@@ -3910,24 +3913,32 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
+      <c r="A56" s="62">
+        <v>44914</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="16">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="H56" s="17">
+        <v>0.9916666666666667</v>
+      </c>
       <c r="I56" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="71"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="62"/>
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="J56" s="62"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="57"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
       <c r="R56" s="5">
@@ -3936,24 +3947,24 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="62"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
       <c r="I57" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J57" s="71"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="57"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="5">
@@ -3962,24 +3973,24 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="62"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J58" s="71"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="57"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="5">
@@ -3988,24 +3999,24 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="62"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
       <c r="I59" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J59" s="71"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="57"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="5">
@@ -4014,24 +4025,24 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="62"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="16"/>
       <c r="H60" s="17"/>
       <c r="I60" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J60" s="71"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="57"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="5">
@@ -4040,24 +4051,24 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="62"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
       <c r="I61" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J61" s="71"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="57"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="5">
@@ -4066,24 +4077,24 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="62"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
       <c r="I62" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J62" s="71"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="57"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="5">
@@ -4092,24 +4103,24 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
       <c r="I63" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J63" s="71"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="57"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="5">
@@ -4118,24 +4129,24 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="62"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
       <c r="I64" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J64" s="71"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="57"/>
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="5">
@@ -4144,24 +4155,24 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J65" s="71"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="57"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="5">
@@ -4170,24 +4181,24 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="62"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J66" s="71"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="57"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="5">
@@ -4196,24 +4207,24 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J67" s="71"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="57"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
       <c r="R67" s="5">
@@ -4222,24 +4233,24 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="62"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J68" s="71"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="57"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
       <c r="R68" s="5">
@@ -4248,24 +4259,24 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="62"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J69" s="71"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="57"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
       <c r="R69" s="5">
@@ -4274,24 +4285,24 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J70" s="71"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="57"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="5">
@@ -4300,24 +4311,24 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="62"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J71" s="71"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="57"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="5">
@@ -4326,24 +4337,24 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="62"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
       <c r="I72" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J72" s="71"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="57"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="30">
@@ -4352,24 +4363,24 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="101"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="75"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="70"/>
       <c r="G73" s="24"/>
       <c r="H73" s="25"/>
       <c r="I73" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J73" s="101"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="75"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="70"/>
       <c r="P73" s="24"/>
       <c r="Q73" s="25"/>
       <c r="R73" s="26">
@@ -4378,24 +4389,24 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="62"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
       <c r="I74" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J74" s="71"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="57"/>
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="5">
@@ -4404,24 +4415,24 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="62"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="71"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="57"/>
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
       <c r="R75" s="5">
@@ -4430,24 +4441,24 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="62"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
       <c r="I76" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J76" s="71"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="57"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="5">
@@ -4456,24 +4467,24 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J77" s="71"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="57"/>
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="5">
@@ -4482,24 +4493,24 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="62"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J78" s="71"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="57"/>
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="5">
@@ -4508,24 +4519,24 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="103"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="62"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
       <c r="I79" s="5">
         <f>H79-G79</f>
         <v>0</v>
       </c>
-      <c r="J79" s="103"/>
-      <c r="K79" s="104"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="61"/>
-      <c r="N79" s="61"/>
-      <c r="O79" s="62"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="57"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="5">
@@ -4534,24 +4545,24 @@
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="62"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="5">
         <f t="shared" ref="I80:I88" si="7">H80-G80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="71"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="57"/>
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="5">
@@ -4560,24 +4571,24 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J81" s="71"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="57"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="5">
@@ -4586,24 +4597,24 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="62"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J82" s="71"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="57"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="5">
@@ -4612,24 +4623,24 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="62"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="16"/>
       <c r="H83" s="17"/>
       <c r="I83" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J83" s="71"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="57"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="5">
@@ -4638,24 +4649,24 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="62"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
       <c r="I84" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J84" s="71"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="57"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="5">
@@ -4664,24 +4675,24 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="62"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
       <c r="I85" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J85" s="71"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="62"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="57"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="5">
@@ -4690,24 +4701,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="117"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="62"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
       <c r="I86" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J86" s="117"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
-      <c r="O86" s="62"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="57"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="5">
@@ -4716,24 +4727,24 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="117"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="62"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
       <c r="I87" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J87" s="117"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="62"/>
+      <c r="J87" s="53"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="57"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="5">
@@ -4742,24 +4753,24 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="117"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="62"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
       <c r="I88" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J88" s="117"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="61"/>
-      <c r="N88" s="61"/>
-      <c r="O88" s="62"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="57"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="5">
@@ -4768,24 +4779,24 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="117"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="62"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="5">
         <f t="shared" ref="I89" si="9">H89-G89</f>
         <v>0</v>
       </c>
-      <c r="J89" s="117"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="61"/>
-      <c r="N89" s="61"/>
-      <c r="O89" s="62"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="57"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="5">
@@ -4794,24 +4805,24 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="117"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="62"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
       <c r="I90" s="5">
         <f t="shared" ref="I90:I99" si="10">H90-G90</f>
         <v>0</v>
       </c>
-      <c r="J90" s="117"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-      <c r="O90" s="62"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="57"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="5">
@@ -4820,24 +4831,24 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="117"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="62"/>
+      <c r="A91" s="53"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
       <c r="I91" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J91" s="117"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="61"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="62"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="57"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="5">
@@ -4846,24 +4857,24 @@
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="117"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="62"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
       <c r="I92" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J92" s="117"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="61"/>
-      <c r="N92" s="61"/>
-      <c r="O92" s="62"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="57"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="5">
@@ -4872,24 +4883,24 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="117"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="62"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
       <c r="I93" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J93" s="117"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="61"/>
-      <c r="N93" s="61"/>
-      <c r="O93" s="62"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="57"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="5">
@@ -4898,24 +4909,24 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="117"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="62"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
       <c r="I94" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J94" s="117"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="61"/>
-      <c r="N94" s="61"/>
-      <c r="O94" s="62"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="54"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="57"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="5">
@@ -4924,24 +4935,24 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="117"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="62"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="57"/>
       <c r="G95" s="2"/>
       <c r="H95" s="3"/>
       <c r="I95" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J95" s="117"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="60"/>
-      <c r="M95" s="61"/>
-      <c r="N95" s="61"/>
-      <c r="O95" s="62"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="57"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="5">
@@ -4950,24 +4961,24 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="117"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="62"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="57"/>
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
       <c r="I96" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J96" s="117"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="60"/>
-      <c r="M96" s="61"/>
-      <c r="N96" s="61"/>
-      <c r="O96" s="62"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="57"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="5">
@@ -4976,24 +4987,24 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="117"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="62"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="57"/>
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
       <c r="I97" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J97" s="117"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="61"/>
-      <c r="N97" s="61"/>
-      <c r="O97" s="62"/>
+      <c r="J97" s="53"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="57"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="5">
@@ -5002,24 +5013,24 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="117"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="62"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="57"/>
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
       <c r="I98" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J98" s="117"/>
-      <c r="K98" s="55"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="61"/>
-      <c r="N98" s="61"/>
-      <c r="O98" s="62"/>
+      <c r="J98" s="53"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="56"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="57"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="5">
@@ -5028,24 +5039,24 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="117"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="62"/>
+      <c r="A99" s="53"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="57"/>
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
       <c r="I99" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J99" s="117"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="60"/>
-      <c r="M99" s="61"/>
-      <c r="N99" s="61"/>
-      <c r="O99" s="62"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="56"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="57"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="5">
@@ -5054,30 +5065,30 @@
       </c>
     </row>
     <row r="100" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="118"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="57" t="s">
+      <c r="A100" s="58"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="59"/>
+      <c r="H100" s="52"/>
       <c r="I100" s="13">
         <f>SUM(I51:I99)+I50</f>
-        <v>5.6430555555555557</v>
-      </c>
-      <c r="J100" s="118"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="51"/>
-      <c r="M100" s="52"/>
-      <c r="N100" s="52"/>
-      <c r="O100" s="53"/>
-      <c r="P100" s="57" t="s">
+        <v>5.8416666666666668</v>
+      </c>
+      <c r="J100" s="58"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="61"/>
+      <c r="P100" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q100" s="59"/>
+      <c r="Q100" s="52"/>
       <c r="R100" s="13">
         <f>SUM(R51:R99)+R50</f>
         <v>0.82083333333333319</v>
@@ -5086,208 +5097,174 @@
     <row r="101" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="394">
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:O100"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -5312,174 +5289,208 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:O100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76774531-C084-40C6-86C4-6888BE0A24D9}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{827DC53F-BEAE-4A5A-B38B-6F7A3794D191}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Wenn User sich einmal eingeloggt hat, muss er sich kein zweites mal einloggen</t>
+  </si>
+  <si>
+    <t>Add UpdateSytem with new Colorpattern</t>
   </si>
 </sst>
 </file>
@@ -1325,210 +1328,210 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1824,12 +1827,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
@@ -1842,10 +1845,10 @@
       <c r="H1" s="32"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34">
         <f>D7+D10</f>
-        <v>6.6624999999999996</v>
+        <v>6.9236111111111107</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1856,7 +1859,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1867,7 +1870,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="45" t="s">
         <v>13</v>
       </c>
@@ -1880,7 +1883,7 @@
       <c r="H4" s="46"/>
       <c r="I4" s="47"/>
     </row>
-    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
@@ -1891,7 +1894,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +1909,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>27</v>
       </c>
@@ -1914,7 +1917,7 @@
       <c r="C7" s="50"/>
       <c r="D7" s="35">
         <f>Projektstundennachweis!I100</f>
-        <v>5.8416666666666668</v>
+        <v>6.1027777777777779</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -1922,7 +1925,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1933,7 +1936,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>4</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>27</v>
       </c>
@@ -1988,261 +1991,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="23" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="23"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="23" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="23"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84" t="s">
+    <row r="1" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="77"/>
+      <c r="L1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="86"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="87" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="56" t="s">
+      <c r="K2" s="79"/>
+      <c r="L2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="89"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="90" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="101"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="83"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="111"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="112"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="107" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="109"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="32"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="94" t="s">
+      <c r="I5" s="113"/>
+      <c r="J5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="107" t="s">
+      <c r="K5" s="106"/>
+      <c r="L5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
       <c r="P5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="102"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="103" t="s">
+      <c r="R5" s="113"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="103" t="s">
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="103" t="s">
+      <c r="Q6" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="105" t="s">
+      <c r="R6" s="88" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="105"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="105"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="106"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="88"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="88"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="109"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="89"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="69">
         <v>44730</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2253,16 +2256,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="69">
         <v>44730</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73" t="s">
+      <c r="K10" s="70"/>
+      <c r="L10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2274,17 +2277,17 @@
         <v>8.8194444444444464E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="71">
         <v>44731</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2295,16 +2298,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="71">
         <v>44731</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
       <c r="P11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2316,17 +2319,17 @@
         <v>5.208333333333337E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="71">
         <v>44732</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="16">
         <v>0.375</v>
       </c>
@@ -2337,16 +2340,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="71">
         <v>44732</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55" t="s">
+      <c r="K12" s="55"/>
+      <c r="L12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
       <c r="P12" s="16">
         <v>0.375</v>
       </c>
@@ -2358,17 +2361,17 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="71">
         <v>44732</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2379,16 +2382,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="71">
         <v>44732</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55" t="s">
+      <c r="K13" s="55"/>
+      <c r="L13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
       <c r="P13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2400,17 +2403,17 @@
         <v>4.5138888888888951E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="71">
         <v>44734</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2421,16 +2424,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="71">
         <v>44734</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55" t="s">
+      <c r="K14" s="55"/>
+      <c r="L14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
       <c r="P14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2442,17 +2445,17 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="71">
         <v>44741</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2463,16 +2466,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="71">
         <v>44741</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55" t="s">
+      <c r="K15" s="55"/>
+      <c r="L15" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="62"/>
       <c r="P15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2484,17 +2487,17 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="71">
         <v>44759</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2505,16 +2508,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="71">
         <v>44759</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55" t="s">
+      <c r="K16" s="55"/>
+      <c r="L16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="57"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="62"/>
       <c r="P16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2526,17 +2529,17 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="71">
         <v>44753</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="16">
         <v>0.70833333333333337</v>
       </c>
@@ -2547,16 +2550,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="71">
         <v>44759</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55" t="s">
+      <c r="K17" s="55"/>
+      <c r="L17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
       <c r="P17" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2568,17 +2571,17 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="71">
         <v>44759</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="16">
         <v>0.65138888888888891</v>
       </c>
@@ -2589,16 +2592,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="71">
         <v>44759</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55" t="s">
+      <c r="K18" s="55"/>
+      <c r="L18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="57"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="62"/>
       <c r="P18" s="16">
         <v>0.74791666666666667</v>
       </c>
@@ -2610,17 +2613,17 @@
         <v>4.9999999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="62">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="71">
         <v>44760</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2631,16 +2634,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="71">
         <v>44760</v>
       </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="55" t="s">
+      <c r="K19" s="56"/>
+      <c r="L19" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="57"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
       <c r="P19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2652,17 +2655,17 @@
         <v>7.2222222222222188E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="71">
         <v>44768</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="16">
         <v>0.91666666666666663</v>
       </c>
@@ -2673,16 +2676,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="71">
         <v>44768</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55" t="s">
+      <c r="K20" s="55"/>
+      <c r="L20" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62"/>
       <c r="P20" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2694,17 +2697,17 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="71">
         <v>44768</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2715,16 +2718,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="71">
         <v>44769</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55" t="s">
+      <c r="K21" s="55"/>
+      <c r="L21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="57"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
       <c r="P21" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2736,17 +2739,17 @@
         <v>4.9305555555555547E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="71">
         <v>44769</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="16">
         <v>0.4375</v>
       </c>
@@ -2757,16 +2760,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="71">
         <v>44769</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55" t="s">
+      <c r="K22" s="55"/>
+      <c r="L22" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="57"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="16">
         <v>0.4375</v>
       </c>
@@ -2778,17 +2781,17 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="71">
         <v>44769</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2799,16 +2802,16 @@
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="71">
         <v>44776</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="55" t="s">
+      <c r="K23" s="116"/>
+      <c r="L23" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="57"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="62"/>
       <c r="P23" s="16">
         <v>0.71180555555555547</v>
       </c>
@@ -2820,17 +2823,17 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="71">
         <v>44774</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="63" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="16">
         <v>0.57291666666666663</v>
       </c>
@@ -2841,16 +2844,16 @@
         <f t="shared" si="2"/>
         <v>6.8750000000000089E-2</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="71">
         <v>44777</v>
       </c>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55" t="s">
+      <c r="K24" s="55"/>
+      <c r="L24" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="62"/>
       <c r="P24" s="16">
         <v>0.7055555555555556</v>
       </c>
@@ -2862,17 +2865,17 @@
         <v>4.6527777777777724E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="62">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="71">
         <v>44776</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="16">
         <v>0.6069444444444444</v>
       </c>
@@ -2883,12 +2886,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="78"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="5">
@@ -2896,17 +2899,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="71">
         <v>44777</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="16">
         <v>0.34166666666666662</v>
       </c>
@@ -2917,12 +2920,12 @@
         <f t="shared" si="2"/>
         <v>7.5000000000000067E-2</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="78"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="56"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5">
@@ -2930,17 +2933,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="71">
         <v>44796</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="16">
         <v>0.58680555555555558</v>
       </c>
@@ -2951,12 +2954,12 @@
         <f t="shared" si="2"/>
         <v>7.5694444444444398E-2</v>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="78"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="5">
@@ -2964,17 +2967,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="71">
         <v>44797</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="16">
         <v>0.56041666666666667</v>
       </c>
@@ -2985,12 +2988,12 @@
         <f t="shared" si="2"/>
         <v>7.7083333333333393E-2</v>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="78"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5">
@@ -2998,17 +3001,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="71">
         <v>44819</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="16">
         <v>0.83124999999999993</v>
       </c>
@@ -3019,12 +3022,12 @@
         <f t="shared" si="2"/>
         <v>5.6944444444444464E-2</v>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="78"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="5">
@@ -3032,17 +3035,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="62">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="71">
         <v>44822</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="16">
         <v>0.375</v>
       </c>
@@ -3053,12 +3056,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="78"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="5">
@@ -3066,17 +3069,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79">
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="99">
         <v>44823</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="116" t="s">
+      <c r="B31" s="100"/>
+      <c r="C31" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="27">
         <v>0.42638888888888887</v>
       </c>
@@ -3087,12 +3090,12 @@
         <f t="shared" si="2"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="78"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="5">
@@ -3100,17 +3103,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="66">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="101">
         <v>44825</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="102"/>
+      <c r="C32" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
       <c r="G32" s="24">
         <v>0.33333333333333331</v>
       </c>
@@ -3121,12 +3124,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="78"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="5">
@@ -3134,17 +3137,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="62">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="71">
         <v>44826</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="16">
         <v>0.77569444444444446</v>
       </c>
@@ -3155,12 +3158,12 @@
         <f t="shared" si="2"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="78"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="5">
@@ -3168,17 +3171,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="71">
         <v>44847</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -3189,12 +3192,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="78"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="5">
@@ -3202,17 +3205,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="62">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="71">
         <v>44856</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55" t="s">
+      <c r="B35" s="55"/>
+      <c r="C35" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3223,12 +3226,12 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="78"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="56"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="5">
@@ -3236,17 +3239,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="62">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="71">
         <v>44858</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="16">
         <v>0.60416666666666663</v>
       </c>
@@ -3257,12 +3260,12 @@
         <f t="shared" si="2"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="78"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="5">
@@ -3270,17 +3273,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="62">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="71">
         <v>44859</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="63" t="s">
+      <c r="B37" s="55"/>
+      <c r="C37" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="16">
         <v>0.375</v>
       </c>
@@ -3291,12 +3294,12 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="78"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="56"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="5">
@@ -3304,17 +3307,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="64">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="103">
         <v>44861</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="55" t="s">
+      <c r="B38" s="104"/>
+      <c r="C38" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="14">
         <v>0.58333333333333337</v>
       </c>
@@ -3325,12 +3328,12 @@
         <f>H38-G38</f>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="78"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="56"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="5">
@@ -3338,17 +3341,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="62">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="71">
         <v>44862</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55" t="s">
+      <c r="B39" s="55"/>
+      <c r="C39" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="16">
         <v>0.5</v>
       </c>
@@ -3359,12 +3362,12 @@
         <f t="shared" si="2"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="J39" s="76"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="78"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="56"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="5">
@@ -3372,17 +3375,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="62">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="71">
         <v>44864</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55" t="s">
+      <c r="B40" s="55"/>
+      <c r="C40" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="16">
         <v>0.75486111111111109</v>
       </c>
@@ -3393,12 +3396,12 @@
         <f t="shared" si="2"/>
         <v>0.1034722222222223</v>
       </c>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="78"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="56"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="5">
@@ -3406,17 +3409,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="62">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="71">
         <v>44866</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55" t="s">
+      <c r="B41" s="55"/>
+      <c r="C41" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3427,12 +3430,12 @@
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="78"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="56"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="5">
@@ -3440,17 +3443,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="62">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="71">
         <v>44866</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55" t="s">
+      <c r="B42" s="55"/>
+      <c r="C42" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="16">
         <v>0.625</v>
       </c>
@@ -3461,12 +3464,12 @@
         <f t="shared" si="2"/>
         <v>0.23611111111111116</v>
       </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="78"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="56"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="5">
@@ -3474,17 +3477,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="62">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="71">
         <v>44869</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55" t="s">
+      <c r="B43" s="55"/>
+      <c r="C43" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="16">
         <v>0.36805555555555558</v>
       </c>
@@ -3495,12 +3498,12 @@
         <f t="shared" si="2"/>
         <v>0.12152777777777773</v>
       </c>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="78"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="56"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="5">
@@ -3508,17 +3511,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="62">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="71">
         <v>44870</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55" t="s">
+      <c r="B44" s="55"/>
+      <c r="C44" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="16">
         <v>0.625</v>
       </c>
@@ -3529,12 +3532,12 @@
         <f t="shared" si="2"/>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J44" s="53"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="78"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="56"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="5">
@@ -3542,17 +3545,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="62">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="71">
         <v>44873</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55" t="s">
+      <c r="B45" s="55"/>
+      <c r="C45" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="57"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="16">
         <v>0.55555555555555558</v>
       </c>
@@ -3563,12 +3566,12 @@
         <f t="shared" si="2"/>
         <v>0.1694444444444444</v>
       </c>
-      <c r="J45" s="53"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="78"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="56"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="5">
@@ -3576,17 +3579,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="62">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="71">
         <v>44874</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="57"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="16">
         <v>0.33333333333333331</v>
       </c>
@@ -3597,12 +3600,12 @@
         <f t="shared" si="2"/>
         <v>0.18402777777777773</v>
       </c>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="78"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="5">
@@ -3610,17 +3613,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="62">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="71">
         <v>44874</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="55"/>
+      <c r="C47" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="57"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="16">
         <v>0.57708333333333328</v>
       </c>
@@ -3631,12 +3634,12 @@
         <f t="shared" si="2"/>
         <v>0.12500000000000011</v>
       </c>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="78"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="56"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="5">
@@ -3644,17 +3647,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="62">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="71">
         <v>44879</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="55"/>
+      <c r="C48" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="57"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="16">
         <v>0.45833333333333331</v>
       </c>
@@ -3665,12 +3668,12 @@
         <f t="shared" si="2"/>
         <v>0.15277777777777773</v>
       </c>
-      <c r="J48" s="53"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="78"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="56"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="5">
@@ -3678,17 +3681,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="79">
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="99">
         <v>44893</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="116" t="s">
+      <c r="B49" s="100"/>
+      <c r="C49" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="118"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65"/>
       <c r="G49" s="27">
         <v>0.75</v>
       </c>
@@ -3699,12 +3702,12 @@
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="78"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="56"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="5">
@@ -3712,47 +3715,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="51" t="s">
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="118"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="52"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="13">
         <f>SUM(I10:I49)</f>
         <v>4.4076388888888891</v>
       </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="51" t="s">
+      <c r="J50" s="118"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Q50" s="52"/>
+      <c r="Q50" s="59"/>
       <c r="R50" s="13">
         <f>SUM(R10:R49)</f>
         <v>0.82083333333333319</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71">
+    <row r="51" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="69">
         <v>44910</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="73" t="s">
+      <c r="B51" s="70"/>
+      <c r="C51" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="75"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
       <c r="G51" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -3763,12 +3766,12 @@
         <f>H51-G51</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="J51" s="71"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="75"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="68"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="5">
@@ -3776,17 +3779,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="62">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="71">
         <v>44911</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="57"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
       <c r="G52" s="16">
         <v>0.5</v>
       </c>
@@ -3797,12 +3800,12 @@
         <f>H52-G52</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="57"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="62"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="17"/>
       <c r="R52" s="5">
@@ -3810,17 +3813,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="62">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="71">
         <v>44912</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55" t="s">
+      <c r="B53" s="55"/>
+      <c r="C53" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="57"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="16">
         <v>0.70833333333333337</v>
       </c>
@@ -3831,12 +3834,12 @@
         <f t="shared" ref="I53:I78" si="5">H53-G53</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="J53" s="62"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="57"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="62"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
       <c r="R53" s="5">
@@ -3844,17 +3847,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="62">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="71">
         <v>44913</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="62"/>
       <c r="G54" s="16">
         <v>0.5</v>
       </c>
@@ -3865,12 +3868,12 @@
         <f t="shared" si="5"/>
         <v>0.39027777777777783</v>
       </c>
-      <c r="J54" s="62"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="57"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="62"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="5">
@@ -3878,17 +3881,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="62">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="71">
         <v>44914</v>
       </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55" t="s">
+      <c r="B55" s="55"/>
+      <c r="C55" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="57"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="16">
         <v>0.50902777777777775</v>
       </c>
@@ -3899,12 +3902,12 @@
         <f t="shared" si="5"/>
         <v>0.32222222222222219</v>
       </c>
-      <c r="J55" s="62"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="57"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="62"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="17"/>
       <c r="R55" s="5">
@@ -3912,17 +3915,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="62">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="71">
         <v>44914</v>
       </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55" t="s">
+      <c r="B56" s="55"/>
+      <c r="C56" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="16">
         <v>0.83472222222222225</v>
       </c>
@@ -3933,12 +3936,12 @@
         <f t="shared" si="5"/>
         <v>0.15694444444444444</v>
       </c>
-      <c r="J56" s="62"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="57"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="62"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
       <c r="R56" s="5">
@@ -3946,25 +3949,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="71">
+        <v>44915</v>
+      </c>
+      <c r="B57" s="55"/>
+      <c r="C57" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="16">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0.92083333333333339</v>
+      </c>
       <c r="I57" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="62"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="57"/>
+        <v>0.26111111111111118</v>
+      </c>
+      <c r="J57" s="71"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="62"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="5">
@@ -3972,25 +3983,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="57"/>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="71"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="62"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J58" s="62"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="57"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="62"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="5">
@@ -3998,25 +4009,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="57"/>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="71"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="62"/>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
       <c r="I59" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J59" s="62"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="57"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="62"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="5">
@@ -4024,25 +4035,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="57"/>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="71"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62"/>
       <c r="G60" s="16"/>
       <c r="H60" s="17"/>
       <c r="I60" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J60" s="62"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="57"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="62"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="5">
@@ -4050,25 +4061,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="57"/>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="71"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
       <c r="I61" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J61" s="62"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="57"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="62"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="5">
@@ -4076,25 +4087,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="71"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
       <c r="I62" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J62" s="62"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="57"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="62"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="5">
@@ -4102,25 +4113,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="57"/>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="71"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
       <c r="I63" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J63" s="62"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="57"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="62"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="5">
@@ -4128,25 +4139,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="57"/>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="71"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
       <c r="I64" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J64" s="62"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="57"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="62"/>
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="5">
@@ -4154,25 +4165,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="57"/>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="71"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J65" s="62"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="57"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="62"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="5">
@@ -4180,25 +4191,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="62"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="57"/>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="71"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J66" s="62"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="57"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="62"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="5">
@@ -4206,25 +4217,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="57"/>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="71"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J67" s="62"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="57"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="62"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
       <c r="R67" s="5">
@@ -4232,25 +4243,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="57"/>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="71"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J68" s="62"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="57"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="62"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
       <c r="R68" s="5">
@@ -4258,25 +4269,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="57"/>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="71"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J69" s="62"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="57"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="62"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
       <c r="R69" s="5">
@@ -4284,25 +4295,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="57"/>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="71"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J70" s="62"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="57"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="62"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="5">
@@ -4310,25 +4321,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="57"/>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="71"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J71" s="62"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="57"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="62"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="5">
@@ -4336,25 +4347,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="57"/>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="71"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
       <c r="I72" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J72" s="62"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="57"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="62"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="30">
@@ -4362,25 +4373,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="70"/>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" s="101"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="75"/>
       <c r="G73" s="24"/>
       <c r="H73" s="25"/>
       <c r="I73" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J73" s="66"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="69"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="70"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="75"/>
       <c r="P73" s="24"/>
       <c r="Q73" s="25"/>
       <c r="R73" s="26">
@@ -4388,25 +4399,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="57"/>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74" s="71"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
       <c r="I74" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J74" s="62"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="57"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="62"/>
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="5">
@@ -4414,25 +4425,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75" s="71"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="62"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="57"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="62"/>
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
       <c r="R75" s="5">
@@ -4440,25 +4451,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="57"/>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76" s="71"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
       <c r="I76" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J76" s="62"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="57"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="62"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="5">
@@ -4466,25 +4477,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="57"/>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77" s="71"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J77" s="62"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="57"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="62"/>
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="5">
@@ -4492,25 +4503,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="57"/>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A78" s="71"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="62"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J78" s="62"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="57"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="62"/>
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="5">
@@ -4518,25 +4529,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="57"/>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A79" s="103"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="62"/>
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
       <c r="I79" s="5">
         <f>H79-G79</f>
         <v>0</v>
       </c>
-      <c r="J79" s="64"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="57"/>
+      <c r="J79" s="103"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="62"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="5">
@@ -4544,25 +4555,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="57"/>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A80" s="71"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="5">
         <f t="shared" ref="I80:I88" si="7">H80-G80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="62"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="57"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="62"/>
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="5">
@@ -4570,25 +4581,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="57"/>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81" s="71"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J81" s="62"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="57"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="62"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="5">
@@ -4596,25 +4607,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="57"/>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82" s="71"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J82" s="62"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="57"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="62"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="5">
@@ -4622,25 +4633,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="57"/>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A83" s="71"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="16"/>
       <c r="H83" s="17"/>
       <c r="I83" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J83" s="62"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="57"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="62"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="5">
@@ -4648,25 +4659,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="57"/>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A84" s="71"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
       <c r="I84" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J84" s="62"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="57"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="62"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="5">
@@ -4674,25 +4685,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="57"/>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85" s="71"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="62"/>
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
       <c r="I85" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J85" s="62"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="57"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="62"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="5">
@@ -4700,25 +4711,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="57"/>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86" s="117"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="62"/>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
       <c r="I86" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J86" s="53"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="57"/>
+      <c r="J86" s="117"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="62"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="5">
@@ -4726,25 +4737,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="57"/>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A87" s="117"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="62"/>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
       <c r="I87" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J87" s="53"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="57"/>
+      <c r="J87" s="117"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="62"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="5">
@@ -4752,25 +4763,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="57"/>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88" s="117"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="62"/>
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
       <c r="I88" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J88" s="53"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="57"/>
+      <c r="J88" s="117"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="62"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="5">
@@ -4778,25 +4789,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="57"/>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A89" s="117"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="62"/>
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="5">
         <f t="shared" ref="I89" si="9">H89-G89</f>
         <v>0</v>
       </c>
-      <c r="J89" s="53"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="57"/>
+      <c r="J89" s="117"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="62"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="5">
@@ -4804,25 +4815,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="57"/>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A90" s="117"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="62"/>
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
       <c r="I90" s="5">
         <f t="shared" ref="I90:I99" si="10">H90-G90</f>
         <v>0</v>
       </c>
-      <c r="J90" s="53"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="55"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="57"/>
+      <c r="J90" s="117"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="62"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="5">
@@ -4830,25 +4841,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="57"/>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91" s="117"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="62"/>
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
       <c r="I91" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J91" s="53"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="57"/>
+      <c r="J91" s="117"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="61"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="62"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="5">
@@ -4856,25 +4867,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="57"/>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92" s="117"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="62"/>
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
       <c r="I92" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J92" s="53"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="57"/>
+      <c r="J92" s="117"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="62"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="5">
@@ -4882,25 +4893,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="57"/>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93" s="117"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="62"/>
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
       <c r="I93" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J93" s="53"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="55"/>
-      <c r="M93" s="56"/>
-      <c r="N93" s="56"/>
-      <c r="O93" s="57"/>
+      <c r="J93" s="117"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="62"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="5">
@@ -4908,25 +4919,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="57"/>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" s="117"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="62"/>
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
       <c r="I94" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J94" s="53"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="55"/>
-      <c r="M94" s="56"/>
-      <c r="N94" s="56"/>
-      <c r="O94" s="57"/>
+      <c r="J94" s="117"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="61"/>
+      <c r="N94" s="61"/>
+      <c r="O94" s="62"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="5">
@@ -4934,25 +4945,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="57"/>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95" s="117"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="62"/>
       <c r="G95" s="2"/>
       <c r="H95" s="3"/>
       <c r="I95" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J95" s="53"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="55"/>
-      <c r="M95" s="56"/>
-      <c r="N95" s="56"/>
-      <c r="O95" s="57"/>
+      <c r="J95" s="117"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="60"/>
+      <c r="M95" s="61"/>
+      <c r="N95" s="61"/>
+      <c r="O95" s="62"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="5">
@@ -4960,25 +4971,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="57"/>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96" s="117"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="62"/>
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
       <c r="I96" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J96" s="53"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="56"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="57"/>
+      <c r="J96" s="117"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="61"/>
+      <c r="N96" s="61"/>
+      <c r="O96" s="62"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="5">
@@ -4986,25 +4997,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="57"/>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A97" s="117"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="62"/>
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
       <c r="I97" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J97" s="53"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="56"/>
-      <c r="N97" s="56"/>
-      <c r="O97" s="57"/>
+      <c r="J97" s="117"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="62"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="5">
@@ -5012,25 +5023,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="57"/>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A98" s="117"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="62"/>
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
       <c r="I98" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J98" s="53"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="56"/>
-      <c r="N98" s="56"/>
-      <c r="O98" s="57"/>
+      <c r="J98" s="117"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="61"/>
+      <c r="N98" s="61"/>
+      <c r="O98" s="62"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="5">
@@ -5038,25 +5049,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="53"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="57"/>
+    <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="117"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="62"/>
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
       <c r="I99" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J99" s="53"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="56"/>
-      <c r="N99" s="56"/>
-      <c r="O99" s="57"/>
+      <c r="J99" s="117"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="60"/>
+      <c r="M99" s="61"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="62"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="5">
@@ -5064,207 +5075,241 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="58"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="51" t="s">
+    <row r="100" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="118"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="52"/>
+      <c r="H100" s="59"/>
       <c r="I100" s="13">
         <f>SUM(I51:I99)+I50</f>
-        <v>5.8416666666666668</v>
-      </c>
-      <c r="J100" s="58"/>
-      <c r="K100" s="52"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="60"/>
-      <c r="N100" s="60"/>
-      <c r="O100" s="61"/>
-      <c r="P100" s="51" t="s">
+        <v>6.1027777777777779</v>
+      </c>
+      <c r="J100" s="118"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
+      <c r="O100" s="53"/>
+      <c r="P100" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Q100" s="52"/>
+      <c r="Q100" s="59"/>
       <c r="R100" s="13">
         <f>SUM(R51:R99)+R50</f>
         <v>0.82083333333333319</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="394">
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C5:F9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="A5:B9"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="L5:O9"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:F55"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J38:K38"/>
@@ -5289,208 +5334,174 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="L5:O9"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C5:F9"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/School/Thesis/AberGymMobile/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{827DC53F-BEAE-4A5A-B38B-6F7A3794D191}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="13_ncr:1_{ADC7565D-6D2B-46F5-93DA-F8195510DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C9C5C2A-E37B-40BD-939F-2C30C40F265B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Erfassungszeitraum</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Add UpdateSytem with new Colorpattern</t>
+  </si>
+  <si>
+    <t>Finish UpdateSystem (Connected to Db), SplashScreen with Animation and Bugfixes</t>
   </si>
 </sst>
 </file>
@@ -1328,6 +1331,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1336,32 +1363,167 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1372,166 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1827,12 +1830,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
@@ -1845,10 +1848,10 @@
       <c r="H1" s="32"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <f>D7+D10</f>
-        <v>6.9236111111111107</v>
+        <v>7.5736111111111111</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1859,7 +1862,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1870,7 +1873,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>13</v>
       </c>
@@ -1883,7 +1886,7 @@
       <c r="H4" s="46"/>
       <c r="I4" s="47"/>
     </row>
-    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
@@ -1894,7 +1897,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
@@ -1909,7 +1912,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>27</v>
       </c>
@@ -1917,7 +1920,7 @@
       <c r="C7" s="50"/>
       <c r="D7" s="35">
         <f>Projektstundennachweis!I100</f>
-        <v>6.1027777777777779</v>
+        <v>6.7527777777777782</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -1925,7 +1928,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1936,7 +1939,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1954,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>27</v>
       </c>
@@ -1991,261 +1994,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E1358-462B-47CB-9766-E4587C35E91E}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="23" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="23"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="23" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="23"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="85" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="85" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="86"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="78" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="61" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="84"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="89"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="80" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82" t="s">
+      <c r="K3" s="91"/>
+      <c r="L3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="111"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="112"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="105" t="s">
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="101"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="90" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="32"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="105" t="s">
+      <c r="I5" s="102"/>
+      <c r="J5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="90" t="s">
+      <c r="K5" s="95"/>
+      <c r="L5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
       <c r="P5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="113"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="114" t="s">
+      <c r="R5" s="102"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="114" t="s">
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="114" t="s">
+      <c r="Q6" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="88" t="s">
+      <c r="R6" s="105" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="88"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="88"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="109"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="89"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="69">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="105"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="105"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="106"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
         <v>44730</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2256,16 +2259,16 @@
         <f>H10-G10</f>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="71">
         <v>44730</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="66" t="s">
+      <c r="K10" s="72"/>
+      <c r="L10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="75"/>
       <c r="P10" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -2277,17 +2280,17 @@
         <v>8.8194444444444464E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="71">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="62">
         <v>44731</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="60" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2298,16 +2301,16 @@
         <f>H11-G11</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="62">
         <v>44731</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="60" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="16">
         <v>0.79166666666666663</v>
       </c>
@@ -2319,17 +2322,17 @@
         <v>5.208333333333337E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="71">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
         <v>44732</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="60" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="16">
         <v>0.375</v>
       </c>
@@ -2340,16 +2343,16 @@
         <f t="shared" ref="I12:I16" si="0">H12-G12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="62">
         <v>44732</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="60" t="s">
+      <c r="K12" s="54"/>
+      <c r="L12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
       <c r="P12" s="16">
         <v>0.375</v>
       </c>
@@ -2361,17 +2364,17 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="71">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="62">
         <v>44732</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2382,16 +2385,16 @@
         <f t="shared" si="0"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="62">
         <v>44732</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="60" t="s">
+      <c r="K13" s="54"/>
+      <c r="L13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="16">
         <v>0.60069444444444442</v>
       </c>
@@ -2403,17 +2406,17 @@
         <v>4.5138888888888951E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="71">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="62">
         <v>44734</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="60" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2424,16 +2427,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="62">
         <v>44734</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="60" t="s">
+      <c r="K14" s="54"/>
+      <c r="L14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
       <c r="P14" s="16">
         <v>0.50694444444444442</v>
       </c>
@@ -2445,17 +2448,17 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="71">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="62">
         <v>44741</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2466,16 +2469,16 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="J15" s="71">
+      <c r="J15" s="62">
         <v>44741</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="60" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="62"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -2487,17 +2490,17 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="71">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="62">
         <v>44759</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="60" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2508,16 +2511,16 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="62">
         <v>44759</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="60" t="s">
+      <c r="K16" s="54"/>
+      <c r="L16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="62"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="16">
         <v>0.86249999999999993</v>
       </c>
@@ -2529,17 +2532,17 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="71">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="62">
         <v>44753</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="60" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="16">
         <v>0.70833333333333337</v>
       </c>
@@ -2550,16 +2553,16 @@
         <f t="shared" ref="I17:I49" si="2">H17-G17</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="J17" s="71">
+      <c r="J17" s="62">
         <v>44759</v>
       </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="60" t="s">
+      <c r="K17" s="54"/>
+      <c r="L17" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
       <c r="P17" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2571,17 +2574,17 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="71">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="62">
         <v>44759</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="16">
         <v>0.65138888888888891</v>
       </c>
@@ -2592,16 +2595,16 @@
         <f t="shared" si="2"/>
         <v>0.14166666666666672</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="62">
         <v>44759</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="60" t="s">
+      <c r="K18" s="54"/>
+      <c r="L18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
       <c r="P18" s="16">
         <v>0.74791666666666667</v>
       </c>
@@ -2613,17 +2616,17 @@
         <v>4.9999999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="71">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="62">
         <v>44760</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2634,16 +2637,16 @@
         <f t="shared" si="2"/>
         <v>7.2222222222222188E-2</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="62">
         <v>44760</v>
       </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="60" t="s">
+      <c r="K19" s="78"/>
+      <c r="L19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="16">
         <v>0.6430555555555556</v>
       </c>
@@ -2655,17 +2658,17 @@
         <v>7.2222222222222188E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="71">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
         <v>44768</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="60" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="16">
         <v>0.91666666666666663</v>
       </c>
@@ -2676,16 +2679,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="J20" s="71">
+      <c r="J20" s="62">
         <v>44768</v>
       </c>
-      <c r="K20" s="55"/>
-      <c r="L20" s="60" t="s">
+      <c r="K20" s="54"/>
+      <c r="L20" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2697,17 +2700,17 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="71">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="62">
         <v>44768</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="60" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="16">
         <v>0.84027777777777779</v>
       </c>
@@ -2718,16 +2721,16 @@
         <f t="shared" ref="I21" si="3">H21-G21</f>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="J21" s="71">
+      <c r="J21" s="62">
         <v>44769</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="60" t="s">
+      <c r="K21" s="54"/>
+      <c r="L21" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2739,17 +2742,17 @@
         <v>4.9305555555555547E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="71">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
         <v>44769</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="60" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="16">
         <v>0.4375</v>
       </c>
@@ -2760,16 +2763,16 @@
         <f t="shared" si="2"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="62">
         <v>44769</v>
       </c>
-      <c r="K22" s="55"/>
-      <c r="L22" s="60" t="s">
+      <c r="K22" s="54"/>
+      <c r="L22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="62"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
       <c r="P22" s="16">
         <v>0.4375</v>
       </c>
@@ -2781,17 +2784,17 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="71">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="62">
         <v>44769</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="60" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="16">
         <v>0.4152777777777778</v>
       </c>
@@ -2802,16 +2805,16 @@
         <f t="shared" si="2"/>
         <v>4.9305555555555547E-2</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="62">
         <v>44776</v>
       </c>
-      <c r="K23" s="116"/>
-      <c r="L23" s="60" t="s">
+      <c r="K23" s="81"/>
+      <c r="L23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="62"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
       <c r="P23" s="16">
         <v>0.71180555555555547</v>
       </c>
@@ -2823,17 +2826,17 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="71">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="62">
         <v>44774</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="16">
         <v>0.57291666666666663</v>
       </c>
@@ -2844,16 +2847,16 @@
         <f t="shared" si="2"/>
         <v>6.8750000000000089E-2</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="62">
         <v>44777</v>
       </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="60" t="s">
+      <c r="K24" s="54"/>
+      <c r="L24" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
       <c r="P24" s="16">
         <v>0.7055555555555556</v>
       </c>
@@ -2865,17 +2868,17 @@
         <v>4.6527777777777724E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="71">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="62">
         <v>44776</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="16">
         <v>0.6069444444444444</v>
       </c>
@@ -2886,12 +2889,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J25" s="117"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="78"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="5">
@@ -2899,17 +2902,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="71">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
         <v>44777</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="60" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="16">
         <v>0.34166666666666662</v>
       </c>
@@ -2920,12 +2923,12 @@
         <f t="shared" si="2"/>
         <v>7.5000000000000067E-2</v>
       </c>
-      <c r="J26" s="117"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="56"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="78"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5">
@@ -2933,17 +2936,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="71">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="62">
         <v>44796</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="16">
         <v>0.58680555555555558</v>
       </c>
@@ -2954,12 +2957,12 @@
         <f t="shared" si="2"/>
         <v>7.5694444444444398E-2</v>
       </c>
-      <c r="J27" s="117"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="5">
@@ -2967,17 +2970,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="71">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="62">
         <v>44797</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="60" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="16">
         <v>0.56041666666666667</v>
       </c>
@@ -2988,12 +2991,12 @@
         <f t="shared" si="2"/>
         <v>7.7083333333333393E-2</v>
       </c>
-      <c r="J28" s="117"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="78"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5">
@@ -3001,17 +3004,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="71">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="62">
         <v>44819</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="16">
         <v>0.83124999999999993</v>
       </c>
@@ -3022,12 +3025,12 @@
         <f t="shared" si="2"/>
         <v>5.6944444444444464E-2</v>
       </c>
-      <c r="J29" s="117"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="78"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="5">
@@ -3035,17 +3038,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="71">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="62">
         <v>44822</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="60" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="16">
         <v>0.375</v>
       </c>
@@ -3056,12 +3059,12 @@
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="J30" s="117"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="78"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="5">
@@ -3069,17 +3072,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="99">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="79">
         <v>44823</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="63" t="s">
+      <c r="B31" s="80"/>
+      <c r="C31" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
       <c r="G31" s="27">
         <v>0.42638888888888887</v>
       </c>
@@ -3090,12 +3093,12 @@
         <f t="shared" si="2"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="J31" s="117"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="78"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="5">
@@ -3103,17 +3106,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="101">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="66">
         <v>44825</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="73" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="24">
         <v>0.33333333333333331</v>
       </c>
@@ -3124,12 +3127,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J32" s="117"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="78"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="5">
@@ -3137,17 +3140,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="71">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="62">
         <v>44826</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="60" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="16">
         <v>0.77569444444444446</v>
       </c>
@@ -3158,12 +3161,12 @@
         <f t="shared" si="2"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="J33" s="117"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="56"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="78"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="5">
@@ -3171,17 +3174,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="71">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="62">
         <v>44847</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="60" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="16">
         <v>0.49305555555555558</v>
       </c>
@@ -3192,12 +3195,12 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="J34" s="117"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="56"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="78"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="5">
@@ -3205,17 +3208,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="71">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="62">
         <v>44856</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="60" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3226,12 +3229,12 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="J35" s="117"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="56"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="5">
@@ -3239,17 +3242,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="71">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="62">
         <v>44858</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="60" t="s">
+      <c r="B36" s="54"/>
+      <c r="C36" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="16">
         <v>0.60416666666666663</v>
       </c>
@@ -3260,12 +3263,12 @@
         <f t="shared" si="2"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="J36" s="117"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="56"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="78"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="5">
@@ -3273,17 +3276,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="71">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="62">
         <v>44859</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="72" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="16">
         <v>0.375</v>
       </c>
@@ -3294,12 +3297,12 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J37" s="117"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="56"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="78"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="5">
@@ -3307,17 +3310,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="103">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
         <v>44861</v>
       </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="60" t="s">
+      <c r="B38" s="65"/>
+      <c r="C38" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="14">
         <v>0.58333333333333337</v>
       </c>
@@ -3328,12 +3331,12 @@
         <f>H38-G38</f>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J38" s="117"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="56"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="78"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="5">
@@ -3341,17 +3344,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="71">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="62">
         <v>44862</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="60" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="16">
         <v>0.5</v>
       </c>
@@ -3362,12 +3365,12 @@
         <f t="shared" si="2"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="J39" s="119"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="56"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="78"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="5">
@@ -3375,17 +3378,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="71">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="62">
         <v>44864</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="60" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="16">
         <v>0.75486111111111109</v>
       </c>
@@ -3396,12 +3399,12 @@
         <f t="shared" si="2"/>
         <v>0.1034722222222223</v>
       </c>
-      <c r="J40" s="117"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="56"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="78"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="5">
@@ -3409,17 +3412,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="71">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="62">
         <v>44866</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="60" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -3430,12 +3433,12 @@
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="J41" s="117"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="56"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="78"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="5">
@@ -3443,17 +3446,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="71">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="62">
         <v>44866</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="60" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="62"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="16">
         <v>0.625</v>
       </c>
@@ -3464,12 +3467,12 @@
         <f t="shared" si="2"/>
         <v>0.23611111111111116</v>
       </c>
-      <c r="J42" s="117"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="56"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="78"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="5">
@@ -3477,17 +3480,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="71">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="62">
         <v>44869</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="16">
         <v>0.36805555555555558</v>
       </c>
@@ -3498,12 +3501,12 @@
         <f t="shared" si="2"/>
         <v>0.12152777777777773</v>
       </c>
-      <c r="J43" s="117"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="56"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="78"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="5">
@@ -3511,17 +3514,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="71">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="62">
         <v>44870</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="60" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="62"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="16">
         <v>0.625</v>
       </c>
@@ -3532,12 +3535,12 @@
         <f t="shared" si="2"/>
         <v>0.18194444444444446</v>
       </c>
-      <c r="J44" s="117"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="56"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="78"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="5">
@@ -3545,17 +3548,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="71">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="62">
         <v>44873</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="60" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="62"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="16">
         <v>0.55555555555555558</v>
       </c>
@@ -3566,12 +3569,12 @@
         <f t="shared" si="2"/>
         <v>0.1694444444444444</v>
       </c>
-      <c r="J45" s="117"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="56"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="78"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="5">
@@ -3579,17 +3582,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="62">
         <v>44874</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="16">
         <v>0.33333333333333331</v>
       </c>
@@ -3600,12 +3603,12 @@
         <f t="shared" si="2"/>
         <v>0.18402777777777773</v>
       </c>
-      <c r="J46" s="117"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="56"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="78"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="5">
@@ -3613,17 +3616,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="71">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="62">
         <v>44874</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="60" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="62"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="16">
         <v>0.57708333333333328</v>
       </c>
@@ -3634,12 +3637,12 @@
         <f t="shared" si="2"/>
         <v>0.12500000000000011</v>
       </c>
-      <c r="J47" s="117"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="56"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="78"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="5">
@@ -3647,17 +3650,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="71">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="62">
         <v>44879</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="60" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="62"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="16">
         <v>0.45833333333333331</v>
       </c>
@@ -3668,12 +3671,12 @@
         <f t="shared" si="2"/>
         <v>0.15277777777777773</v>
       </c>
-      <c r="J48" s="117"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="56"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="78"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="5">
@@ -3681,17 +3684,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="99">
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="79">
         <v>44893</v>
       </c>
-      <c r="B49" s="100"/>
-      <c r="C49" s="63" t="s">
+      <c r="B49" s="80"/>
+      <c r="C49" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="65"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
       <c r="G49" s="27">
         <v>0.75</v>
       </c>
@@ -3702,12 +3705,12 @@
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="J49" s="117"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="56"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="78"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="5">
@@ -3715,47 +3718,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="118"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="57" t="s">
+    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="58"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="13">
         <f>SUM(I10:I49)</f>
         <v>4.4076388888888891</v>
       </c>
-      <c r="J50" s="118"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="57" t="s">
+      <c r="J50" s="58"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q50" s="59"/>
+      <c r="Q50" s="52"/>
       <c r="R50" s="13">
         <f>SUM(R10:R49)</f>
         <v>0.82083333333333319</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="69">
+    <row r="51" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="71">
         <v>44910</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="72"/>
+      <c r="C51" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="75"/>
       <c r="G51" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -3766,12 +3769,12 @@
         <f>H51-G51</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="J51" s="69"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="68"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="75"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="5">
@@ -3779,33 +3782,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="71">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="62">
         <v>44911</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="60" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="16">
         <v>0.5</v>
       </c>
       <c r="H52" s="17">
-        <v>0.69791666666666663</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="I52" s="5">
         <f>H52-G52</f>
-        <v>0.19791666666666663</v>
-      </c>
-      <c r="J52" s="71"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="62"/>
+        <v>0.44791666666666663</v>
+      </c>
+      <c r="J52" s="62"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="57"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="17"/>
       <c r="R52" s="5">
@@ -3813,17 +3816,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="71">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="62">
         <v>44912</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="60" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="62"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="16">
         <v>0.70833333333333337</v>
       </c>
@@ -3834,12 +3837,12 @@
         <f t="shared" ref="I53:I78" si="5">H53-G53</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="J53" s="71"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="57"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
       <c r="R53" s="5">
@@ -3847,17 +3850,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="71">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="62">
         <v>44913</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="60" t="s">
+      <c r="B54" s="54"/>
+      <c r="C54" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="62"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="16">
         <v>0.5</v>
       </c>
@@ -3868,12 +3871,12 @@
         <f t="shared" si="5"/>
         <v>0.39027777777777783</v>
       </c>
-      <c r="J54" s="71"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="57"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="5">
@@ -3881,17 +3884,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="71">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="62">
         <v>44914</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="60" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="16">
         <v>0.50902777777777775</v>
       </c>
@@ -3902,12 +3905,12 @@
         <f t="shared" si="5"/>
         <v>0.32222222222222219</v>
       </c>
-      <c r="J55" s="71"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="57"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="17"/>
       <c r="R55" s="5">
@@ -3915,17 +3918,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="71">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="62">
         <v>44914</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="60" t="s">
+      <c r="B56" s="54"/>
+      <c r="C56" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="16">
         <v>0.83472222222222225</v>
       </c>
@@ -3936,12 +3939,12 @@
         <f t="shared" si="5"/>
         <v>0.15694444444444444</v>
       </c>
-      <c r="J56" s="71"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="57"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
       <c r="R56" s="5">
@@ -3949,17 +3952,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="71">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="62">
         <v>44915</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="60" t="s">
+      <c r="B57" s="54"/>
+      <c r="C57" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="62"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="16">
         <v>0.65972222222222221</v>
       </c>
@@ -3970,12 +3973,12 @@
         <f t="shared" si="5"/>
         <v>0.26111111111111118</v>
       </c>
-      <c r="J57" s="71"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="57"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="5">
@@ -3983,25 +3986,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="71"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="62">
+        <v>44923</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="16">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="H58" s="17">
+        <v>0.96875</v>
+      </c>
       <c r="I58" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="71"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="62"/>
+        <v>0.4</v>
+      </c>
+      <c r="J58" s="62"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="57"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="5">
@@ -4009,25 +4020,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="71"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="62"/>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="62"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
       <c r="I59" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J59" s="71"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="57"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="5">
@@ -4035,25 +4046,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="71"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="62"/>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="62"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="16"/>
       <c r="H60" s="17"/>
       <c r="I60" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J60" s="71"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="57"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="5">
@@ -4061,25 +4072,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="71"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="62"/>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="62"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
       <c r="I61" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J61" s="71"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="57"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="5">
@@ -4087,25 +4098,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="71"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="62"/>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="62"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
       <c r="I62" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J62" s="71"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="57"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="5">
@@ -4113,25 +4124,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="71"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="62"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
       <c r="I63" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J63" s="71"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="57"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="5">
@@ -4139,25 +4150,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="71"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="62"/>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="62"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
       <c r="I64" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J64" s="71"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="57"/>
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="5">
@@ -4165,25 +4176,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="71"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62"/>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="62"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J65" s="71"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="57"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="5">
@@ -4191,25 +4202,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66" s="71"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="62"/>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="62"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J66" s="71"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="57"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="5">
@@ -4217,25 +4228,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67" s="71"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="62"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J67" s="71"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="57"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
       <c r="R67" s="5">
@@ -4243,25 +4254,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="71"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="62"/>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="62"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J68" s="71"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="57"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
       <c r="R68" s="5">
@@ -4269,25 +4280,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A69" s="71"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="62"/>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="62"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J69" s="71"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="57"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
       <c r="R69" s="5">
@@ -4295,25 +4306,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="71"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62"/>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="62"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J70" s="71"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="57"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="5">
@@ -4321,25 +4332,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71" s="71"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="62"/>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="62"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J71" s="71"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="57"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="5">
@@ -4347,25 +4358,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A72" s="71"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="62"/>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="62"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
       <c r="I72" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J72" s="71"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="57"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="30">
@@ -4373,25 +4384,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="101"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="75"/>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="66"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="70"/>
       <c r="G73" s="24"/>
       <c r="H73" s="25"/>
       <c r="I73" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J73" s="101"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="75"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="70"/>
       <c r="P73" s="24"/>
       <c r="Q73" s="25"/>
       <c r="R73" s="26">
@@ -4399,25 +4410,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="71"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="62"/>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="62"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
       <c r="I74" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J74" s="71"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="57"/>
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="5">
@@ -4425,25 +4436,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="71"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="62"/>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="62"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="71"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="57"/>
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
       <c r="R75" s="5">
@@ -4451,25 +4462,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="71"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="62"/>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="62"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
       <c r="I76" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J76" s="71"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="57"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="5">
@@ -4477,25 +4488,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="71"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J77" s="71"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="57"/>
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="5">
@@ -4503,25 +4514,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="71"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="62"/>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="62"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J78" s="71"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="57"/>
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="5">
@@ -4529,25 +4540,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="103"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="62"/>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="64"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
       <c r="I79" s="5">
         <f>H79-G79</f>
         <v>0</v>
       </c>
-      <c r="J79" s="103"/>
-      <c r="K79" s="104"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="61"/>
-      <c r="N79" s="61"/>
-      <c r="O79" s="62"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="57"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="5">
@@ -4555,25 +4566,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="71"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="62"/>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="62"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="5">
         <f t="shared" ref="I80:I88" si="7">H80-G80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="71"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="57"/>
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="5">
@@ -4581,25 +4592,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81" s="71"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="62"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J81" s="71"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="57"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="5">
@@ -4607,25 +4618,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="71"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="62"/>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="62"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J82" s="71"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="57"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="5">
@@ -4633,25 +4644,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="71"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="62"/>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="62"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="16"/>
       <c r="H83" s="17"/>
       <c r="I83" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J83" s="71"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="57"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="5">
@@ -4659,25 +4670,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="71"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="62"/>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="62"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
       <c r="I84" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J84" s="71"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="57"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="5">
@@ -4685,25 +4696,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="71"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="62"/>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="62"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
       <c r="I85" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J85" s="71"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="62"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="57"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="5">
@@ -4711,25 +4722,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86" s="117"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="62"/>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="53"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
       <c r="I86" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J86" s="117"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
-      <c r="O86" s="62"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="57"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="5">
@@ -4737,25 +4748,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="117"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="62"/>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="53"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
       <c r="I87" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J87" s="117"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="62"/>
+      <c r="J87" s="53"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="57"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="5">
@@ -4763,25 +4774,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="117"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="62"/>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="53"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
       <c r="I88" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J88" s="117"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="61"/>
-      <c r="N88" s="61"/>
-      <c r="O88" s="62"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="57"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="5">
@@ -4789,25 +4800,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="117"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="62"/>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="53"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="5">
         <f t="shared" ref="I89" si="9">H89-G89</f>
         <v>0</v>
       </c>
-      <c r="J89" s="117"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="61"/>
-      <c r="N89" s="61"/>
-      <c r="O89" s="62"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="57"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="5">
@@ -4815,25 +4826,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A90" s="117"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="62"/>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="53"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
       <c r="I90" s="5">
         <f t="shared" ref="I90:I99" si="10">H90-G90</f>
         <v>0</v>
       </c>
-      <c r="J90" s="117"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-      <c r="O90" s="62"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="57"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="5">
@@ -4841,25 +4852,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="117"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="62"/>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="53"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
       <c r="I91" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J91" s="117"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="61"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="62"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="57"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="5">
@@ -4867,25 +4878,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="117"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="62"/>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="53"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
       <c r="I92" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J92" s="117"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="61"/>
-      <c r="N92" s="61"/>
-      <c r="O92" s="62"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="57"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="5">
@@ -4893,25 +4904,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="117"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="62"/>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="53"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
       <c r="I93" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J93" s="117"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="61"/>
-      <c r="N93" s="61"/>
-      <c r="O93" s="62"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="57"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="5">
@@ -4919,25 +4930,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="117"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="62"/>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="53"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
       <c r="I94" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J94" s="117"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="61"/>
-      <c r="N94" s="61"/>
-      <c r="O94" s="62"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="54"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="57"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="5">
@@ -4945,25 +4956,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A95" s="117"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="62"/>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="53"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="57"/>
       <c r="G95" s="2"/>
       <c r="H95" s="3"/>
       <c r="I95" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J95" s="117"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="60"/>
-      <c r="M95" s="61"/>
-      <c r="N95" s="61"/>
-      <c r="O95" s="62"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="57"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="5">
@@ -4971,25 +4982,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="117"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="62"/>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="53"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="57"/>
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
       <c r="I96" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J96" s="117"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="60"/>
-      <c r="M96" s="61"/>
-      <c r="N96" s="61"/>
-      <c r="O96" s="62"/>
+      <c r="J96" s="53"/>
+      <